--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Spedicato.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Spedicato.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROGETTI\BG-10_Fisheries in the full ecosystem-SEAWISE\PROJECT WORK\WP4\4.1\Extraction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B5B6A5-8E51-4C34-A253-C51567CC03B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6730"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$43</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -52,14 +53,14 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Elliot John Brown</author>
     <author>MTS</author>
     <author>Esther Beukhof</author>
   </authors>
   <commentList>
-    <comment ref="R2" authorId="0" shapeId="0">
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -104,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0" shapeId="0">
+    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -128,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T2" authorId="0" shapeId="0">
+    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -153,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U2" authorId="0" shapeId="0">
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -199,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V2" authorId="1" shapeId="0">
+    <comment ref="V2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -224,7 +225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W2" authorId="0" shapeId="0">
+    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -248,7 +249,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X2" authorId="0" shapeId="0">
+    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -292,7 +293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y2" authorId="2" shapeId="0">
+    <comment ref="Y2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -316,7 +317,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z2" authorId="0" shapeId="0">
+    <comment ref="Z2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -341,7 +342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA2" authorId="0" shapeId="0">
+    <comment ref="AA2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -368,7 +369,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB2" authorId="0" shapeId="0">
+    <comment ref="AB2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -395,7 +396,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC2" authorId="0" shapeId="0">
+    <comment ref="AC2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -422,7 +423,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD2" authorId="0" shapeId="0">
+    <comment ref="AD2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -446,7 +447,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE2" authorId="0" shapeId="0">
+    <comment ref="AE2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -470,7 +471,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF2" authorId="2" shapeId="0">
+    <comment ref="AF2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -577,7 +578,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH2" authorId="2" shapeId="0">
+    <comment ref="AH2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -604,7 +605,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI2" authorId="2" shapeId="0">
+    <comment ref="AI2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -628,7 +629,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ2" authorId="2" shapeId="0">
+    <comment ref="AJ2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -652,7 +653,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK2" authorId="2" shapeId="0">
+    <comment ref="AK2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -678,7 +679,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL2" authorId="2" shapeId="0">
+    <comment ref="AL2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -710,7 +711,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM2" authorId="2" shapeId="0">
+    <comment ref="AM2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -891,7 +892,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN2" authorId="2" shapeId="0">
+    <comment ref="AN2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -924,7 +925,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO2" authorId="2" shapeId="0">
+    <comment ref="AO2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -949,7 +950,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP2" authorId="2" shapeId="0">
+    <comment ref="AP2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -975,7 +976,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ2" authorId="2" shapeId="0">
+    <comment ref="AQ2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -1002,7 +1003,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR2" authorId="2" shapeId="0">
+    <comment ref="AR2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -1026,7 +1027,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS2" authorId="2" shapeId="0">
+    <comment ref="AS2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -1050,7 +1051,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT2" authorId="2" shapeId="0">
+    <comment ref="AT2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -1075,7 +1076,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU2" authorId="2" shapeId="0">
+    <comment ref="AU2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -1100,7 +1101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV2" authorId="2" shapeId="0">
+    <comment ref="AV2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -1125,7 +1126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW2" authorId="2" shapeId="0">
+    <comment ref="AW2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -1149,7 +1150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX2" authorId="2" shapeId="0">
+    <comment ref="AX2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
       <text>
         <r>
           <rPr>
@@ -1179,13 +1180,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Elliot John Brown</author>
     <author>Esther Beukhof</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1209,7 +1210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0" shapeId="0">
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1254,7 +1255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0" shapeId="0">
+    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1278,7 +1279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T2" authorId="0" shapeId="0">
+    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1303,7 +1304,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U2" authorId="0" shapeId="0">
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1349,7 +1350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V2" authorId="0" shapeId="0">
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1374,7 +1375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W2" authorId="0" shapeId="0">
+    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1398,7 +1399,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X2" authorId="0" shapeId="0">
+    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1442,7 +1443,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y2" authorId="1" shapeId="0">
+    <comment ref="Y2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1466,7 +1467,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z2" authorId="0" shapeId="0">
+    <comment ref="Z2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -1491,7 +1492,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA2" authorId="0" shapeId="0">
+    <comment ref="AA2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -1518,7 +1519,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB2" authorId="0" shapeId="0">
+    <comment ref="AB2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -1545,7 +1546,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC2" authorId="0" shapeId="0">
+    <comment ref="AC2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -1572,7 +1573,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD2" authorId="0" shapeId="0">
+    <comment ref="AD2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -1596,7 +1597,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE2" authorId="0" shapeId="0">
+    <comment ref="AE2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -1620,7 +1621,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF2" authorId="1" shapeId="0">
+    <comment ref="AF2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
       <text>
         <r>
           <rPr>
@@ -1727,7 +1728,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH2" authorId="1" shapeId="0">
+    <comment ref="AH2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
       <text>
         <r>
           <rPr>
@@ -1754,7 +1755,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI2" authorId="1" shapeId="0">
+    <comment ref="AI2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
       <text>
         <r>
           <rPr>
@@ -1778,7 +1779,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ2" authorId="1" shapeId="0">
+    <comment ref="AJ2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
       <text>
         <r>
           <rPr>
@@ -1802,7 +1803,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK2" authorId="1" shapeId="0">
+    <comment ref="AK2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
       <text>
         <r>
           <rPr>
@@ -1828,7 +1829,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL2" authorId="1" shapeId="0">
+    <comment ref="AL2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
       <text>
         <r>
           <rPr>
@@ -1860,7 +1861,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM2" authorId="1" shapeId="0">
+    <comment ref="AM2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000016000000}">
       <text>
         <r>
           <rPr>
@@ -2041,7 +2042,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN2" authorId="1" shapeId="0">
+    <comment ref="AN2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000017000000}">
       <text>
         <r>
           <rPr>
@@ -2074,7 +2075,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO2" authorId="1" shapeId="0">
+    <comment ref="AO2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000018000000}">
       <text>
         <r>
           <rPr>
@@ -2099,7 +2100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP2" authorId="1" shapeId="0">
+    <comment ref="AP2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000019000000}">
       <text>
         <r>
           <rPr>
@@ -2125,7 +2126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ2" authorId="1" shapeId="0">
+    <comment ref="AQ2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -2152,7 +2153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR2" authorId="1" shapeId="0">
+    <comment ref="AR2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -2176,7 +2177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS2" authorId="1" shapeId="0">
+    <comment ref="AS2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -2200,7 +2201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT2" authorId="1" shapeId="0">
+    <comment ref="AT2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -2225,7 +2226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU2" authorId="1" shapeId="0">
+    <comment ref="AU2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -2250,7 +2251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV2" authorId="1" shapeId="0">
+    <comment ref="AV2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -2275,7 +2276,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW2" authorId="1" shapeId="0">
+    <comment ref="AW2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000020000000}">
       <text>
         <r>
           <rPr>
@@ -2299,7 +2300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX2" authorId="1" shapeId="0">
+    <comment ref="AX2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000021000000}">
       <text>
         <r>
           <rPr>
@@ -2329,12 +2330,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Esther Beukhof</author>
   </authors>
   <commentList>
-    <comment ref="X2" authorId="0" shapeId="0">
+    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -2364,7 +2365,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2191" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="497">
   <si>
     <t>SearchID</t>
   </si>
@@ -3578,15 +3579,9 @@
     <t>multi-species virtual population analysis _ linear models analysis</t>
   </si>
   <si>
-    <t>Demersal fish</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fish Community _ diversity size spectra _ biomass size spectra _ Shannon–Wiener index </t>
   </si>
   <si>
-    <t>Both data-set (survey and MSVPA) showed marked community-level effects of fishing over the 1970s and 1980s</t>
-  </si>
-  <si>
     <t>https://britishbirds.co.uk/wp-content/uploads/article_files/V74/V74_N02/V74_N02_P082_090_A013.pdf</t>
   </si>
   <si>
@@ -3740,33 +3735,9 @@
     <t>trend _ coefficient of determination</t>
   </si>
   <si>
-    <t xml:space="preserve">Gadus morhua _ Pollachius pollachius </t>
-  </si>
-  <si>
-    <t>Trisopterus esmarkii</t>
-  </si>
-  <si>
-    <t>Pleuronectes platessa _ Solea solea</t>
-  </si>
-  <si>
-    <t>Other species</t>
-  </si>
-  <si>
-    <t>signigficant r2 in the time series from IBTS 1981-2003</t>
-  </si>
-  <si>
     <t>the decrease in roundfish decrease is probably attributable to fishing pressure, even though other possibilities, such as environmental change, cannot be ruled out</t>
   </si>
   <si>
-    <t>signigficant r2 in the time series from IBTS 1981-2003; for most species positive trends except Raja radiata and Trisopterus minutus; non-commercial species are neither a target nor a common bycatch of commercial fisheries that can benefit from increased amount of discarding and possibly from a release of predation by decreasing roundfish</t>
-  </si>
-  <si>
-    <t>signigficant r2 in the time series from IBTS 1981-2003; a tendency to be aggregated and dispersed at low and high levels of biomass respectively</t>
-  </si>
-  <si>
-    <t xml:space="preserve">signigficant r2 in the time series from IBTS 1981-2003; increasing trend possibly due to different ecology and life history traits of flatfish compared with roundfish and increased invertebrate productivity in coastal waters, and further by  benefit from increased amount of discarding.   </t>
-  </si>
-  <si>
     <t xml:space="preserve">beam trawling leads to shortcuts in trophic relationships and therefore may enhance secondary production </t>
   </si>
   <si>
@@ -3830,15 +3801,6 @@
     <t>https://doi.org/10.1006/jmsc.2000.0914</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.icesjms.2004.12.019</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.icesjms.2004.12.020</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.icesjms.2004.12.021</t>
-  </si>
-  <si>
     <t>https://doi.org/10.3989/scimar.2002.66n3313</t>
   </si>
   <si>
@@ -3879,12 +3841,28 @@
   </si>
   <si>
     <t>beam trawl fishing</t>
+  </si>
+  <si>
+    <t>Since the non-target fish species did not show any decrease in lncpue (except starry ray and poor cod), the decrease in roundfish is probably attributable to fishing pressure, even though we cannot rule out other possibilities, such as environmental change.</t>
+  </si>
+  <si>
+    <t>Gadus morhua _ Pollachius pollachius _ Merluccius merluccius _ Molva molva</t>
+  </si>
+  <si>
+    <t>Fishing mortality</t>
+  </si>
+  <si>
+    <t>Trophic interactions</t>
+  </si>
+  <si>
+    <t>The number–size spectra were similar between surveys and MSVPA data. Both showed marked community-level effects of fishing over the 1970s and 1980s. The changes in diversity spectra are more prominent in the MSVPA analyses. The patterns are consistent with the hypothesis (but do not prove) that
+trophodynamic processes regulate community level properties.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4044,6 +4022,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4065,11 +4044,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4351,94 +4329,94 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AX45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD48"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="AX27" sqref="AX27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="19" max="19" width="18.1796875" customWidth="1"/>
+    <col min="19" max="19" width="18.26953125" customWidth="1"/>
     <col min="24" max="25" width="32.7265625" customWidth="1"/>
     <col min="34" max="35" width="17.7265625" customWidth="1"/>
     <col min="36" max="36" width="18.7265625" customWidth="1"/>
-    <col min="37" max="37" width="19.1796875" customWidth="1"/>
+    <col min="37" max="37" width="19.26953125" customWidth="1"/>
     <col min="38" max="38" width="17.7265625" customWidth="1"/>
     <col min="39" max="39" width="14.26953125" customWidth="1"/>
-    <col min="40" max="41" width="15.81640625" customWidth="1"/>
+    <col min="40" max="41" width="15.7265625" customWidth="1"/>
     <col min="42" max="42" width="15.453125" customWidth="1"/>
-    <col min="46" max="46" width="15.1796875" customWidth="1"/>
+    <col min="46" max="46" width="15.26953125" customWidth="1"/>
     <col min="47" max="47" width="18.7265625" customWidth="1"/>
     <col min="48" max="48" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="19" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="17" t="s">
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="18" t="s">
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="18"/>
-      <c r="AL1" s="18"/>
-      <c r="AM1" s="20" t="s">
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="AN1" s="20"/>
-      <c r="AO1" s="20"/>
-      <c r="AP1" s="20"/>
-      <c r="AQ1" s="14" t="s">
+      <c r="AN1" s="21"/>
+      <c r="AO1" s="21"/>
+      <c r="AP1" s="21"/>
+      <c r="AQ1" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="AR1" s="14"/>
-      <c r="AS1" s="14"/>
-      <c r="AT1" s="14"/>
-      <c r="AU1" s="15" t="s">
+      <c r="AR1" s="15"/>
+      <c r="AS1" s="15"/>
+      <c r="AT1" s="15"/>
+      <c r="AU1" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="AV1" s="15"/>
-      <c r="AW1" s="15"/>
-      <c r="AX1" s="15"/>
+      <c r="AV1" s="16"/>
+      <c r="AW1" s="16"/>
+      <c r="AX1" s="16"/>
     </row>
     <row r="2" spans="1:50" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -4626,8 +4604,8 @@
       <c r="K3" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="L3" s="21" t="s">
-        <v>471</v>
+      <c r="L3" s="14" t="s">
+        <v>461</v>
       </c>
       <c r="M3" s="11" t="s">
         <v>266</v>
@@ -4663,7 +4641,7 @@
         <v>216</v>
       </c>
       <c r="Z3" s="11" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AA3" s="11">
         <v>2</v>
@@ -4675,7 +4653,7 @@
         <v>3</v>
       </c>
       <c r="AD3" s="13" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AF3" s="11">
         <v>4.3</v>
@@ -4705,7 +4683,7 @@
         <v>161</v>
       </c>
       <c r="AO3" s="11" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AQ3" s="11" t="s">
         <v>164</v>
@@ -4720,7 +4698,7 @@
         <v>377</v>
       </c>
       <c r="AU3" s="13" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AV3" s="11" t="s">
         <v>237</v>
@@ -4766,8 +4744,8 @@
       <c r="K4" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="L4" s="21" t="s">
-        <v>471</v>
+      <c r="L4" s="14" t="s">
+        <v>461</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>266</v>
@@ -4803,7 +4781,7 @@
         <v>216</v>
       </c>
       <c r="Z4" s="11" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AA4" s="11">
         <v>2</v>
@@ -4815,7 +4793,7 @@
         <v>3</v>
       </c>
       <c r="AD4" s="13" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AF4" s="11">
         <v>4.3</v>
@@ -4845,10 +4823,10 @@
         <v>161</v>
       </c>
       <c r="AO4" s="11" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AQ4" s="11" t="s">
-        <v>223</v>
+        <v>164</v>
       </c>
       <c r="AR4" s="11" t="s">
         <v>168</v>
@@ -4860,7 +4838,7 @@
         <v>377</v>
       </c>
       <c r="AU4" s="13" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AV4" s="11" t="s">
         <v>237</v>
@@ -4869,7 +4847,7 @@
         <v>208</v>
       </c>
       <c r="AX4" s="11" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -4906,8 +4884,8 @@
       <c r="K5" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="L5" s="21" t="s">
-        <v>472</v>
+      <c r="L5" s="14" t="s">
+        <v>462</v>
       </c>
       <c r="M5" s="11" t="s">
         <v>275</v>
@@ -4979,7 +4957,7 @@
         <v>233</v>
       </c>
       <c r="AO5" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AQ5" s="11" t="s">
         <v>164</v>
@@ -4994,7 +4972,7 @@
         <v>210</v>
       </c>
       <c r="AX5" s="11" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -5031,8 +5009,8 @@
       <c r="K6" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="L6" s="21" t="s">
-        <v>474</v>
+      <c r="L6" s="14" t="s">
+        <v>464</v>
       </c>
       <c r="M6" s="11" t="s">
         <v>275</v>
@@ -5104,13 +5082,13 @@
         <v>233</v>
       </c>
       <c r="AO6" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AQ6" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AU6" s="11" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AV6" s="11" t="s">
         <v>205</v>
@@ -5156,8 +5134,8 @@
       <c r="K7" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="L7" s="21" t="s">
-        <v>475</v>
+      <c r="L7" s="14" t="s">
+        <v>465</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>275</v>
@@ -5229,13 +5207,13 @@
         <v>233</v>
       </c>
       <c r="AO7" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AQ7" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AU7" s="11" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AV7" s="11" t="s">
         <v>206</v>
@@ -5281,8 +5259,8 @@
       <c r="K8" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="L8" s="21" t="s">
-        <v>473</v>
+      <c r="L8" s="14" t="s">
+        <v>463</v>
       </c>
       <c r="M8" s="11" t="s">
         <v>314</v>
@@ -5354,7 +5332,7 @@
         <v>160</v>
       </c>
       <c r="AO8" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AQ8" s="11" t="s">
         <v>164</v>
@@ -5366,7 +5344,7 @@
         <v>175</v>
       </c>
       <c r="AU8" s="11" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="AV8" s="11" t="s">
         <v>204</v>
@@ -5375,7 +5353,7 @@
         <v>209</v>
       </c>
       <c r="AX8" s="11" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
     </row>
     <row r="9" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -5412,8 +5390,8 @@
       <c r="K9" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="L9" s="21" t="s">
-        <v>473</v>
+      <c r="L9" s="14" t="s">
+        <v>463</v>
       </c>
       <c r="M9" s="11" t="s">
         <v>314</v>
@@ -5485,7 +5463,7 @@
         <v>160</v>
       </c>
       <c r="AO9" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AQ9" s="11" t="s">
         <v>164</v>
@@ -5497,7 +5475,7 @@
         <v>175</v>
       </c>
       <c r="AU9" s="11" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="AV9" s="11" t="s">
         <v>204</v>
@@ -5506,7 +5484,7 @@
         <v>209</v>
       </c>
       <c r="AX9" s="11" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
     </row>
     <row r="10" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -5543,8 +5521,8 @@
       <c r="K10" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="L10" s="21" t="s">
-        <v>473</v>
+      <c r="L10" s="14" t="s">
+        <v>463</v>
       </c>
       <c r="M10" s="11" t="s">
         <v>314</v>
@@ -5616,7 +5594,7 @@
         <v>160</v>
       </c>
       <c r="AO10" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AQ10" s="11" t="s">
         <v>164</v>
@@ -5631,7 +5609,7 @@
         <v>386</v>
       </c>
       <c r="AU10" s="11" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="AV10" s="11" t="s">
         <v>204</v>
@@ -5640,7 +5618,7 @@
         <v>209</v>
       </c>
       <c r="AX10" s="11" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
     </row>
     <row r="11" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -5677,8 +5655,8 @@
       <c r="K11" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="L11" s="21" t="s">
-        <v>473</v>
+      <c r="L11" s="14" t="s">
+        <v>463</v>
       </c>
       <c r="M11" s="11" t="s">
         <v>314</v>
@@ -5750,7 +5728,7 @@
         <v>160</v>
       </c>
       <c r="AO11" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AQ11" s="11" t="s">
         <v>164</v>
@@ -5765,7 +5743,7 @@
         <v>386</v>
       </c>
       <c r="AU11" s="11" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="AV11" s="11" t="s">
         <v>204</v>
@@ -5774,7 +5752,7 @@
         <v>209</v>
       </c>
       <c r="AX11" s="11" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
     </row>
     <row r="12" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -5811,8 +5789,8 @@
       <c r="K12" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="L12" s="21" t="s">
-        <v>473</v>
+      <c r="L12" s="14" t="s">
+        <v>463</v>
       </c>
       <c r="M12" s="11" t="s">
         <v>314</v>
@@ -5884,7 +5862,7 @@
         <v>160</v>
       </c>
       <c r="AO12" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AQ12" s="11" t="s">
         <v>164</v>
@@ -5896,7 +5874,7 @@
         <v>175</v>
       </c>
       <c r="AU12" s="11" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="AV12" s="11" t="s">
         <v>204</v>
@@ -5905,7 +5883,7 @@
         <v>209</v>
       </c>
       <c r="AX12" s="11" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
     </row>
     <row r="13" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -5942,8 +5920,8 @@
       <c r="K13" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="L13" s="21" t="s">
-        <v>473</v>
+      <c r="L13" s="14" t="s">
+        <v>463</v>
       </c>
       <c r="M13" s="11" t="s">
         <v>314</v>
@@ -6015,7 +5993,7 @@
         <v>160</v>
       </c>
       <c r="AO13" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AQ13" s="11" t="s">
         <v>164</v>
@@ -6027,7 +6005,7 @@
         <v>175</v>
       </c>
       <c r="AU13" s="11" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="AV13" s="11" t="s">
         <v>204</v>
@@ -6036,7 +6014,7 @@
         <v>209</v>
       </c>
       <c r="AX13" s="11" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
     </row>
     <row r="14" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -6073,8 +6051,8 @@
       <c r="K14" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="L14" s="21" t="s">
-        <v>473</v>
+      <c r="L14" s="14" t="s">
+        <v>463</v>
       </c>
       <c r="M14" s="11" t="s">
         <v>314</v>
@@ -6146,7 +6124,7 @@
         <v>160</v>
       </c>
       <c r="AO14" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AQ14" s="11" t="s">
         <v>164</v>
@@ -6158,7 +6136,7 @@
         <v>188</v>
       </c>
       <c r="AU14" s="11" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="AV14" s="11" t="s">
         <v>204</v>
@@ -6167,7 +6145,7 @@
         <v>209</v>
       </c>
       <c r="AX14" s="11" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
     </row>
     <row r="15" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -6204,8 +6182,8 @@
       <c r="K15" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="L15" s="21" t="s">
-        <v>473</v>
+      <c r="L15" s="14" t="s">
+        <v>463</v>
       </c>
       <c r="M15" s="11" t="s">
         <v>314</v>
@@ -6277,7 +6255,7 @@
         <v>160</v>
       </c>
       <c r="AO15" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AQ15" s="11" t="s">
         <v>164</v>
@@ -6289,7 +6267,7 @@
         <v>189</v>
       </c>
       <c r="AU15" s="11" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="AV15" s="11" t="s">
         <v>204</v>
@@ -6298,7 +6276,7 @@
         <v>209</v>
       </c>
       <c r="AX15" s="11" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
     </row>
     <row r="16" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -6335,8 +6313,8 @@
       <c r="K16" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="L16" s="21" t="s">
-        <v>473</v>
+      <c r="L16" s="14" t="s">
+        <v>463</v>
       </c>
       <c r="M16" s="11" t="s">
         <v>314</v>
@@ -6408,7 +6386,7 @@
         <v>160</v>
       </c>
       <c r="AO16" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AQ16" s="11" t="s">
         <v>164</v>
@@ -6466,8 +6444,8 @@
       <c r="K17" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="L17" s="21" t="s">
-        <v>473</v>
+      <c r="L17" s="14" t="s">
+        <v>463</v>
       </c>
       <c r="M17" s="11" t="s">
         <v>314</v>
@@ -6539,7 +6517,7 @@
         <v>160</v>
       </c>
       <c r="AO17" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AQ17" s="11" t="s">
         <v>164</v>
@@ -6597,8 +6575,8 @@
       <c r="K18" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="L18" s="21" t="s">
-        <v>473</v>
+      <c r="L18" s="14" t="s">
+        <v>463</v>
       </c>
       <c r="M18" s="11" t="s">
         <v>314</v>
@@ -6670,7 +6648,7 @@
         <v>160</v>
       </c>
       <c r="AO18" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AQ18" s="11" t="s">
         <v>164</v>
@@ -6731,8 +6709,8 @@
       <c r="K19" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="L19" s="21" t="s">
-        <v>473</v>
+      <c r="L19" s="14" t="s">
+        <v>463</v>
       </c>
       <c r="M19" s="11" t="s">
         <v>314</v>
@@ -6804,7 +6782,7 @@
         <v>160</v>
       </c>
       <c r="AO19" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AQ19" s="11" t="s">
         <v>164</v>
@@ -6865,8 +6843,8 @@
       <c r="K20" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="L20" s="21" t="s">
-        <v>473</v>
+      <c r="L20" s="14" t="s">
+        <v>463</v>
       </c>
       <c r="M20" s="11" t="s">
         <v>314</v>
@@ -6938,7 +6916,7 @@
         <v>160</v>
       </c>
       <c r="AO20" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AQ20" s="11" t="s">
         <v>164</v>
@@ -6996,8 +6974,8 @@
       <c r="K21" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="L21" s="21" t="s">
-        <v>473</v>
+      <c r="L21" s="14" t="s">
+        <v>463</v>
       </c>
       <c r="M21" s="11" t="s">
         <v>314</v>
@@ -7069,7 +7047,7 @@
         <v>160</v>
       </c>
       <c r="AO21" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AQ21" s="11" t="s">
         <v>164</v>
@@ -7127,8 +7105,8 @@
       <c r="K22" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="L22" s="21" t="s">
-        <v>473</v>
+      <c r="L22" s="14" t="s">
+        <v>463</v>
       </c>
       <c r="M22" s="11" t="s">
         <v>314</v>
@@ -7200,7 +7178,7 @@
         <v>160</v>
       </c>
       <c r="AO22" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AQ22" s="11" t="s">
         <v>164</v>
@@ -7258,8 +7236,8 @@
       <c r="K23" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="L23" s="21" t="s">
-        <v>473</v>
+      <c r="L23" s="14" t="s">
+        <v>463</v>
       </c>
       <c r="M23" s="11" t="s">
         <v>314</v>
@@ -7331,7 +7309,7 @@
         <v>160</v>
       </c>
       <c r="AO23" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AQ23" s="11" t="s">
         <v>164</v>
@@ -7389,8 +7367,8 @@
       <c r="K24" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="L24" s="21" t="s">
-        <v>478</v>
+      <c r="L24" s="14" t="s">
+        <v>468</v>
       </c>
       <c r="M24" s="11" t="s">
         <v>321</v>
@@ -7426,7 +7404,7 @@
         <v>69</v>
       </c>
       <c r="Z24" s="11" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="AA24" s="11">
         <v>2</v>
@@ -7438,7 +7416,7 @@
         <v>3</v>
       </c>
       <c r="AE24" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AF24" s="11">
         <v>4.4000000000000004</v>
@@ -7465,7 +7443,7 @@
         <v>160</v>
       </c>
       <c r="AO24" s="11" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AQ24" s="11" t="s">
         <v>164</v>
@@ -7480,7 +7458,7 @@
         <v>393</v>
       </c>
       <c r="AU24" s="11" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="AV24" s="11" t="s">
         <v>204</v>
@@ -7489,7 +7467,7 @@
         <v>210</v>
       </c>
       <c r="AX24" s="11" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="25" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -7527,7 +7505,7 @@
         <v>252</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="M25" s="11" t="s">
         <v>321</v>
@@ -7563,7 +7541,7 @@
         <v>69</v>
       </c>
       <c r="Z25" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AA25" s="11">
         <v>2</v>
@@ -7575,7 +7553,7 @@
         <v>3</v>
       </c>
       <c r="AE25" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AF25" s="11">
         <v>4.4000000000000004</v>
@@ -7602,7 +7580,7 @@
         <v>160</v>
       </c>
       <c r="AO25" s="11" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AQ25" s="11" t="s">
         <v>164</v>
@@ -7617,7 +7595,7 @@
         <v>393</v>
       </c>
       <c r="AU25" s="11" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="AV25" s="11" t="s">
         <v>200</v>
@@ -7626,7 +7604,7 @@
         <v>210</v>
       </c>
       <c r="AX25" s="11" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="26" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -7664,7 +7642,7 @@
         <v>252</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="M26" s="11" t="s">
         <v>321</v>
@@ -7712,10 +7690,10 @@
         <v>3</v>
       </c>
       <c r="AD26" s="13" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AE26" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AF26" s="11">
         <v>4.2</v>
@@ -7742,7 +7720,7 @@
         <v>162</v>
       </c>
       <c r="AO26" s="11" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AQ26" s="11" t="s">
         <v>164</v>
@@ -7757,7 +7735,7 @@
         <v>393</v>
       </c>
       <c r="AU26" s="11" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="AV26" s="11" t="s">
         <v>238</v>
@@ -7766,7 +7744,7 @@
         <v>210</v>
       </c>
       <c r="AX26" s="11" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="27" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -7797,8 +7775,8 @@
       <c r="K27" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="L27" s="21" t="s">
-        <v>476</v>
+      <c r="L27" s="14" t="s">
+        <v>466</v>
       </c>
       <c r="M27" s="11" t="s">
         <v>376</v>
@@ -7828,7 +7806,7 @@
         <v>80</v>
       </c>
       <c r="Z27" s="11" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AA27" s="11">
         <v>2</v>
@@ -7840,7 +7818,7 @@
         <v>3</v>
       </c>
       <c r="AD27" s="11" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AF27" s="11">
         <v>4.4000000000000004</v>
@@ -7855,7 +7833,7 @@
         <v>148</v>
       </c>
       <c r="AL27" s="11" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AM27" s="11" t="s">
         <v>232</v>
@@ -7864,7 +7842,7 @@
         <v>160</v>
       </c>
       <c r="AO27" s="11" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="AQ27" s="11" t="s">
         <v>164</v>
@@ -7876,16 +7854,16 @@
         <v>175</v>
       </c>
       <c r="AU27" s="11" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="AV27" s="11" t="s">
         <v>238</v>
       </c>
       <c r="AW27" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX27" s="13" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
     </row>
     <row r="28" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -7916,8 +7894,8 @@
       <c r="K28" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="L28" s="21" t="s">
-        <v>483</v>
+      <c r="L28" s="14" t="s">
+        <v>473</v>
       </c>
       <c r="M28" s="11" t="s">
         <v>376</v>
@@ -7947,7 +7925,7 @@
         <v>80</v>
       </c>
       <c r="Z28" s="11" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AA28" s="11">
         <v>2</v>
@@ -7959,7 +7937,7 @@
         <v>3</v>
       </c>
       <c r="AD28" s="11" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AF28" s="11">
         <v>4.4000000000000004</v>
@@ -7974,7 +7952,7 @@
         <v>148</v>
       </c>
       <c r="AL28" s="11" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AM28" s="11" t="s">
         <v>232</v>
@@ -7983,7 +7961,7 @@
         <v>160</v>
       </c>
       <c r="AO28" s="11" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="AQ28" s="11" t="s">
         <v>164</v>
@@ -7995,19 +7973,19 @@
         <v>192</v>
       </c>
       <c r="AT28" s="11" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AU28" s="11" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="AV28" s="11" t="s">
         <v>238</v>
       </c>
       <c r="AW28" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX28" s="11" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
     </row>
     <row r="29" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -8038,8 +8016,8 @@
       <c r="K29" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="L29" s="21" t="s">
-        <v>484</v>
+      <c r="L29" s="14" t="s">
+        <v>474</v>
       </c>
       <c r="M29" s="11" t="s">
         <v>376</v>
@@ -8069,7 +8047,7 @@
         <v>80</v>
       </c>
       <c r="Z29" s="11" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AA29" s="11">
         <v>2</v>
@@ -8081,7 +8059,7 @@
         <v>3</v>
       </c>
       <c r="AD29" s="11" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AF29" s="11">
         <v>4.4000000000000004</v>
@@ -8096,7 +8074,7 @@
         <v>148</v>
       </c>
       <c r="AL29" s="11" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AM29" s="11" t="s">
         <v>232</v>
@@ -8105,7 +8083,7 @@
         <v>160</v>
       </c>
       <c r="AO29" s="11" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="AQ29" s="11" t="s">
         <v>164</v>
@@ -8117,19 +8095,19 @@
         <v>181</v>
       </c>
       <c r="AT29" s="11" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AU29" s="11" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="AV29" s="11" t="s">
         <v>238</v>
       </c>
       <c r="AW29" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX29" s="11" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
     </row>
     <row r="30" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -8163,8 +8141,8 @@
       <c r="K30" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="L30" s="21" t="s">
-        <v>477</v>
+      <c r="L30" s="14" t="s">
+        <v>467</v>
       </c>
       <c r="M30" s="11" t="s">
         <v>369</v>
@@ -8197,10 +8175,10 @@
         <v>216</v>
       </c>
       <c r="Y30" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="Z30" s="11" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AA30" s="11">
         <v>2</v>
@@ -8212,10 +8190,10 @@
         <v>3</v>
       </c>
       <c r="AD30" s="11" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AE30" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AF30" s="11">
         <v>4.3</v>
@@ -8230,16 +8208,16 @@
         <v>134</v>
       </c>
       <c r="AL30" s="11" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AM30" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AO30" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AP30" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AQ30" s="11" t="s">
         <v>164</v>
@@ -8251,10 +8229,10 @@
         <v>175</v>
       </c>
       <c r="AT30" s="11" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AU30" s="12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AV30" s="11" t="s">
         <v>206</v>
@@ -8263,7 +8241,7 @@
         <v>208</v>
       </c>
       <c r="AX30" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="31" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -8297,8 +8275,8 @@
       <c r="K31" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="L31" s="21" t="s">
-        <v>485</v>
+      <c r="L31" s="14" t="s">
+        <v>475</v>
       </c>
       <c r="M31" s="11" t="s">
         <v>369</v>
@@ -8331,10 +8309,10 @@
         <v>113</v>
       </c>
       <c r="Y31" s="11" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="Z31" s="11" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AA31" s="11">
         <v>2</v>
@@ -8346,10 +8324,10 @@
         <v>3</v>
       </c>
       <c r="AD31" s="11" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AE31" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AF31" s="11">
         <v>4.3</v>
@@ -8364,16 +8342,16 @@
         <v>134</v>
       </c>
       <c r="AL31" s="11" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AM31" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AO31" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AP31" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AQ31" s="11" t="s">
         <v>164</v>
@@ -8385,10 +8363,10 @@
         <v>175</v>
       </c>
       <c r="AT31" s="11" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AU31" s="12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AV31" s="11" t="s">
         <v>206</v>
@@ -8397,7 +8375,7 @@
         <v>208</v>
       </c>
       <c r="AX31" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="32" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -8431,8 +8409,8 @@
       <c r="K32" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="L32" s="21" t="s">
-        <v>486</v>
+      <c r="L32" s="14" t="s">
+        <v>476</v>
       </c>
       <c r="M32" s="11" t="s">
         <v>369</v>
@@ -8465,10 +8443,10 @@
         <v>113</v>
       </c>
       <c r="Y32" s="11" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="Z32" s="11" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AA32" s="11">
         <v>2</v>
@@ -8480,10 +8458,10 @@
         <v>3</v>
       </c>
       <c r="AD32" s="11" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AE32" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AF32" s="11">
         <v>4.3</v>
@@ -8498,16 +8476,16 @@
         <v>134</v>
       </c>
       <c r="AL32" s="11" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AM32" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AO32" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AP32" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AQ32" s="11" t="s">
         <v>164</v>
@@ -8519,10 +8497,10 @@
         <v>175</v>
       </c>
       <c r="AT32" s="11" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AU32" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AV32" s="11" t="s">
         <v>206</v>
@@ -8531,7 +8509,7 @@
         <v>208</v>
       </c>
       <c r="AX32" s="11" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="33" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -8568,8 +8546,8 @@
       <c r="K33" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L33" s="21" t="s">
-        <v>481</v>
+      <c r="L33" s="14" t="s">
+        <v>471</v>
       </c>
       <c r="M33" s="11" t="s">
         <v>362</v>
@@ -8605,7 +8583,7 @@
         <v>69</v>
       </c>
       <c r="Z33" s="11" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AA33" s="11">
         <v>2</v>
@@ -8617,10 +8595,10 @@
         <v>3</v>
       </c>
       <c r="AD33" s="11" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AE33" s="11" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AF33" s="11">
         <v>4.4000000000000004</v>
@@ -8638,7 +8616,7 @@
         <v>150</v>
       </c>
       <c r="AL33" s="11" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="AM33" s="11" t="s">
         <v>232</v>
@@ -8647,7 +8625,7 @@
         <v>160</v>
       </c>
       <c r="AO33" s="11" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="AQ33" s="11" t="s">
         <v>164</v>
@@ -8659,10 +8637,10 @@
         <v>175</v>
       </c>
       <c r="AT33" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="AU33" s="11" t="s">
         <v>450</v>
-      </c>
-      <c r="AU33" s="11" t="s">
-        <v>452</v>
       </c>
       <c r="AV33" s="11" t="s">
         <v>200</v>
@@ -8671,7 +8649,7 @@
         <v>207</v>
       </c>
       <c r="AX33" s="11" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="34" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -8708,8 +8686,8 @@
       <c r="K34" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="L34" s="21" t="s">
-        <v>482</v>
+      <c r="L34" s="14" t="s">
+        <v>472</v>
       </c>
       <c r="M34" s="11" t="s">
         <v>253</v>
@@ -8742,7 +8720,7 @@
         <v>215</v>
       </c>
       <c r="Z34" s="11" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="AA34" s="11">
         <v>2</v>
@@ -8751,10 +8729,10 @@
         <v>2</v>
       </c>
       <c r="AC34" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD34" s="13" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="AF34" s="11">
         <v>4.4000000000000004</v>
@@ -8772,7 +8750,7 @@
         <v>150</v>
       </c>
       <c r="AL34" s="11" t="s">
-        <v>458</v>
+        <v>493</v>
       </c>
       <c r="AM34" s="11" t="s">
         <v>232</v>
@@ -8781,16 +8759,16 @@
         <v>160</v>
       </c>
       <c r="AO34" s="11" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="AQ34" s="11" t="s">
-        <v>223</v>
+        <v>164</v>
       </c>
       <c r="AT34" s="11" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="AU34" s="11" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AV34" s="11" t="s">
         <v>199</v>
@@ -8799,48 +8777,48 @@
         <v>208</v>
       </c>
       <c r="AX34" s="11" t="s">
-        <v>465</v>
+        <v>492</v>
       </c>
     </row>
     <row r="35" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
-        <v>242</v>
+        <v>297</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>244</v>
+        <v>298</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>245</v>
+        <v>299</v>
       </c>
       <c r="E35" s="11">
-        <v>2005</v>
+        <v>1999</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>246</v>
+        <v>300</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>247</v>
+        <v>301</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>249</v>
+        <v>302</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>250</v>
+        <v>303</v>
       </c>
       <c r="K35" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="L35" s="21" t="s">
-        <v>488</v>
+        <v>304</v>
+      </c>
+      <c r="L35" s="14" t="s">
+        <v>396</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>253</v>
+        <v>305</v>
       </c>
       <c r="N35" s="11" t="s">
         <v>254</v>
@@ -8863,14 +8841,17 @@
       <c r="U35" s="11" t="s">
         <v>59</v>
       </c>
+      <c r="V35" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="W35" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X35" s="11" t="s">
-        <v>215</v>
+        <v>75</v>
       </c>
       <c r="Z35" s="11" t="s">
-        <v>457</v>
+        <v>397</v>
       </c>
       <c r="AA35" s="11">
         <v>2</v>
@@ -8879,25 +8860,19 @@
         <v>2</v>
       </c>
       <c r="AC35" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF35" s="11">
         <v>4.4000000000000004</v>
       </c>
       <c r="AG35" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH35" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI35" s="11" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="AK35" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL35" s="11" t="s">
-        <v>459</v>
+        <v>134</v>
       </c>
       <c r="AM35" s="11" t="s">
         <v>232</v>
@@ -8906,66 +8881,72 @@
         <v>160</v>
       </c>
       <c r="AO35" s="11" t="s">
-        <v>503</v>
+        <v>398</v>
       </c>
       <c r="AQ35" s="11" t="s">
-        <v>223</v>
+        <v>164</v>
+      </c>
+      <c r="AR35" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS35" s="11" t="s">
+        <v>175</v>
       </c>
       <c r="AT35" s="11" t="s">
-        <v>455</v>
+        <v>399</v>
       </c>
       <c r="AU35" s="11" t="s">
-        <v>456</v>
+        <v>400</v>
       </c>
       <c r="AV35" s="11" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="AW35" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AX35" s="11" t="s">
-        <v>462</v>
+        <v>401</v>
       </c>
     </row>
     <row r="36" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
-        <v>242</v>
+        <v>331</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>244</v>
+        <v>332</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>245</v>
+        <v>333</v>
       </c>
       <c r="E36" s="11">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>246</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>247</v>
+        <v>334</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>249</v>
+        <v>335</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>250</v>
+        <v>336</v>
       </c>
       <c r="K36" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="L36" s="21" t="s">
-        <v>489</v>
+        <v>337</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>402</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="N36" s="11" t="s">
         <v>254</v>
@@ -8988,14 +8969,17 @@
       <c r="U36" s="11" t="s">
         <v>59</v>
       </c>
+      <c r="V36" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="W36" s="11" t="s">
         <v>55</v>
       </c>
       <c r="X36" s="11" t="s">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="Z36" s="11" t="s">
-        <v>457</v>
+        <v>403</v>
       </c>
       <c r="AA36" s="11">
         <v>2</v>
@@ -9010,19 +8994,13 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="AG36" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH36" s="11" t="s">
         <v>117</v>
       </c>
       <c r="AI36" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK36" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL36" s="13" t="s">
-        <v>460</v>
+        <v>144</v>
       </c>
       <c r="AM36" s="11" t="s">
         <v>232</v>
@@ -9031,66 +9009,66 @@
         <v>160</v>
       </c>
       <c r="AO36" s="11" t="s">
-        <v>503</v>
+        <v>494</v>
+      </c>
+      <c r="AP36" s="11" t="s">
+        <v>495</v>
       </c>
       <c r="AQ36" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="AT36" s="11" t="s">
-        <v>455</v>
+        <v>164</v>
       </c>
       <c r="AU36" s="11" t="s">
-        <v>456</v>
+        <v>404</v>
       </c>
       <c r="AV36" s="11" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="AW36" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX36" s="11" t="s">
-        <v>466</v>
+        <v>208</v>
+      </c>
+      <c r="AX36" s="13" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="37" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
-        <v>242</v>
+        <v>331</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>244</v>
+        <v>332</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>245</v>
+        <v>333</v>
       </c>
       <c r="E37" s="11">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="F37" s="11" t="s">
         <v>246</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>247</v>
+        <v>334</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>249</v>
+        <v>335</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>250</v>
+        <v>336</v>
       </c>
       <c r="K37" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="L37" s="21" t="s">
-        <v>490</v>
+        <v>337</v>
+      </c>
+      <c r="L37" s="11" t="s">
+        <v>402</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="N37" s="11" t="s">
         <v>254</v>
@@ -9113,14 +9091,17 @@
       <c r="U37" s="11" t="s">
         <v>59</v>
       </c>
+      <c r="V37" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="W37" s="11" t="s">
         <v>55</v>
       </c>
       <c r="X37" s="11" t="s">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="Z37" s="11" t="s">
-        <v>457</v>
+        <v>403</v>
       </c>
       <c r="AA37" s="11">
         <v>2</v>
@@ -9135,7 +9116,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="AG37" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH37" s="11" t="s">
         <v>117</v>
@@ -9143,12 +9124,6 @@
       <c r="AI37" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="AK37" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL37" s="13" t="s">
-        <v>461</v>
-      </c>
       <c r="AM37" s="11" t="s">
         <v>232</v>
       </c>
@@ -9156,66 +9131,66 @@
         <v>161</v>
       </c>
       <c r="AO37" s="11" t="s">
-        <v>503</v>
+        <v>494</v>
+      </c>
+      <c r="AP37" s="11" t="s">
+        <v>495</v>
       </c>
       <c r="AQ37" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="AT37" s="11" t="s">
-        <v>455</v>
+        <v>164</v>
       </c>
       <c r="AU37" s="11" t="s">
-        <v>456</v>
+        <v>404</v>
       </c>
       <c r="AV37" s="11" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="AW37" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX37" s="11" t="s">
-        <v>464</v>
+        <v>208</v>
+      </c>
+      <c r="AX37" s="13" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="38" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
-        <v>297</v>
+        <v>347</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>298</v>
+        <v>348</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>299</v>
+        <v>349</v>
       </c>
       <c r="E38" s="11">
-        <v>1999</v>
+        <v>1981</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="H38" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="K38" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="I38" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="J38" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="K38" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="L38" s="21" t="s">
-        <v>396</v>
+      <c r="L38" s="11" t="s">
+        <v>405</v>
       </c>
       <c r="M38" s="11" t="s">
-        <v>305</v>
+        <v>354</v>
       </c>
       <c r="N38" s="11" t="s">
         <v>254</v>
@@ -9224,61 +9199,58 @@
         <v>255</v>
       </c>
       <c r="P38" s="11" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Q38" s="11" t="s">
         <v>21</v>
       </c>
       <c r="S38" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T38" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U38" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V38" s="11" t="s">
         <v>46</v>
       </c>
       <c r="W38" s="11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="X38" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="Z38" s="11" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="AA38" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB38" s="11">
         <v>2</v>
       </c>
       <c r="AC38" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF38" s="11">
         <v>4.4000000000000004</v>
       </c>
       <c r="AG38" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AH38" s="11" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="AK38" s="11" t="s">
         <v>134</v>
       </c>
       <c r="AM38" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN38" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AO38" s="11" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="AQ38" s="11" t="s">
         <v>164</v>
@@ -9290,66 +9262,66 @@
         <v>175</v>
       </c>
       <c r="AT38" s="11" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="AU38" s="11" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="AV38" s="11" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="AW38" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX38" s="11" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="39" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
-        <v>331</v>
+        <v>287</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>333</v>
+        <v>289</v>
       </c>
       <c r="E39" s="11">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>246</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>334</v>
+        <v>290</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>336</v>
+        <v>293</v>
       </c>
       <c r="K39" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="L39" s="21" t="s">
-        <v>402</v>
+        <v>294</v>
+      </c>
+      <c r="L39" s="14" t="s">
+        <v>477</v>
       </c>
       <c r="M39" s="11" t="s">
-        <v>338</v>
+        <v>295</v>
       </c>
       <c r="N39" s="11" t="s">
         <v>254</v>
       </c>
       <c r="O39" s="11" t="s">
-        <v>255</v>
+        <v>296</v>
       </c>
       <c r="P39" s="11" t="s">
         <v>256</v>
@@ -9363,20 +9335,14 @@
       <c r="T39" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="U39" s="11" t="s">
-        <v>59</v>
-      </c>
       <c r="V39" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="W39" s="11" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="X39" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Z39" s="11" t="s">
-        <v>403</v>
+        <v>458</v>
       </c>
       <c r="AA39" s="11">
         <v>2</v>
@@ -9387,94 +9353,103 @@
       <c r="AC39" s="11">
         <v>3</v>
       </c>
+      <c r="AD39" s="13" t="s">
+        <v>480</v>
+      </c>
       <c r="AF39" s="11">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="AG39" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AH39" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AI39" s="11" t="s">
-        <v>144</v>
+        <v>140</v>
+      </c>
+      <c r="AJ39" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="AK39" s="11" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="AM39" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN39" s="11" t="s">
-        <v>161</v>
+        <v>233</v>
       </c>
       <c r="AO39" s="11" t="s">
-        <v>398</v>
+        <v>491</v>
       </c>
       <c r="AQ39" s="11" t="s">
-        <v>223</v>
+        <v>164</v>
+      </c>
+      <c r="AR39" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS39" s="11" t="s">
+        <v>176</v>
       </c>
       <c r="AT39" s="11" t="s">
-        <v>404</v>
+        <v>130</v>
       </c>
       <c r="AU39" s="11" t="s">
-        <v>405</v>
+        <v>460</v>
       </c>
       <c r="AV39" s="11" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AW39" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX39" s="11" t="s">
-        <v>406</v>
+        <v>459</v>
       </c>
     </row>
     <row r="40" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
-        <v>331</v>
+        <v>287</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>333</v>
+        <v>289</v>
       </c>
       <c r="E40" s="11">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>246</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>334</v>
+        <v>290</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>336</v>
+        <v>293</v>
       </c>
       <c r="K40" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="L40" s="11" t="s">
-        <v>402</v>
+        <v>294</v>
+      </c>
+      <c r="L40" s="14" t="s">
+        <v>479</v>
       </c>
       <c r="M40" s="11" t="s">
-        <v>338</v>
+        <v>295</v>
       </c>
       <c r="N40" s="11" t="s">
         <v>254</v>
       </c>
       <c r="O40" s="11" t="s">
-        <v>255</v>
+        <v>296</v>
       </c>
       <c r="P40" s="11" t="s">
         <v>256</v>
@@ -9488,20 +9463,14 @@
       <c r="T40" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="U40" s="11" t="s">
-        <v>59</v>
-      </c>
       <c r="V40" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="W40" s="11" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="X40" s="11" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="Z40" s="11" t="s">
-        <v>403</v>
+        <v>458</v>
       </c>
       <c r="AA40" s="11">
         <v>2</v>
@@ -9512,29 +9481,32 @@
       <c r="AC40" s="11">
         <v>3</v>
       </c>
+      <c r="AD40" s="11" t="s">
+        <v>457</v>
+      </c>
       <c r="AF40" s="11">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="AG40" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AH40" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AI40" s="11" t="s">
-        <v>144</v>
+        <v>140</v>
+      </c>
+      <c r="AJ40" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="AK40" s="11" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="AM40" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN40" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AO40" s="11" t="s">
-        <v>398</v>
+        <v>491</v>
       </c>
       <c r="AQ40" s="11" t="s">
         <v>164</v>
@@ -9543,63 +9515,63 @@
         <v>239</v>
       </c>
       <c r="AS40" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AT40" s="11" t="s">
-        <v>404</v>
+        <v>130</v>
       </c>
       <c r="AU40" s="11" t="s">
-        <v>405</v>
+        <v>460</v>
       </c>
       <c r="AV40" s="11" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AW40" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX40" s="11" t="s">
-        <v>406</v>
+        <v>459</v>
       </c>
     </row>
     <row r="41" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
-        <v>347</v>
+        <v>276</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>348</v>
+        <v>277</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>349</v>
+        <v>278</v>
       </c>
       <c r="E41" s="11">
-        <v>1981</v>
+        <v>2002</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>350</v>
+        <v>279</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>351</v>
+        <v>280</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>343</v>
+        <v>281</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>352</v>
+        <v>282</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>353</v>
+        <v>283</v>
       </c>
       <c r="K41" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="L41" s="11" t="s">
-        <v>407</v>
+        <v>284</v>
+      </c>
+      <c r="L41" s="14" t="s">
+        <v>478</v>
       </c>
       <c r="M41" s="11" t="s">
-        <v>354</v>
+        <v>285</v>
       </c>
       <c r="N41" s="11" t="s">
         <v>254</v>
@@ -9608,488 +9580,125 @@
         <v>255</v>
       </c>
       <c r="P41" s="11" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="Q41" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S41" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="T41" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="U41" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="V41" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="W41" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="X41" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z41" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="AA41" s="11">
-        <v>1</v>
-      </c>
-      <c r="AB41" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC41" s="11">
-        <v>1</v>
-      </c>
-      <c r="AF41" s="11">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG41" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH41" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="AK41" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="AM41" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO41" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="AQ41" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR41" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS41" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT41" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="AU41" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="AV41" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="AW41" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX41" s="11" t="s">
-        <v>412</v>
+      <c r="R41" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="E42" s="11">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>246</v>
+        <v>325</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="K42" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="L42" s="21" t="s">
-        <v>487</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="L42" s="14"/>
       <c r="M42" s="11" t="s">
-        <v>295</v>
+        <v>329</v>
       </c>
       <c r="N42" s="11" t="s">
-        <v>254</v>
+        <v>330</v>
       </c>
       <c r="O42" s="11" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="P42" s="11" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Q42" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S42" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="T42" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="V42" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="X42" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z42" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="AA42" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB42" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC42" s="11">
-        <v>3</v>
-      </c>
-      <c r="AD42" s="13" t="s">
-        <v>493</v>
-      </c>
-      <c r="AF42" s="11">
-        <v>4.3</v>
-      </c>
-      <c r="AG42" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH42" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI42" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ42" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK42" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="AM42" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO42" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="AQ42" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AU42" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="AV42" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="AW42" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX42" s="11" t="s">
-        <v>469</v>
+      <c r="R42" s="11" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="s">
-        <v>287</v>
+        <v>339</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>288</v>
+        <v>340</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>289</v>
+        <v>341</v>
       </c>
       <c r="E43" s="11">
-        <v>2000</v>
+        <v>1990</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>246</v>
+        <v>342</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>292</v>
+        <v>344</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>293</v>
+        <v>345</v>
       </c>
       <c r="K43" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="L43" s="21" t="s">
-        <v>492</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="L43" s="14"/>
       <c r="M43" s="11" t="s">
-        <v>295</v>
+        <v>346</v>
       </c>
       <c r="N43" s="11" t="s">
         <v>254</v>
       </c>
       <c r="O43" s="11" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="P43" s="11" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Q43" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S43" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="T43" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="V43" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="X43" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z43" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="AA43" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB43" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC43" s="11">
-        <v>3</v>
-      </c>
-      <c r="AD43" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="AF43" s="11">
-        <v>4.3</v>
-      </c>
-      <c r="AG43" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH43" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI43" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ43" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK43" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="AM43" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO43" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="AQ43" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AU43" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="AV43" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="AW43" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX43" s="11" t="s">
-        <v>469</v>
+      <c r="R43" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="E44" s="11">
-        <v>2002</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="J44" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="K44" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="L44" s="21" t="s">
-        <v>491</v>
-      </c>
-      <c r="M44" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="N44" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="O44" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="P44" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q44" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="R44" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="E45" s="11">
-        <v>1997</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="I45" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="J45" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="K45" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="L45" s="21"/>
-      <c r="M45" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="N45" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="O45" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="P45" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q45" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="R45" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="46" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E46" s="11">
-        <v>1990</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="J46" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="K46" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="L46" s="21"/>
-      <c r="M46" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="N46" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="O46" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="P46" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q46" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="R46" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="47" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="48" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="AQ1:AT1"/>
@@ -10101,129 +9710,127 @@
     <mergeCell ref="AM1:AP1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="Q34:Q37 P8:P33 P38:P43 P45:P1048576 Q44 Q3:Q7"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH1048576">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="P8:P33 P42:P1048576 Q41 Q3:Q7 Q34 P35:P40" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Ecosystem_component</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Fishery_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR3:AS1048576 AI3:AJ1048576 AN3:AN1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR3:AS1048576 AI3:AJ1048576 AN3:AN1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>INDIRECT(AH3)</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="L38" r:id="rId1"/>
-    <hyperlink ref="L39" r:id="rId2"/>
-    <hyperlink ref="L3" r:id="rId3"/>
-    <hyperlink ref="L4" r:id="rId4"/>
-    <hyperlink ref="L5" r:id="rId5"/>
-    <hyperlink ref="L6:L7" r:id="rId6" display="https://doi.org/10.1007/s002270100688"/>
-    <hyperlink ref="L8" r:id="rId7"/>
-    <hyperlink ref="L9:L23" r:id="rId8" display="https://doi.org/10.1046/j.1439-0426.1999.00125.x"/>
-    <hyperlink ref="L24" r:id="rId9"/>
-    <hyperlink ref="L27" r:id="rId10"/>
-    <hyperlink ref="L28:L29" r:id="rId11" display="https://doi.org/10.1371/journal.pone.0210659"/>
-    <hyperlink ref="L30" r:id="rId12"/>
-    <hyperlink ref="L31:L32" r:id="rId13" display="https://doi.org/10.3354/meps13790"/>
-    <hyperlink ref="L33" r:id="rId14"/>
-    <hyperlink ref="L34" r:id="rId15"/>
-    <hyperlink ref="L35:L37" r:id="rId16" display="https://doi.org/10.1016/j.icesjms.2004.12.018"/>
-    <hyperlink ref="L42" r:id="rId17"/>
-    <hyperlink ref="L43" r:id="rId18" display="https://doi.org/10.1006/jmsc.2000.0914"/>
-    <hyperlink ref="L44" r:id="rId19"/>
+    <hyperlink ref="L35" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="L4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="L5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="L6:L7" r:id="rId5" display="https://doi.org/10.1007/s002270100688" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="L8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="L9:L23" r:id="rId7" display="https://doi.org/10.1046/j.1439-0426.1999.00125.x" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="L24" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="L27" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="L28:L29" r:id="rId10" display="https://doi.org/10.1371/journal.pone.0210659" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="L30" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="L31:L32" r:id="rId12" display="https://doi.org/10.3354/meps13790" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="L33" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="L34" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="L39" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="L40" r:id="rId16" display="https://doi.org/10.1006/jmsc.2000.0914" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="L41" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId20"/>
-  <legacyDrawing r:id="rId21"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId18"/>
+  <legacyDrawing r:id="rId19"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
             <xm:f>Validation!$R$3:$R$9</xm:f>
           </x14:formula1>
           <xm:sqref>R3:R1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
             <xm:f>Validation!$S$3:$S$16</xm:f>
           </x14:formula1>
           <xm:sqref>S3:S1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
           <x14:formula1>
             <xm:f>Validation!$AW$3:$AW$6</xm:f>
           </x14:formula1>
           <xm:sqref>AW3:AW1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000007000000}">
           <x14:formula1>
             <xm:f>Validation!$AM$5:$AM$11</xm:f>
           </x14:formula1>
           <xm:sqref>AM3:AM1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000008000000}">
           <x14:formula1>
             <xm:f>Validation!$T$3:$T$13</xm:f>
           </x14:formula1>
           <xm:sqref>T3:T1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000009000000}">
           <x14:formula1>
             <xm:f>Validation!$U$3:$U$15</xm:f>
           </x14:formula1>
           <xm:sqref>U3:U1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000A000000}">
           <x14:formula1>
             <xm:f>Validation!$V$3:$V$13</xm:f>
           </x14:formula1>
           <xm:sqref>V3:V1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000B000000}">
           <x14:formula1>
             <xm:f>Validation!$W$3:$W$16</xm:f>
           </x14:formula1>
           <xm:sqref>W3:W1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000C000000}">
           <x14:formula1>
             <xm:f>Validation!$AA$3:$AA$5</xm:f>
           </x14:formula1>
           <xm:sqref>AA3:AA1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000D000000}">
           <x14:formula1>
             <xm:f>Validation!$AB$3:$AB$5</xm:f>
           </x14:formula1>
           <xm:sqref>AB3:AB1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000E000000}">
           <x14:formula1>
             <xm:f>Validation!$AC$3:$AC$5</xm:f>
           </x14:formula1>
           <xm:sqref>AC3:AC1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000F000000}">
           <x14:formula1>
             <xm:f>Validation!$AG$3:$AG$9</xm:f>
           </x14:formula1>
           <xm:sqref>AG3:AG1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000010000000}">
           <x14:formula1>
             <xm:f>Validation!$AK$3:$AK$7</xm:f>
           </x14:formula1>
           <xm:sqref>AK3:AK1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000011000000}">
           <x14:formula1>
             <xm:f>Validation!$X$3:$X$16</xm:f>
           </x14:formula1>
           <xm:sqref>X3:X1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000012000000}">
           <x14:formula1>
             <xm:f>Validation!$AV$3:$AV$15</xm:f>
           </x14:formula1>
@@ -10236,7 +9843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AY38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10245,7 +9852,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="19" max="19" width="32.1796875" customWidth="1"/>
+    <col min="19" max="19" width="32.26953125" customWidth="1"/>
     <col min="23" max="23" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="25" customWidth="1"/>
@@ -10254,64 +9861,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="19" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="17" t="s">
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="18" t="s">
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="18"/>
-      <c r="AL1" s="18"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
       <c r="AM1" s="10" t="s">
         <v>97</v>
       </c>
       <c r="AN1" s="10"/>
       <c r="AO1" s="10"/>
       <c r="AP1" s="10"/>
-      <c r="AQ1" s="14" t="s">
+      <c r="AQ1" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="AR1" s="14"/>
-      <c r="AS1" s="14"/>
-      <c r="AT1" s="14"/>
+      <c r="AR1" s="15"/>
+      <c r="AS1" s="15"/>
+      <c r="AT1" s="15"/>
       <c r="AU1" s="9" t="s">
         <v>102</v>
       </c>
@@ -11311,7 +10918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11320,7 +10927,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
@@ -11334,7 +10941,7 @@
     <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="26.54296875" customWidth="1"/>
     <col min="17" max="17" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.81640625" customWidth="1"/>
+    <col min="18" max="18" width="16.7265625" customWidth="1"/>
     <col min="19" max="19" width="17.7265625" customWidth="1"/>
     <col min="20" max="20" width="19.26953125" customWidth="1"/>
     <col min="21" max="21" width="17.7265625" customWidth="1"/>
@@ -11350,51 +10957,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="17" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="18" t="s">
+      <c r="P1" s="18"/>
+      <c r="Q1" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
       <c r="V1" s="10" t="s">
         <v>97</v>
       </c>
       <c r="W1" s="10"/>
       <c r="X1" s="10"/>
       <c r="Y1" s="10"/>
-      <c r="Z1" s="14" t="s">
+      <c r="Z1" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="15" t="s">
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
     </row>
     <row r="2" spans="1:33" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -12223,9 +11830,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12343,38 +11953,46 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8139f6ee-89c3-4f2b-85ec-f070d3558ae6"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11B8AE49-0AAA-49EF-B236-298E5C42A727}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11B8AE49-0AAA-49EF-B236-298E5C42A727}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Spedicato.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Spedicato.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B5B6A5-8E51-4C34-A253-C51567CC03B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB4570B-A4D2-4596-86B8-3ED1E7D70677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$48</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -2365,7 +2365,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="498">
   <si>
     <t>SearchID</t>
   </si>
@@ -3564,24 +3564,12 @@
     <t>Fishing intensity</t>
   </si>
   <si>
-    <t>Limada limada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diet _ Benthos  Community </t>
-  </si>
-  <si>
-    <t>Based on this data sets, the authors have shown evidence for changes in fish diets, consistent with an effect of fishing activity</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1006/jmsc.1996.0146</t>
   </si>
   <si>
     <t>multi-species virtual population analysis _ linear models analysis</t>
   </si>
   <si>
-    <t xml:space="preserve">Fish Community _ diversity size spectra _ biomass size spectra _ Shannon–Wiener index </t>
-  </si>
-  <si>
     <t>https://britishbirds.co.uk/wp-content/uploads/article_files/V74/V74_N02/V74_N02_P082_090_A013.pdf</t>
   </si>
   <si>
@@ -3855,8 +3843,22 @@
     <t>Trophic interactions</t>
   </si>
   <si>
-    <t>The number–size spectra were similar between surveys and MSVPA data. Both showed marked community-level effects of fishing over the 1970s and 1980s. The changes in diversity spectra are more prominent in the MSVPA analyses. The patterns are consistent with the hypothesis (but do not prove) that
-trophodynamic processes regulate community level properties.</t>
+    <t>The number–size spectra were similar between surveys and MSVPA data. Both showed marked community-level effects of fishing over the 1970s and 1980s. The changes in diversity spectra are more prominent in the MSVPA analyses. The patterns are consistent with the hypothesis (but do not prove) that trophodynamic processes regulate community level properties.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diversity size spectra _ Shannon–Wiener index </t>
+  </si>
+  <si>
+    <t>The diversity spectra changed over time, but had no overall trend. The changes in the diversity spectra reflect different trends in the smaller and the intermediate size classes. The intermediate and larger size-classes show parallel trends. The changes in diversity spectra are more prominent in the MSVPA analyses. The patterns are consistent with the hypothesis (but do not prove) that trophodynamic processes regulate community level properties.</t>
+  </si>
+  <si>
+    <t>biomass size spectra</t>
+  </si>
+  <si>
+    <t>Occurence of benthic prey in dab stomach content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While our results must be treated with caution, they are consistent with the hypothesis that there have been widespread long term changes in benthic communities due to fishing. </t>
   </si>
 </sst>
 </file>
@@ -3999,7 +4001,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4023,6 +4025,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4330,10 +4333,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX45"/>
+  <dimension ref="A1:AX50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="AX27" sqref="AX27"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="AW36" sqref="AW36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4353,70 +4356,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="20" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="18" t="s">
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="19" t="s">
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="21" t="s">
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="AN1" s="21"/>
-      <c r="AO1" s="21"/>
-      <c r="AP1" s="21"/>
-      <c r="AQ1" s="15" t="s">
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="AR1" s="15"/>
-      <c r="AS1" s="15"/>
-      <c r="AT1" s="15"/>
-      <c r="AU1" s="16" t="s">
+      <c r="AR1" s="16"/>
+      <c r="AS1" s="16"/>
+      <c r="AT1" s="16"/>
+      <c r="AU1" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="AV1" s="16"/>
-      <c r="AW1" s="16"/>
-      <c r="AX1" s="16"/>
+      <c r="AV1" s="17"/>
+      <c r="AW1" s="17"/>
+      <c r="AX1" s="17"/>
     </row>
     <row r="2" spans="1:50" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -4605,7 +4608,7 @@
         <v>265</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="M3" s="11" t="s">
         <v>266</v>
@@ -4641,7 +4644,7 @@
         <v>216</v>
       </c>
       <c r="Z3" s="11" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="AA3" s="11">
         <v>2</v>
@@ -4653,7 +4656,7 @@
         <v>3</v>
       </c>
       <c r="AD3" s="13" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="AF3" s="11">
         <v>4.3</v>
@@ -4683,7 +4686,7 @@
         <v>161</v>
       </c>
       <c r="AO3" s="11" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="AQ3" s="11" t="s">
         <v>164</v>
@@ -4698,7 +4701,7 @@
         <v>377</v>
       </c>
       <c r="AU3" s="13" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="AV3" s="11" t="s">
         <v>237</v>
@@ -4745,7 +4748,7 @@
         <v>265</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>266</v>
@@ -4781,7 +4784,7 @@
         <v>216</v>
       </c>
       <c r="Z4" s="11" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="AA4" s="11">
         <v>2</v>
@@ -4793,7 +4796,7 @@
         <v>3</v>
       </c>
       <c r="AD4" s="13" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="AF4" s="11">
         <v>4.3</v>
@@ -4823,7 +4826,7 @@
         <v>161</v>
       </c>
       <c r="AO4" s="11" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="AQ4" s="11" t="s">
         <v>164</v>
@@ -4838,7 +4841,7 @@
         <v>377</v>
       </c>
       <c r="AU4" s="13" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="AV4" s="11" t="s">
         <v>237</v>
@@ -4847,7 +4850,7 @@
         <v>208</v>
       </c>
       <c r="AX4" s="11" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="5" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -4885,7 +4888,7 @@
         <v>274</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="M5" s="11" t="s">
         <v>275</v>
@@ -4957,7 +4960,7 @@
         <v>233</v>
       </c>
       <c r="AO5" s="11" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="AQ5" s="11" t="s">
         <v>164</v>
@@ -4972,7 +4975,7 @@
         <v>210</v>
       </c>
       <c r="AX5" s="11" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -5010,7 +5013,7 @@
         <v>274</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="M6" s="11" t="s">
         <v>275</v>
@@ -5082,13 +5085,13 @@
         <v>233</v>
       </c>
       <c r="AO6" s="11" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="AQ6" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AU6" s="11" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="AV6" s="11" t="s">
         <v>205</v>
@@ -5135,7 +5138,7 @@
         <v>274</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>275</v>
@@ -5207,13 +5210,13 @@
         <v>233</v>
       </c>
       <c r="AO7" s="11" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="AQ7" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AU7" s="11" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="AV7" s="11" t="s">
         <v>206</v>
@@ -5260,7 +5263,7 @@
         <v>313</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="M8" s="11" t="s">
         <v>314</v>
@@ -5332,7 +5335,7 @@
         <v>160</v>
       </c>
       <c r="AO8" s="11" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AQ8" s="11" t="s">
         <v>164</v>
@@ -5344,7 +5347,7 @@
         <v>175</v>
       </c>
       <c r="AU8" s="11" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="AV8" s="11" t="s">
         <v>204</v>
@@ -5353,7 +5356,7 @@
         <v>209</v>
       </c>
       <c r="AX8" s="11" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="9" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -5391,7 +5394,7 @@
         <v>313</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="M9" s="11" t="s">
         <v>314</v>
@@ -5463,7 +5466,7 @@
         <v>160</v>
       </c>
       <c r="AO9" s="11" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AQ9" s="11" t="s">
         <v>164</v>
@@ -5475,7 +5478,7 @@
         <v>175</v>
       </c>
       <c r="AU9" s="11" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="AV9" s="11" t="s">
         <v>204</v>
@@ -5484,7 +5487,7 @@
         <v>209</v>
       </c>
       <c r="AX9" s="11" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="10" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -5522,7 +5525,7 @@
         <v>313</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="M10" s="11" t="s">
         <v>314</v>
@@ -5594,7 +5597,7 @@
         <v>160</v>
       </c>
       <c r="AO10" s="11" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AQ10" s="11" t="s">
         <v>164</v>
@@ -5609,7 +5612,7 @@
         <v>386</v>
       </c>
       <c r="AU10" s="11" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="AV10" s="11" t="s">
         <v>204</v>
@@ -5618,7 +5621,7 @@
         <v>209</v>
       </c>
       <c r="AX10" s="11" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="11" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -5656,7 +5659,7 @@
         <v>313</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="M11" s="11" t="s">
         <v>314</v>
@@ -5728,7 +5731,7 @@
         <v>160</v>
       </c>
       <c r="AO11" s="11" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AQ11" s="11" t="s">
         <v>164</v>
@@ -5743,7 +5746,7 @@
         <v>386</v>
       </c>
       <c r="AU11" s="11" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="AV11" s="11" t="s">
         <v>204</v>
@@ -5752,7 +5755,7 @@
         <v>209</v>
       </c>
       <c r="AX11" s="11" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="12" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -5790,7 +5793,7 @@
         <v>313</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="M12" s="11" t="s">
         <v>314</v>
@@ -5862,7 +5865,7 @@
         <v>160</v>
       </c>
       <c r="AO12" s="11" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AQ12" s="11" t="s">
         <v>164</v>
@@ -5874,7 +5877,7 @@
         <v>175</v>
       </c>
       <c r="AU12" s="11" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="AV12" s="11" t="s">
         <v>204</v>
@@ -5883,7 +5886,7 @@
         <v>209</v>
       </c>
       <c r="AX12" s="11" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="13" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -5921,7 +5924,7 @@
         <v>313</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="M13" s="11" t="s">
         <v>314</v>
@@ -5993,7 +5996,7 @@
         <v>160</v>
       </c>
       <c r="AO13" s="11" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AQ13" s="11" t="s">
         <v>164</v>
@@ -6005,7 +6008,7 @@
         <v>175</v>
       </c>
       <c r="AU13" s="11" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="AV13" s="11" t="s">
         <v>204</v>
@@ -6014,7 +6017,7 @@
         <v>209</v>
       </c>
       <c r="AX13" s="11" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="14" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -6052,7 +6055,7 @@
         <v>313</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="M14" s="11" t="s">
         <v>314</v>
@@ -6124,7 +6127,7 @@
         <v>160</v>
       </c>
       <c r="AO14" s="11" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AQ14" s="11" t="s">
         <v>164</v>
@@ -6136,7 +6139,7 @@
         <v>188</v>
       </c>
       <c r="AU14" s="11" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="AV14" s="11" t="s">
         <v>204</v>
@@ -6145,7 +6148,7 @@
         <v>209</v>
       </c>
       <c r="AX14" s="11" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="15" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -6183,7 +6186,7 @@
         <v>313</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="M15" s="11" t="s">
         <v>314</v>
@@ -6255,7 +6258,7 @@
         <v>160</v>
       </c>
       <c r="AO15" s="11" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AQ15" s="11" t="s">
         <v>164</v>
@@ -6267,7 +6270,7 @@
         <v>189</v>
       </c>
       <c r="AU15" s="11" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="AV15" s="11" t="s">
         <v>204</v>
@@ -6276,7 +6279,7 @@
         <v>209</v>
       </c>
       <c r="AX15" s="11" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="16" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -6314,7 +6317,7 @@
         <v>313</v>
       </c>
       <c r="L16" s="14" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="M16" s="11" t="s">
         <v>314</v>
@@ -6386,7 +6389,7 @@
         <v>160</v>
       </c>
       <c r="AO16" s="11" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AQ16" s="11" t="s">
         <v>164</v>
@@ -6445,7 +6448,7 @@
         <v>313</v>
       </c>
       <c r="L17" s="14" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="M17" s="11" t="s">
         <v>314</v>
@@ -6517,7 +6520,7 @@
         <v>160</v>
       </c>
       <c r="AO17" s="11" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AQ17" s="11" t="s">
         <v>164</v>
@@ -6576,7 +6579,7 @@
         <v>313</v>
       </c>
       <c r="L18" s="14" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="M18" s="11" t="s">
         <v>314</v>
@@ -6648,7 +6651,7 @@
         <v>160</v>
       </c>
       <c r="AO18" s="11" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AQ18" s="11" t="s">
         <v>164</v>
@@ -6710,7 +6713,7 @@
         <v>313</v>
       </c>
       <c r="L19" s="14" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="M19" s="11" t="s">
         <v>314</v>
@@ -6782,7 +6785,7 @@
         <v>160</v>
       </c>
       <c r="AO19" s="11" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AQ19" s="11" t="s">
         <v>164</v>
@@ -6844,7 +6847,7 @@
         <v>313</v>
       </c>
       <c r="L20" s="14" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="M20" s="11" t="s">
         <v>314</v>
@@ -6916,7 +6919,7 @@
         <v>160</v>
       </c>
       <c r="AO20" s="11" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AQ20" s="11" t="s">
         <v>164</v>
@@ -6975,7 +6978,7 @@
         <v>313</v>
       </c>
       <c r="L21" s="14" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="M21" s="11" t="s">
         <v>314</v>
@@ -7047,7 +7050,7 @@
         <v>160</v>
       </c>
       <c r="AO21" s="11" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AQ21" s="11" t="s">
         <v>164</v>
@@ -7106,7 +7109,7 @@
         <v>313</v>
       </c>
       <c r="L22" s="14" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="M22" s="11" t="s">
         <v>314</v>
@@ -7178,7 +7181,7 @@
         <v>160</v>
       </c>
       <c r="AO22" s="11" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AQ22" s="11" t="s">
         <v>164</v>
@@ -7237,7 +7240,7 @@
         <v>313</v>
       </c>
       <c r="L23" s="14" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="M23" s="11" t="s">
         <v>314</v>
@@ -7309,7 +7312,7 @@
         <v>160</v>
       </c>
       <c r="AO23" s="11" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AQ23" s="11" t="s">
         <v>164</v>
@@ -7368,7 +7371,7 @@
         <v>252</v>
       </c>
       <c r="L24" s="14" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="M24" s="11" t="s">
         <v>321</v>
@@ -7404,7 +7407,7 @@
         <v>69</v>
       </c>
       <c r="Z24" s="11" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="AA24" s="11">
         <v>2</v>
@@ -7416,7 +7419,7 @@
         <v>3</v>
       </c>
       <c r="AE24" s="11" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AF24" s="11">
         <v>4.4000000000000004</v>
@@ -7443,7 +7446,7 @@
         <v>160</v>
       </c>
       <c r="AO24" s="11" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="AQ24" s="11" t="s">
         <v>164</v>
@@ -7458,7 +7461,7 @@
         <v>393</v>
       </c>
       <c r="AU24" s="11" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="AV24" s="11" t="s">
         <v>204</v>
@@ -7467,7 +7470,7 @@
         <v>210</v>
       </c>
       <c r="AX24" s="11" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="25" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -7505,7 +7508,7 @@
         <v>252</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="M25" s="11" t="s">
         <v>321</v>
@@ -7541,7 +7544,7 @@
         <v>69</v>
       </c>
       <c r="Z25" s="11" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="AA25" s="11">
         <v>2</v>
@@ -7553,7 +7556,7 @@
         <v>3</v>
       </c>
       <c r="AE25" s="11" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AF25" s="11">
         <v>4.4000000000000004</v>
@@ -7580,7 +7583,7 @@
         <v>160</v>
       </c>
       <c r="AO25" s="11" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="AQ25" s="11" t="s">
         <v>164</v>
@@ -7595,7 +7598,7 @@
         <v>393</v>
       </c>
       <c r="AU25" s="11" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="AV25" s="11" t="s">
         <v>200</v>
@@ -7604,7 +7607,7 @@
         <v>210</v>
       </c>
       <c r="AX25" s="11" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="26" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -7642,7 +7645,7 @@
         <v>252</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="M26" s="11" t="s">
         <v>321</v>
@@ -7690,10 +7693,10 @@
         <v>3</v>
       </c>
       <c r="AD26" s="13" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="AE26" s="11" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AF26" s="11">
         <v>4.2</v>
@@ -7720,7 +7723,7 @@
         <v>162</v>
       </c>
       <c r="AO26" s="11" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="AQ26" s="11" t="s">
         <v>164</v>
@@ -7735,7 +7738,7 @@
         <v>393</v>
       </c>
       <c r="AU26" s="11" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="AV26" s="11" t="s">
         <v>238</v>
@@ -7744,7 +7747,7 @@
         <v>210</v>
       </c>
       <c r="AX26" s="11" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="27" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -7776,7 +7779,7 @@
         <v>375</v>
       </c>
       <c r="L27" s="14" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="M27" s="11" t="s">
         <v>376</v>
@@ -7806,7 +7809,7 @@
         <v>80</v>
       </c>
       <c r="Z27" s="11" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="AA27" s="11">
         <v>2</v>
@@ -7818,7 +7821,7 @@
         <v>3</v>
       </c>
       <c r="AD27" s="11" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="AF27" s="11">
         <v>4.4000000000000004</v>
@@ -7833,7 +7836,7 @@
         <v>148</v>
       </c>
       <c r="AL27" s="11" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="AM27" s="11" t="s">
         <v>232</v>
@@ -7842,7 +7845,7 @@
         <v>160</v>
       </c>
       <c r="AO27" s="11" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="AQ27" s="11" t="s">
         <v>164</v>
@@ -7854,7 +7857,7 @@
         <v>175</v>
       </c>
       <c r="AU27" s="11" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="AV27" s="11" t="s">
         <v>238</v>
@@ -7863,7 +7866,7 @@
         <v>207</v>
       </c>
       <c r="AX27" s="13" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="28" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -7895,7 +7898,7 @@
         <v>375</v>
       </c>
       <c r="L28" s="14" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="M28" s="11" t="s">
         <v>376</v>
@@ -7925,7 +7928,7 @@
         <v>80</v>
       </c>
       <c r="Z28" s="11" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="AA28" s="11">
         <v>2</v>
@@ -7937,7 +7940,7 @@
         <v>3</v>
       </c>
       <c r="AD28" s="11" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="AF28" s="11">
         <v>4.4000000000000004</v>
@@ -7952,7 +7955,7 @@
         <v>148</v>
       </c>
       <c r="AL28" s="11" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="AM28" s="11" t="s">
         <v>232</v>
@@ -7961,7 +7964,7 @@
         <v>160</v>
       </c>
       <c r="AO28" s="11" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="AQ28" s="11" t="s">
         <v>164</v>
@@ -7973,10 +7976,10 @@
         <v>192</v>
       </c>
       <c r="AT28" s="11" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="AU28" s="11" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="AV28" s="11" t="s">
         <v>238</v>
@@ -7985,7 +7988,7 @@
         <v>207</v>
       </c>
       <c r="AX28" s="11" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="29" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -8017,7 +8020,7 @@
         <v>375</v>
       </c>
       <c r="L29" s="14" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="M29" s="11" t="s">
         <v>376</v>
@@ -8047,7 +8050,7 @@
         <v>80</v>
       </c>
       <c r="Z29" s="11" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="AA29" s="11">
         <v>2</v>
@@ -8059,7 +8062,7 @@
         <v>3</v>
       </c>
       <c r="AD29" s="11" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="AF29" s="11">
         <v>4.4000000000000004</v>
@@ -8074,7 +8077,7 @@
         <v>148</v>
       </c>
       <c r="AL29" s="11" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="AM29" s="11" t="s">
         <v>232</v>
@@ -8083,7 +8086,7 @@
         <v>160</v>
       </c>
       <c r="AO29" s="11" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="AQ29" s="11" t="s">
         <v>164</v>
@@ -8095,10 +8098,10 @@
         <v>181</v>
       </c>
       <c r="AT29" s="11" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="AU29" s="11" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="AV29" s="11" t="s">
         <v>238</v>
@@ -8107,7 +8110,7 @@
         <v>207</v>
       </c>
       <c r="AX29" s="11" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="30" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -8142,7 +8145,7 @@
         <v>368</v>
       </c>
       <c r="L30" s="14" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="M30" s="11" t="s">
         <v>369</v>
@@ -8175,10 +8178,10 @@
         <v>216</v>
       </c>
       <c r="Y30" s="11" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="Z30" s="11" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="AA30" s="11">
         <v>2</v>
@@ -8190,10 +8193,10 @@
         <v>3</v>
       </c>
       <c r="AD30" s="11" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AE30" s="11" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AF30" s="11">
         <v>4.3</v>
@@ -8208,16 +8211,16 @@
         <v>134</v>
       </c>
       <c r="AL30" s="11" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AM30" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AO30" s="11" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="AP30" s="11" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="AQ30" s="11" t="s">
         <v>164</v>
@@ -8229,10 +8232,10 @@
         <v>175</v>
       </c>
       <c r="AT30" s="11" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="AU30" s="12" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="AV30" s="11" t="s">
         <v>206</v>
@@ -8241,7 +8244,7 @@
         <v>208</v>
       </c>
       <c r="AX30" s="11" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="31" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -8276,7 +8279,7 @@
         <v>368</v>
       </c>
       <c r="L31" s="14" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="M31" s="11" t="s">
         <v>369</v>
@@ -8309,10 +8312,10 @@
         <v>113</v>
       </c>
       <c r="Y31" s="11" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="Z31" s="11" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="AA31" s="11">
         <v>2</v>
@@ -8324,10 +8327,10 @@
         <v>3</v>
       </c>
       <c r="AD31" s="11" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AE31" s="11" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AF31" s="11">
         <v>4.3</v>
@@ -8342,16 +8345,16 @@
         <v>134</v>
       </c>
       <c r="AL31" s="11" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AM31" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AO31" s="11" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="AP31" s="11" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="AQ31" s="11" t="s">
         <v>164</v>
@@ -8363,10 +8366,10 @@
         <v>175</v>
       </c>
       <c r="AT31" s="11" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="AU31" s="12" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="AV31" s="11" t="s">
         <v>206</v>
@@ -8375,7 +8378,7 @@
         <v>208</v>
       </c>
       <c r="AX31" s="11" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="32" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -8410,7 +8413,7 @@
         <v>368</v>
       </c>
       <c r="L32" s="14" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="M32" s="11" t="s">
         <v>369</v>
@@ -8443,10 +8446,10 @@
         <v>113</v>
       </c>
       <c r="Y32" s="11" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="Z32" s="11" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="AA32" s="11">
         <v>2</v>
@@ -8458,10 +8461,10 @@
         <v>3</v>
       </c>
       <c r="AD32" s="11" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AE32" s="11" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AF32" s="11">
         <v>4.3</v>
@@ -8476,16 +8479,16 @@
         <v>134</v>
       </c>
       <c r="AL32" s="11" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AM32" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AO32" s="11" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="AP32" s="11" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="AQ32" s="11" t="s">
         <v>164</v>
@@ -8497,10 +8500,10 @@
         <v>175</v>
       </c>
       <c r="AT32" s="11" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="AU32" s="12" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="AV32" s="11" t="s">
         <v>206</v>
@@ -8509,7 +8512,7 @@
         <v>208</v>
       </c>
       <c r="AX32" s="11" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="33" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -8547,7 +8550,7 @@
         <v>361</v>
       </c>
       <c r="L33" s="14" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="M33" s="11" t="s">
         <v>362</v>
@@ -8583,7 +8586,7 @@
         <v>69</v>
       </c>
       <c r="Z33" s="11" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="AA33" s="11">
         <v>2</v>
@@ -8595,10 +8598,10 @@
         <v>3</v>
       </c>
       <c r="AD33" s="11" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="AE33" s="11" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="AF33" s="11">
         <v>4.4000000000000004</v>
@@ -8616,7 +8619,7 @@
         <v>150</v>
       </c>
       <c r="AL33" s="11" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="AM33" s="11" t="s">
         <v>232</v>
@@ -8625,7 +8628,7 @@
         <v>160</v>
       </c>
       <c r="AO33" s="11" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="AQ33" s="11" t="s">
         <v>164</v>
@@ -8637,10 +8640,10 @@
         <v>175</v>
       </c>
       <c r="AT33" s="11" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="AU33" s="11" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="AV33" s="11" t="s">
         <v>200</v>
@@ -8649,7 +8652,7 @@
         <v>207</v>
       </c>
       <c r="AX33" s="11" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="34" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -8687,7 +8690,7 @@
         <v>251</v>
       </c>
       <c r="L34" s="14" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="M34" s="11" t="s">
         <v>253</v>
@@ -8720,7 +8723,7 @@
         <v>215</v>
       </c>
       <c r="Z34" s="11" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="AA34" s="11">
         <v>2</v>
@@ -8732,7 +8735,7 @@
         <v>1</v>
       </c>
       <c r="AD34" s="13" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="AF34" s="11">
         <v>4.4000000000000004</v>
@@ -8750,7 +8753,7 @@
         <v>150</v>
       </c>
       <c r="AL34" s="11" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="AM34" s="11" t="s">
         <v>232</v>
@@ -8759,16 +8762,16 @@
         <v>160</v>
       </c>
       <c r="AO34" s="11" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="AQ34" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AT34" s="11" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="AU34" s="11" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="AV34" s="11" t="s">
         <v>199</v>
@@ -8777,7 +8780,7 @@
         <v>208</v>
       </c>
       <c r="AX34" s="11" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="35" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -8869,10 +8872,13 @@
         <v>109</v>
       </c>
       <c r="AH35" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
+      </c>
+      <c r="AI35" s="11" t="s">
+        <v>133</v>
       </c>
       <c r="AK35" s="11" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="AM35" s="11" t="s">
         <v>232</v>
@@ -8892,61 +8898,58 @@
       <c r="AS35" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="AT35" s="11" t="s">
-        <v>399</v>
-      </c>
       <c r="AU35" s="11" t="s">
-        <v>400</v>
+        <v>496</v>
       </c>
       <c r="AV35" s="11" t="s">
         <v>206</v>
       </c>
       <c r="AW35" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AX35" s="11" t="s">
-        <v>401</v>
+        <v>497</v>
       </c>
     </row>
     <row r="36" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
-        <v>331</v>
+        <v>297</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>332</v>
+        <v>298</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="E36" s="11">
-        <v>1996</v>
+        <v>1999</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>246</v>
+        <v>300</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>335</v>
+        <v>302</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>336</v>
+        <v>303</v>
       </c>
       <c r="K36" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="L36" s="11" t="s">
-        <v>402</v>
+        <v>304</v>
+      </c>
+      <c r="L36" s="14" t="s">
+        <v>396</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="N36" s="11" t="s">
         <v>254</v>
@@ -8973,13 +8976,13 @@
         <v>46</v>
       </c>
       <c r="W36" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X36" s="11" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="Z36" s="11" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="AA36" s="11">
         <v>2</v>
@@ -8988,7 +8991,7 @@
         <v>2</v>
       </c>
       <c r="AC36" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF36" s="11">
         <v>4.4000000000000004</v>
@@ -8997,10 +9000,16 @@
         <v>109</v>
       </c>
       <c r="AH36" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AI36" s="11" t="s">
-        <v>144</v>
+        <v>140</v>
+      </c>
+      <c r="AJ36" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK36" s="11" t="s">
+        <v>150</v>
       </c>
       <c r="AM36" s="11" t="s">
         <v>232</v>
@@ -9009,25 +9018,28 @@
         <v>160</v>
       </c>
       <c r="AO36" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="AP36" s="11" t="s">
-        <v>495</v>
+        <v>398</v>
       </c>
       <c r="AQ36" s="11" t="s">
         <v>164</v>
       </c>
+      <c r="AR36" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS36" s="11" t="s">
+        <v>175</v>
+      </c>
       <c r="AU36" s="11" t="s">
-        <v>404</v>
+        <v>496</v>
       </c>
       <c r="AV36" s="11" t="s">
         <v>206</v>
       </c>
       <c r="AW36" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX36" s="13" t="s">
-        <v>496</v>
+        <v>209</v>
+      </c>
+      <c r="AX36" s="11" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="37" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -9065,7 +9077,7 @@
         <v>337</v>
       </c>
       <c r="L37" s="11" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="M37" s="11" t="s">
         <v>338</v>
@@ -9101,7 +9113,7 @@
         <v>69</v>
       </c>
       <c r="Z37" s="11" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="AA37" s="11">
         <v>2</v>
@@ -9128,69 +9140,69 @@
         <v>232</v>
       </c>
       <c r="AN37" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AO37" s="11" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="AP37" s="11" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="AQ37" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AU37" s="11" t="s">
-        <v>404</v>
+        <v>495</v>
       </c>
       <c r="AV37" s="11" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="AW37" s="11" t="s">
         <v>208</v>
       </c>
       <c r="AX37" s="13" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="38" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="E38" s="11">
-        <v>1981</v>
+        <v>1996</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>350</v>
+        <v>246</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>343</v>
+        <v>262</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="K38" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="L38" s="11" t="s">
-        <v>405</v>
+        <v>337</v>
+      </c>
+      <c r="L38" s="15" t="s">
+        <v>399</v>
       </c>
       <c r="M38" s="11" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="N38" s="11" t="s">
         <v>254</v>
@@ -9199,129 +9211,126 @@
         <v>255</v>
       </c>
       <c r="P38" s="11" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q38" s="11" t="s">
         <v>21</v>
       </c>
       <c r="S38" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T38" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U38" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V38" s="11" t="s">
         <v>46</v>
       </c>
       <c r="W38" s="11" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="X38" s="11" t="s">
         <v>69</v>
       </c>
       <c r="Z38" s="11" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="AA38" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB38" s="11">
         <v>2</v>
       </c>
       <c r="AC38" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF38" s="11">
         <v>4.4000000000000004</v>
       </c>
       <c r="AG38" s="11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AH38" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="AK38" s="11" t="s">
-        <v>134</v>
+        <v>117</v>
+      </c>
+      <c r="AI38" s="11" t="s">
+        <v>144</v>
       </c>
       <c r="AM38" s="11" t="s">
-        <v>159</v>
+        <v>232</v>
+      </c>
+      <c r="AN38" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="AO38" s="11" t="s">
-        <v>407</v>
+        <v>490</v>
+      </c>
+      <c r="AP38" s="11" t="s">
+        <v>491</v>
       </c>
       <c r="AQ38" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="AR38" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS38" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT38" s="11" t="s">
-        <v>408</v>
-      </c>
       <c r="AU38" s="11" t="s">
-        <v>409</v>
+        <v>495</v>
       </c>
       <c r="AV38" s="11" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="AW38" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX38" s="11" t="s">
-        <v>410</v>
+        <v>208</v>
+      </c>
+      <c r="AX38" s="13" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="39" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
-        <v>287</v>
+        <v>331</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>288</v>
+        <v>332</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>289</v>
+        <v>333</v>
       </c>
       <c r="E39" s="11">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>246</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>290</v>
+        <v>334</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>292</v>
+        <v>335</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>293</v>
+        <v>336</v>
       </c>
       <c r="K39" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="L39" s="14" t="s">
-        <v>477</v>
+        <v>337</v>
+      </c>
+      <c r="L39" s="11" t="s">
+        <v>399</v>
       </c>
       <c r="M39" s="11" t="s">
-        <v>295</v>
+        <v>338</v>
       </c>
       <c r="N39" s="11" t="s">
         <v>254</v>
       </c>
       <c r="O39" s="11" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="P39" s="11" t="s">
         <v>256</v>
@@ -9335,14 +9344,20 @@
       <c r="T39" s="11" t="s">
         <v>46</v>
       </c>
+      <c r="U39" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="V39" s="11" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="W39" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="X39" s="11" t="s">
-        <v>216</v>
+        <v>69</v>
       </c>
       <c r="Z39" s="11" t="s">
-        <v>458</v>
+        <v>400</v>
       </c>
       <c r="AA39" s="11">
         <v>2</v>
@@ -9353,103 +9368,91 @@
       <c r="AC39" s="11">
         <v>3</v>
       </c>
-      <c r="AD39" s="13" t="s">
-        <v>480</v>
-      </c>
       <c r="AF39" s="11">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AG39" s="11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AH39" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AI39" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ39" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK39" s="11" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AM39" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN39" s="11" t="s">
+        <v>160</v>
       </c>
       <c r="AO39" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="AP39" s="11" t="s">
         <v>491</v>
       </c>
       <c r="AQ39" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="AR39" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS39" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="AT39" s="11" t="s">
-        <v>130</v>
-      </c>
       <c r="AU39" s="11" t="s">
-        <v>460</v>
+        <v>495</v>
       </c>
       <c r="AV39" s="11" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AW39" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX39" s="11" t="s">
-        <v>459</v>
+        <v>208</v>
+      </c>
+      <c r="AX39" s="13" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="40" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
-        <v>287</v>
+        <v>331</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>288</v>
+        <v>332</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>289</v>
+        <v>333</v>
       </c>
       <c r="E40" s="11">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>246</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>290</v>
+        <v>334</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>292</v>
+        <v>335</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>293</v>
+        <v>336</v>
       </c>
       <c r="K40" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="L40" s="14" t="s">
-        <v>479</v>
+        <v>337</v>
+      </c>
+      <c r="L40" s="15" t="s">
+        <v>399</v>
       </c>
       <c r="M40" s="11" t="s">
-        <v>295</v>
+        <v>338</v>
       </c>
       <c r="N40" s="11" t="s">
         <v>254</v>
       </c>
       <c r="O40" s="11" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="P40" s="11" t="s">
         <v>256</v>
@@ -9463,14 +9466,20 @@
       <c r="T40" s="11" t="s">
         <v>46</v>
       </c>
+      <c r="U40" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="V40" s="11" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="W40" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="X40" s="11" t="s">
-        <v>216</v>
+        <v>69</v>
       </c>
       <c r="Z40" s="11" t="s">
-        <v>458</v>
+        <v>400</v>
       </c>
       <c r="AA40" s="11">
         <v>2</v>
@@ -9481,97 +9490,85 @@
       <c r="AC40" s="11">
         <v>3</v>
       </c>
-      <c r="AD40" s="11" t="s">
-        <v>457</v>
-      </c>
       <c r="AF40" s="11">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AG40" s="11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AH40" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AI40" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ40" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK40" s="11" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AM40" s="11" t="s">
-        <v>159</v>
+        <v>232</v>
+      </c>
+      <c r="AN40" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="AO40" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="AP40" s="11" t="s">
         <v>491</v>
       </c>
       <c r="AQ40" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="AR40" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS40" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="AT40" s="11" t="s">
-        <v>130</v>
-      </c>
       <c r="AU40" s="11" t="s">
-        <v>460</v>
+        <v>495</v>
       </c>
       <c r="AV40" s="11" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AW40" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX40" s="11" t="s">
-        <v>459</v>
+        <v>208</v>
+      </c>
+      <c r="AX40" s="13" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="41" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
-        <v>276</v>
+        <v>331</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>277</v>
+        <v>332</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="E41" s="11">
-        <v>2002</v>
+        <v>1996</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>280</v>
+        <v>334</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>282</v>
+        <v>335</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>283</v>
+        <v>336</v>
       </c>
       <c r="K41" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="L41" s="14" t="s">
-        <v>478</v>
+        <v>337</v>
+      </c>
+      <c r="L41" s="11" t="s">
+        <v>399</v>
       </c>
       <c r="M41" s="11" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="N41" s="11" t="s">
         <v>254</v>
@@ -9580,106 +9577,242 @@
         <v>255</v>
       </c>
       <c r="P41" s="11" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="Q41" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="R41" s="11" t="s">
-        <v>84</v>
+      <c r="S41" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="T41" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="U41" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="V41" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="W41" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="X41" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z41" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="AA41" s="11">
+        <v>2</v>
+      </c>
+      <c r="AB41" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC41" s="11">
+        <v>3</v>
+      </c>
+      <c r="AF41" s="11">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG41" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH41" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI41" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM41" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN41" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO41" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="AP41" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="AQ41" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU41" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="AV41" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="AW41" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX41" s="13" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="42" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="E42" s="11">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>325</v>
+        <v>246</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="K42" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="L42" s="14"/>
+        <v>337</v>
+      </c>
+      <c r="L42" s="15" t="s">
+        <v>399</v>
+      </c>
       <c r="M42" s="11" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="N42" s="11" t="s">
-        <v>330</v>
+        <v>254</v>
       </c>
       <c r="O42" s="11" t="s">
         <v>255</v>
       </c>
       <c r="P42" s="11" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q42" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="R42" s="11" t="s">
-        <v>87</v>
+      <c r="S42" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="T42" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="U42" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="V42" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="W42" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="X42" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z42" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="AA42" s="11">
+        <v>2</v>
+      </c>
+      <c r="AB42" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC42" s="11">
+        <v>3</v>
+      </c>
+      <c r="AF42" s="11">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG42" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH42" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI42" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM42" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN42" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO42" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="AP42" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="AQ42" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU42" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="AV42" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="AW42" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX42" s="13" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="43" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="E43" s="11">
-        <v>1990</v>
+        <v>1981</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>320</v>
+        <v>351</v>
       </c>
       <c r="H43" s="11" t="s">
         <v>343</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="K43" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="L43" s="14"/>
+      <c r="L43" s="11" t="s">
+        <v>401</v>
+      </c>
       <c r="M43" s="11" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="N43" s="11" t="s">
         <v>254</v>
@@ -9693,12 +9826,501 @@
       <c r="Q43" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="R43" s="11" t="s">
+      <c r="S43" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="T43" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="U43" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="V43" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="W43" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="X43" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z43" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="AA43" s="11">
+        <v>1</v>
+      </c>
+      <c r="AB43" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC43" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF43" s="11">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG43" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH43" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK43" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM43" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="AO43" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="AQ43" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR43" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS43" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT43" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="AU43" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="AV43" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="AW43" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX43" s="11" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="44" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="E44" s="11">
+        <v>2000</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="L44" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="M44" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="N44" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="O44" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="P44" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q44" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="S44" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="T44" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="V44" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="X44" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z44" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="AA44" s="11">
+        <v>2</v>
+      </c>
+      <c r="AB44" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC44" s="11">
+        <v>3</v>
+      </c>
+      <c r="AD44" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="AF44" s="11">
+        <v>4.3</v>
+      </c>
+      <c r="AG44" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH44" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI44" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ44" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK44" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM44" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO44" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="AQ44" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR44" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS44" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="AT44" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU44" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="AV44" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="AW44" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX44" s="11" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="45" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="E45" s="11">
+        <v>2000</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="L45" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="M45" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="N45" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="O45" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="P45" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q45" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="S45" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="T45" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="V45" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="X45" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z45" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="AA45" s="11">
+        <v>2</v>
+      </c>
+      <c r="AB45" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC45" s="11">
+        <v>3</v>
+      </c>
+      <c r="AD45" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="AF45" s="11">
+        <v>4.3</v>
+      </c>
+      <c r="AG45" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH45" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI45" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ45" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK45" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM45" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="AO45" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="AQ45" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR45" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS45" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="AT45" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU45" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="AV45" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="AW45" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX45" s="11" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="46" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="E46" s="11">
+        <v>2002</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="L46" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="M46" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="N46" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="O46" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="P46" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q46" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="R46" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="45" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="E47" s="11">
+        <v>1997</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="L47" s="14"/>
+      <c r="M47" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="N47" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="O47" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="P47" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q47" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="R47" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="E48" s="11">
+        <v>1990</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="L48" s="14"/>
+      <c r="M48" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="N48" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="O48" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="P48" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q48" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="R48" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="50" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="AQ1:AT1"/>
@@ -9710,7 +10332,7 @@
     <mergeCell ref="AM1:AP1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="P8:P33 P42:P1048576 Q41 Q3:Q7 Q34 P35:P40" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="P8:P33 P47:P1048576 Q46 Q3:Q7 P35:P45 Q34" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Ecosystem_component</formula1>
     </dataValidation>
@@ -9722,7 +10344,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="L35" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L36" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="L3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="L4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="L5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
@@ -9736,13 +10358,17 @@
     <hyperlink ref="L31:L32" r:id="rId12" display="https://doi.org/10.3354/meps13790" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="L33" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="L34" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="L39" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="L40" r:id="rId16" display="https://doi.org/10.1006/jmsc.2000.0914" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="L41" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="L44" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="L45" r:id="rId16" display="https://doi.org/10.1006/jmsc.2000.0914" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="L46" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="L42" r:id="rId18" xr:uid="{249D99DC-8FDE-4B7C-8210-589AFBDB12B3}"/>
+    <hyperlink ref="L40" r:id="rId19" xr:uid="{D8151F68-4EF7-4EC6-825F-FCF3CF6108BA}"/>
+    <hyperlink ref="L38" r:id="rId20" xr:uid="{65B82A21-4210-4657-A157-C1EECA27124D}"/>
+    <hyperlink ref="L35" r:id="rId21" xr:uid="{0A279379-C0CA-424C-86BC-A4F5C9068401}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId18"/>
-  <legacyDrawing r:id="rId19"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId22"/>
+  <legacyDrawing r:id="rId23"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
@@ -9861,64 +10487,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="20" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="18" t="s">
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="19" t="s">
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20"/>
       <c r="AM1" s="10" t="s">
         <v>97</v>
       </c>
       <c r="AN1" s="10"/>
       <c r="AO1" s="10"/>
       <c r="AP1" s="10"/>
-      <c r="AQ1" s="15" t="s">
+      <c r="AQ1" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="AR1" s="15"/>
-      <c r="AS1" s="15"/>
-      <c r="AT1" s="15"/>
+      <c r="AR1" s="16"/>
+      <c r="AS1" s="16"/>
+      <c r="AT1" s="16"/>
       <c r="AU1" s="9" t="s">
         <v>102</v>
       </c>
@@ -10957,51 +11583,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="18" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="19" t="s">
+      <c r="P1" s="19"/>
+      <c r="Q1" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
       <c r="V1" s="10" t="s">
         <v>97</v>
       </c>
       <c r="W1" s="10"/>
       <c r="X1" s="10"/>
       <c r="Y1" s="10"/>
-      <c r="Z1" s="15" t="s">
+      <c r="Z1" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="16" t="s">
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="16"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
     </row>
     <row r="2" spans="1:33" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -11830,15 +12456,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -11952,21 +12569,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11B8AE49-0AAA-49EF-B236-298E5C42A727}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11982,17 +12600,25 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Spedicato.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Spedicato.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB4570B-A4D2-4596-86B8-3ED1E7D70677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7106CD6-6D9F-495A-838E-5EFAD1766B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$40</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -2365,7 +2365,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="496">
   <si>
     <t>SearchID</t>
   </si>
@@ -3531,9 +3531,6 @@
     <t>Mullus spp</t>
   </si>
   <si>
-    <t>sampling at ports and markets _ % of annual catches</t>
-  </si>
-  <si>
     <t>artisanal gears mainly affect the adult specimens</t>
   </si>
   <si>
@@ -3615,9 +3612,6 @@
     <t>fishing days at sea</t>
   </si>
   <si>
-    <t>fishing gear type _ fleet capacity</t>
-  </si>
-  <si>
     <t>length frequency distribution _ ANOVA _ G-test</t>
   </si>
   <si>
@@ -3798,12 +3792,6 @@
     <t xml:space="preserve">beam trawling leads to shortcuts in trophic relationships and therefore may enhance secondary production. Materials mobilized by beam trawling are rapidly recycled by scavengers. A link between enhanced production rates and trawling is possible. </t>
   </si>
   <si>
-    <t>landings by month</t>
-  </si>
-  <si>
-    <t>monthly variations of the observed landings mainly reflect the changes in species abundance</t>
-  </si>
-  <si>
     <t>catch</t>
   </si>
   <si>
@@ -3825,9 +3813,6 @@
     <t>globally, the demersal domain resulted the most directly impacted by fishing activities (OTB_MDD, OTB_MDDW metiers) especially Merluccius merluccius, Mullus barbatus, Parapenaeus longirostris, Pagellus erythrinus, rays and sharks; negative indirect impact on benthic organisms such as benthic decapods</t>
   </si>
   <si>
-    <t>fishing pressure _ environmental change</t>
-  </si>
-  <si>
     <t>beam trawl fishing</t>
   </si>
   <si>
@@ -3859,6 +3844,15 @@
   </si>
   <si>
     <t xml:space="preserve">While our results must be treated with caution, they are consistent with the hypothesis that there have been widespread long term changes in benthic communities due to fishing. </t>
+  </si>
+  <si>
+    <t>fishing pressure</t>
+  </si>
+  <si>
+    <t>environmental change</t>
+  </si>
+  <si>
+    <t>landings data including size distribution indicating exploitation pattern</t>
   </si>
 </sst>
 </file>
@@ -4333,10 +4327,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX50"/>
+  <dimension ref="A1:AX42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="AW36" sqref="AW36"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4608,7 +4602,7 @@
         <v>265</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="M3" s="11" t="s">
         <v>266</v>
@@ -4644,7 +4638,7 @@
         <v>216</v>
       </c>
       <c r="Z3" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AA3" s="11">
         <v>2</v>
@@ -4656,7 +4650,7 @@
         <v>3</v>
       </c>
       <c r="AD3" s="13" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AF3" s="11">
         <v>4.3</v>
@@ -4686,7 +4680,7 @@
         <v>161</v>
       </c>
       <c r="AO3" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AQ3" s="11" t="s">
         <v>164</v>
@@ -4701,7 +4695,7 @@
         <v>377</v>
       </c>
       <c r="AU3" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AV3" s="11" t="s">
         <v>237</v>
@@ -4748,7 +4742,7 @@
         <v>265</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>266</v>
@@ -4784,7 +4778,7 @@
         <v>216</v>
       </c>
       <c r="Z4" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AA4" s="11">
         <v>2</v>
@@ -4796,7 +4790,7 @@
         <v>3</v>
       </c>
       <c r="AD4" s="13" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AF4" s="11">
         <v>4.3</v>
@@ -4826,7 +4820,7 @@
         <v>161</v>
       </c>
       <c r="AO4" s="11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AQ4" s="11" t="s">
         <v>164</v>
@@ -4841,7 +4835,7 @@
         <v>377</v>
       </c>
       <c r="AU4" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AV4" s="11" t="s">
         <v>237</v>
@@ -4850,7 +4844,7 @@
         <v>208</v>
       </c>
       <c r="AX4" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -4888,7 +4882,7 @@
         <v>274</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="M5" s="11" t="s">
         <v>275</v>
@@ -4960,7 +4954,7 @@
         <v>233</v>
       </c>
       <c r="AO5" s="11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AQ5" s="11" t="s">
         <v>164</v>
@@ -4975,7 +4969,7 @@
         <v>210</v>
       </c>
       <c r="AX5" s="11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -5013,7 +5007,7 @@
         <v>274</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="M6" s="11" t="s">
         <v>275</v>
@@ -5085,13 +5079,13 @@
         <v>233</v>
       </c>
       <c r="AO6" s="11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AQ6" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AU6" s="11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AV6" s="11" t="s">
         <v>205</v>
@@ -5138,7 +5132,7 @@
         <v>274</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>275</v>
@@ -5210,13 +5204,13 @@
         <v>233</v>
       </c>
       <c r="AO7" s="11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AQ7" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AU7" s="11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AV7" s="11" t="s">
         <v>206</v>
@@ -5263,7 +5257,7 @@
         <v>313</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="M8" s="11" t="s">
         <v>314</v>
@@ -5299,7 +5293,7 @@
         <v>69</v>
       </c>
       <c r="Z8" s="11" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="AA8" s="11">
         <v>2</v>
@@ -5335,7 +5329,7 @@
         <v>160</v>
       </c>
       <c r="AO8" s="11" t="s">
-        <v>416</v>
+        <v>495</v>
       </c>
       <c r="AQ8" s="11" t="s">
         <v>164</v>
@@ -5347,16 +5341,16 @@
         <v>175</v>
       </c>
       <c r="AU8" s="11" t="s">
-        <v>477</v>
+        <v>390</v>
       </c>
       <c r="AV8" s="11" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AW8" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AX8" s="11" t="s">
-        <v>478</v>
+        <v>389</v>
       </c>
     </row>
     <row r="9" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -5394,7 +5388,7 @@
         <v>313</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="M9" s="11" t="s">
         <v>314</v>
@@ -5430,7 +5424,7 @@
         <v>69</v>
       </c>
       <c r="Z9" s="11" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="AA9" s="11">
         <v>2</v>
@@ -5466,7 +5460,7 @@
         <v>160</v>
       </c>
       <c r="AO9" s="11" t="s">
-        <v>416</v>
+        <v>495</v>
       </c>
       <c r="AQ9" s="11" t="s">
         <v>164</v>
@@ -5478,16 +5472,16 @@
         <v>175</v>
       </c>
       <c r="AU9" s="11" t="s">
-        <v>477</v>
+        <v>390</v>
       </c>
       <c r="AV9" s="11" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AW9" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AX9" s="11" t="s">
-        <v>478</v>
+        <v>389</v>
       </c>
     </row>
     <row r="10" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -5525,7 +5519,7 @@
         <v>313</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="M10" s="11" t="s">
         <v>314</v>
@@ -5561,7 +5555,7 @@
         <v>69</v>
       </c>
       <c r="Z10" s="11" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="AA10" s="11">
         <v>2</v>
@@ -5597,7 +5591,7 @@
         <v>160</v>
       </c>
       <c r="AO10" s="11" t="s">
-        <v>416</v>
+        <v>495</v>
       </c>
       <c r="AQ10" s="11" t="s">
         <v>164</v>
@@ -5612,16 +5606,16 @@
         <v>386</v>
       </c>
       <c r="AU10" s="11" t="s">
-        <v>477</v>
+        <v>390</v>
       </c>
       <c r="AV10" s="11" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AW10" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AX10" s="11" t="s">
-        <v>478</v>
+        <v>388</v>
       </c>
     </row>
     <row r="11" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -5659,7 +5653,7 @@
         <v>313</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="M11" s="11" t="s">
         <v>314</v>
@@ -5695,7 +5689,7 @@
         <v>69</v>
       </c>
       <c r="Z11" s="11" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="AA11" s="11">
         <v>2</v>
@@ -5731,7 +5725,7 @@
         <v>160</v>
       </c>
       <c r="AO11" s="11" t="s">
-        <v>416</v>
+        <v>495</v>
       </c>
       <c r="AQ11" s="11" t="s">
         <v>164</v>
@@ -5746,16 +5740,16 @@
         <v>386</v>
       </c>
       <c r="AU11" s="11" t="s">
-        <v>477</v>
+        <v>390</v>
       </c>
       <c r="AV11" s="11" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AW11" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AX11" s="11" t="s">
-        <v>478</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -5793,7 +5787,7 @@
         <v>313</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="M12" s="11" t="s">
         <v>314</v>
@@ -5829,7 +5823,7 @@
         <v>69</v>
       </c>
       <c r="Z12" s="11" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="AA12" s="11">
         <v>2</v>
@@ -5865,7 +5859,7 @@
         <v>160</v>
       </c>
       <c r="AO12" s="11" t="s">
-        <v>416</v>
+        <v>495</v>
       </c>
       <c r="AQ12" s="11" t="s">
         <v>164</v>
@@ -5877,16 +5871,16 @@
         <v>175</v>
       </c>
       <c r="AU12" s="11" t="s">
-        <v>477</v>
+        <v>390</v>
       </c>
       <c r="AV12" s="11" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AW12" s="11" t="s">
         <v>209</v>
       </c>
       <c r="AX12" s="11" t="s">
-        <v>478</v>
+        <v>389</v>
       </c>
     </row>
     <row r="13" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -5924,7 +5918,7 @@
         <v>313</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="M13" s="11" t="s">
         <v>314</v>
@@ -5960,7 +5954,7 @@
         <v>69</v>
       </c>
       <c r="Z13" s="11" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="AA13" s="11">
         <v>2</v>
@@ -5996,7 +5990,7 @@
         <v>160</v>
       </c>
       <c r="AO13" s="11" t="s">
-        <v>416</v>
+        <v>495</v>
       </c>
       <c r="AQ13" s="11" t="s">
         <v>164</v>
@@ -6008,16 +6002,16 @@
         <v>175</v>
       </c>
       <c r="AU13" s="11" t="s">
-        <v>477</v>
+        <v>390</v>
       </c>
       <c r="AV13" s="11" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AW13" s="11" t="s">
         <v>209</v>
       </c>
       <c r="AX13" s="11" t="s">
-        <v>478</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -6055,7 +6049,7 @@
         <v>313</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="M14" s="11" t="s">
         <v>314</v>
@@ -6091,7 +6085,7 @@
         <v>69</v>
       </c>
       <c r="Z14" s="11" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="AA14" s="11">
         <v>2</v>
@@ -6127,7 +6121,7 @@
         <v>160</v>
       </c>
       <c r="AO14" s="11" t="s">
-        <v>416</v>
+        <v>495</v>
       </c>
       <c r="AQ14" s="11" t="s">
         <v>164</v>
@@ -6139,16 +6133,16 @@
         <v>188</v>
       </c>
       <c r="AU14" s="11" t="s">
-        <v>477</v>
+        <v>390</v>
       </c>
       <c r="AV14" s="11" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AW14" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AX14" s="11" t="s">
-        <v>478</v>
+        <v>388</v>
       </c>
     </row>
     <row r="15" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -6186,7 +6180,7 @@
         <v>313</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="M15" s="11" t="s">
         <v>314</v>
@@ -6222,7 +6216,7 @@
         <v>69</v>
       </c>
       <c r="Z15" s="11" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="AA15" s="11">
         <v>2</v>
@@ -6258,7 +6252,7 @@
         <v>160</v>
       </c>
       <c r="AO15" s="11" t="s">
-        <v>416</v>
+        <v>495</v>
       </c>
       <c r="AQ15" s="11" t="s">
         <v>164</v>
@@ -6270,57 +6264,57 @@
         <v>189</v>
       </c>
       <c r="AU15" s="11" t="s">
-        <v>477</v>
+        <v>390</v>
       </c>
       <c r="AV15" s="11" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AW15" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AX15" s="11" t="s">
-        <v>478</v>
+        <v>388</v>
       </c>
     </row>
     <row r="16" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="E16" s="11">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>272</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>313</v>
+        <v>252</v>
       </c>
       <c r="L16" s="14" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="N16" s="11" t="s">
         <v>254</v>
@@ -6335,25 +6329,25 @@
         <v>21</v>
       </c>
       <c r="S16" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="T16" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U16" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V16" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="W16" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="X16" s="11" t="s">
         <v>69</v>
       </c>
       <c r="Z16" s="11" t="s">
-        <v>394</v>
+        <v>421</v>
       </c>
       <c r="AA16" s="11">
         <v>2</v>
@@ -6364,6 +6358,9 @@
       <c r="AC16" s="11">
         <v>3</v>
       </c>
+      <c r="AE16" s="11" t="s">
+        <v>416</v>
+      </c>
       <c r="AF16" s="11">
         <v>4.4000000000000004</v>
       </c>
@@ -6374,13 +6371,13 @@
         <v>117</v>
       </c>
       <c r="AI16" s="11" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AK16" s="11" t="s">
         <v>150</v>
       </c>
       <c r="AL16" s="11" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="AM16" s="11" t="s">
         <v>232</v>
@@ -6389,69 +6386,72 @@
         <v>160</v>
       </c>
       <c r="AO16" s="11" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AQ16" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR16" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AS16" s="11" t="s">
-        <v>175</v>
+        <v>177</v>
+      </c>
+      <c r="AT16" s="11" t="s">
+        <v>392</v>
       </c>
       <c r="AU16" s="11" t="s">
-        <v>391</v>
+        <v>475</v>
       </c>
       <c r="AV16" s="11" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="AW16" s="11" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AX16" s="11" t="s">
-        <v>390</v>
+        <v>417</v>
       </c>
     </row>
     <row r="17" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="E17" s="11">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>272</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>459</v>
+        <v>252</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>463</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="N17" s="11" t="s">
         <v>254</v>
@@ -6466,25 +6466,25 @@
         <v>21</v>
       </c>
       <c r="S17" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="T17" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U17" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V17" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="W17" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="X17" s="11" t="s">
         <v>69</v>
       </c>
       <c r="Z17" s="11" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
       <c r="AA17" s="11">
         <v>2</v>
@@ -6495,6 +6495,9 @@
       <c r="AC17" s="11">
         <v>3</v>
       </c>
+      <c r="AE17" s="11" t="s">
+        <v>416</v>
+      </c>
       <c r="AF17" s="11">
         <v>4.4000000000000004</v>
       </c>
@@ -6505,13 +6508,13 @@
         <v>117</v>
       </c>
       <c r="AI17" s="11" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AK17" s="11" t="s">
         <v>150</v>
       </c>
       <c r="AL17" s="11" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="AM17" s="11" t="s">
         <v>232</v>
@@ -6520,7 +6523,7 @@
         <v>160</v>
       </c>
       <c r="AO17" s="11" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AQ17" s="11" t="s">
         <v>164</v>
@@ -6529,60 +6532,63 @@
         <v>240</v>
       </c>
       <c r="AS17" s="11" t="s">
-        <v>175</v>
+        <v>177</v>
+      </c>
+      <c r="AT17" s="11" t="s">
+        <v>392</v>
       </c>
       <c r="AU17" s="11" t="s">
-        <v>391</v>
+        <v>476</v>
       </c>
       <c r="AV17" s="11" t="s">
         <v>200</v>
       </c>
       <c r="AW17" s="11" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AX17" s="11" t="s">
-        <v>390</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="E18" s="11">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>272</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>459</v>
+        <v>252</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>464</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="N18" s="11" t="s">
         <v>254</v>
@@ -6597,19 +6603,19 @@
         <v>21</v>
       </c>
       <c r="S18" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="T18" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U18" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V18" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="W18" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="X18" s="11" t="s">
         <v>69</v>
@@ -6626,97 +6632,97 @@
       <c r="AC18" s="11">
         <v>3</v>
       </c>
+      <c r="AD18" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="AE18" s="11" t="s">
+        <v>416</v>
+      </c>
       <c r="AF18" s="11">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="AG18" s="11" t="s">
         <v>109</v>
       </c>
       <c r="AH18" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AI18" s="11" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="AK18" s="11" t="s">
         <v>150</v>
       </c>
       <c r="AL18" s="11" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="AM18" s="11" t="s">
         <v>232</v>
       </c>
       <c r="AN18" s="11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AO18" s="11" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AQ18" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR18" s="11" t="s">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="AS18" s="11" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="AT18" s="11" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="AU18" s="11" t="s">
-        <v>391</v>
+        <v>477</v>
       </c>
       <c r="AV18" s="11" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="AW18" s="11" t="s">
         <v>210</v>
       </c>
       <c r="AX18" s="11" t="s">
-        <v>389</v>
+        <v>419</v>
       </c>
     </row>
     <row r="19" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
-        <v>306</v>
+        <v>370</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>307</v>
+        <v>371</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>308</v>
+        <v>372</v>
       </c>
       <c r="E19" s="11">
-        <v>1999</v>
+        <v>2019</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>309</v>
+        <v>373</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>310</v>
+        <v>374</v>
       </c>
       <c r="H19" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="I19" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>312</v>
-      </c>
       <c r="K19" s="11" t="s">
-        <v>313</v>
+        <v>375</v>
       </c>
       <c r="L19" s="14" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>314</v>
+        <v>376</v>
       </c>
       <c r="N19" s="11" t="s">
         <v>254</v>
@@ -6725,7 +6731,7 @@
         <v>255</v>
       </c>
       <c r="P19" s="11" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="Q19" s="11" t="s">
         <v>21</v>
@@ -6737,19 +6743,13 @@
         <v>46</v>
       </c>
       <c r="U19" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="V19" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="W19" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="X19" s="11" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="Z19" s="11" t="s">
-        <v>394</v>
+        <v>422</v>
       </c>
       <c r="AA19" s="11">
         <v>2</v>
@@ -6760,23 +6760,23 @@
       <c r="AC19" s="11">
         <v>3</v>
       </c>
+      <c r="AD19" s="11" t="s">
+        <v>431</v>
+      </c>
       <c r="AF19" s="11">
         <v>4.4000000000000004</v>
       </c>
       <c r="AG19" s="11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AH19" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI19" s="11" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="AK19" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AL19" s="11" t="s">
-        <v>386</v>
+        <v>423</v>
       </c>
       <c r="AM19" s="11" t="s">
         <v>232</v>
@@ -6785,72 +6785,63 @@
         <v>160</v>
       </c>
       <c r="AO19" s="11" t="s">
-        <v>416</v>
+        <v>478</v>
       </c>
       <c r="AQ19" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR19" s="11" t="s">
-        <v>197</v>
+        <v>239</v>
       </c>
       <c r="AS19" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="AT19" s="11" t="s">
-        <v>386</v>
+        <v>175</v>
       </c>
       <c r="AU19" s="11" t="s">
-        <v>391</v>
+        <v>479</v>
       </c>
       <c r="AV19" s="11" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="AW19" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX19" s="11" t="s">
-        <v>389</v>
+        <v>207</v>
+      </c>
+      <c r="AX19" s="13" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="20" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
-        <v>306</v>
+        <v>370</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>307</v>
+        <v>371</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>308</v>
+        <v>372</v>
       </c>
       <c r="E20" s="11">
-        <v>1999</v>
+        <v>2019</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>309</v>
+        <v>373</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>310</v>
+        <v>374</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="I20" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>312</v>
-      </c>
       <c r="K20" s="11" t="s">
-        <v>313</v>
+        <v>375</v>
       </c>
       <c r="L20" s="14" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>314</v>
+        <v>376</v>
       </c>
       <c r="N20" s="11" t="s">
         <v>254</v>
@@ -6859,7 +6850,7 @@
         <v>255</v>
       </c>
       <c r="P20" s="11" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="Q20" s="11" t="s">
         <v>21</v>
@@ -6871,19 +6862,13 @@
         <v>46</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="V20" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="W20" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="X20" s="11" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="Z20" s="11" t="s">
-        <v>394</v>
+        <v>422</v>
       </c>
       <c r="AA20" s="11">
         <v>2</v>
@@ -6894,23 +6879,23 @@
       <c r="AC20" s="11">
         <v>3</v>
       </c>
+      <c r="AD20" s="11" t="s">
+        <v>431</v>
+      </c>
       <c r="AF20" s="11">
         <v>4.4000000000000004</v>
       </c>
       <c r="AG20" s="11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AH20" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI20" s="11" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="AK20" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AL20" s="11" t="s">
-        <v>387</v>
+        <v>423</v>
       </c>
       <c r="AM20" s="11" t="s">
         <v>232</v>
@@ -6919,69 +6904,66 @@
         <v>160</v>
       </c>
       <c r="AO20" s="11" t="s">
-        <v>416</v>
+        <v>478</v>
       </c>
       <c r="AQ20" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR20" s="11" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="AS20" s="11" t="s">
-        <v>175</v>
+        <v>192</v>
+      </c>
+      <c r="AT20" s="11" t="s">
+        <v>424</v>
       </c>
       <c r="AU20" s="11" t="s">
-        <v>391</v>
+        <v>479</v>
       </c>
       <c r="AV20" s="11" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="AW20" s="11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AX20" s="11" t="s">
-        <v>390</v>
+        <v>480</v>
       </c>
     </row>
     <row r="21" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
-        <v>306</v>
+        <v>370</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>307</v>
+        <v>371</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>308</v>
+        <v>372</v>
       </c>
       <c r="E21" s="11">
-        <v>1999</v>
+        <v>2019</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>309</v>
+        <v>373</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>310</v>
+        <v>374</v>
       </c>
       <c r="H21" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="I21" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>312</v>
-      </c>
       <c r="K21" s="11" t="s">
-        <v>313</v>
+        <v>375</v>
       </c>
       <c r="L21" s="14" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>314</v>
+        <v>376</v>
       </c>
       <c r="N21" s="11" t="s">
         <v>254</v>
@@ -6990,7 +6972,7 @@
         <v>255</v>
       </c>
       <c r="P21" s="11" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="Q21" s="11" t="s">
         <v>21</v>
@@ -7002,19 +6984,13 @@
         <v>46</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="V21" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="W21" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="X21" s="11" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="Z21" s="11" t="s">
-        <v>394</v>
+        <v>422</v>
       </c>
       <c r="AA21" s="11">
         <v>2</v>
@@ -7025,23 +7001,23 @@
       <c r="AC21" s="11">
         <v>3</v>
       </c>
+      <c r="AD21" s="11" t="s">
+        <v>431</v>
+      </c>
       <c r="AF21" s="11">
         <v>4.4000000000000004</v>
       </c>
       <c r="AG21" s="11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AH21" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI21" s="11" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="AK21" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AL21" s="11" t="s">
-        <v>387</v>
+        <v>423</v>
       </c>
       <c r="AM21" s="11" t="s">
         <v>232</v>
@@ -7050,69 +7026,69 @@
         <v>160</v>
       </c>
       <c r="AO21" s="11" t="s">
-        <v>416</v>
+        <v>478</v>
       </c>
       <c r="AQ21" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR21" s="11" t="s">
-        <v>240</v>
+        <v>169</v>
       </c>
       <c r="AS21" s="11" t="s">
-        <v>175</v>
+        <v>181</v>
+      </c>
+      <c r="AT21" s="11" t="s">
+        <v>424</v>
       </c>
       <c r="AU21" s="11" t="s">
-        <v>391</v>
+        <v>479</v>
       </c>
       <c r="AV21" s="11" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="AW21" s="11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AX21" s="11" t="s">
-        <v>390</v>
+        <v>480</v>
       </c>
     </row>
     <row r="22" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
-        <v>306</v>
+        <v>363</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>307</v>
+        <v>364</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>308</v>
+        <v>365</v>
       </c>
       <c r="E22" s="11">
-        <v>1999</v>
+        <v>2021</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="H22" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="I22" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="I22" s="11" t="s">
-        <v>311</v>
-      </c>
       <c r="J22" s="11" t="s">
-        <v>312</v>
+        <v>367</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>313</v>
+        <v>368</v>
       </c>
       <c r="L22" s="14" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>314</v>
+        <v>369</v>
       </c>
       <c r="N22" s="11" t="s">
         <v>254</v>
@@ -7120,32 +7096,32 @@
       <c r="O22" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="P22" s="11" t="s">
-        <v>252</v>
-      </c>
       <c r="Q22" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S22" s="11" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="T22" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U22" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V22" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="W22" s="11" t="s">
         <v>51</v>
       </c>
       <c r="X22" s="11" t="s">
-        <v>69</v>
+        <v>216</v>
+      </c>
+      <c r="Y22" s="11" t="s">
+        <v>425</v>
       </c>
       <c r="Z22" s="11" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
       <c r="AA22" s="11">
         <v>2</v>
@@ -7156,94 +7132,97 @@
       <c r="AC22" s="11">
         <v>3</v>
       </c>
+      <c r="AD22" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE22" s="11" t="s">
+        <v>433</v>
+      </c>
       <c r="AF22" s="11">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="AG22" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AH22" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI22" s="11" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="AK22" s="11" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="AL22" s="11" t="s">
-        <v>387</v>
+        <v>434</v>
       </c>
       <c r="AM22" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN22" s="11" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO22" s="11" t="s">
-        <v>416</v>
+        <v>429</v>
+      </c>
+      <c r="AP22" s="11" t="s">
+        <v>432</v>
       </c>
       <c r="AQ22" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR22" s="11" t="s">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="AS22" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="AU22" s="11" t="s">
-        <v>391</v>
+        <v>175</v>
+      </c>
+      <c r="AT22" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="AU22" s="12" t="s">
+        <v>437</v>
       </c>
       <c r="AV22" s="11" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="AW22" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AX22" s="11" t="s">
-        <v>389</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
-        <v>306</v>
+        <v>363</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>307</v>
+        <v>364</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>308</v>
+        <v>365</v>
       </c>
       <c r="E23" s="11">
-        <v>1999</v>
+        <v>2021</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="H23" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="I23" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="I23" s="11" t="s">
-        <v>311</v>
-      </c>
       <c r="J23" s="11" t="s">
-        <v>312</v>
+        <v>367</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>313</v>
+        <v>368</v>
       </c>
       <c r="L23" s="14" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>314</v>
+        <v>369</v>
       </c>
       <c r="N23" s="11" t="s">
         <v>254</v>
@@ -7251,32 +7230,32 @@
       <c r="O23" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="P23" s="11" t="s">
-        <v>252</v>
-      </c>
       <c r="Q23" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S23" s="11" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="T23" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U23" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="V23" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="W23" s="11" t="s">
         <v>51</v>
       </c>
       <c r="X23" s="11" t="s">
-        <v>69</v>
+        <v>113</v>
+      </c>
+      <c r="Y23" s="11" t="s">
+        <v>427</v>
       </c>
       <c r="Z23" s="11" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
       <c r="AA23" s="11">
         <v>2</v>
@@ -7287,94 +7266,97 @@
       <c r="AC23" s="11">
         <v>3</v>
       </c>
+      <c r="AD23" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE23" s="11" t="s">
+        <v>433</v>
+      </c>
       <c r="AF23" s="11">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="AG23" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AH23" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI23" s="11" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="AK23" s="11" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="AL23" s="11" t="s">
-        <v>387</v>
+        <v>434</v>
       </c>
       <c r="AM23" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN23" s="11" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO23" s="11" t="s">
-        <v>416</v>
+        <v>429</v>
+      </c>
+      <c r="AP23" s="11" t="s">
+        <v>432</v>
       </c>
       <c r="AQ23" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR23" s="11" t="s">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="AS23" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="AU23" s="11" t="s">
-        <v>391</v>
+        <v>175</v>
+      </c>
+      <c r="AT23" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="AU23" s="12" t="s">
+        <v>437</v>
       </c>
       <c r="AV23" s="11" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="AW23" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AX23" s="11" t="s">
-        <v>389</v>
+        <v>439</v>
       </c>
     </row>
     <row r="24" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
-        <v>315</v>
+        <v>363</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>316</v>
+        <v>364</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>317</v>
+        <v>365</v>
       </c>
       <c r="E24" s="11">
-        <v>1998</v>
+        <v>2021</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>318</v>
+        <v>366</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>272</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>320</v>
+        <v>367</v>
       </c>
       <c r="K24" s="11" t="s">
-        <v>252</v>
+        <v>368</v>
       </c>
       <c r="L24" s="14" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>321</v>
+        <v>369</v>
       </c>
       <c r="N24" s="11" t="s">
         <v>254</v>
@@ -7382,32 +7364,32 @@
       <c r="O24" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="P24" s="11" t="s">
-        <v>252</v>
-      </c>
       <c r="Q24" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S24" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T24" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U24" s="11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="V24" s="11" t="s">
         <v>44</v>
       </c>
       <c r="W24" s="11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="X24" s="11" t="s">
-        <v>69</v>
+        <v>113</v>
+      </c>
+      <c r="Y24" s="11" t="s">
+        <v>427</v>
       </c>
       <c r="Z24" s="11" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="AA24" s="11">
         <v>2</v>
@@ -7418,100 +7400,100 @@
       <c r="AC24" s="11">
         <v>3</v>
       </c>
+      <c r="AD24" s="11" t="s">
+        <v>428</v>
+      </c>
       <c r="AE24" s="11" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="AF24" s="11">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="AG24" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AH24" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI24" s="11" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="AK24" s="11" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="AL24" s="11" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="AM24" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN24" s="11" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO24" s="11" t="s">
-        <v>415</v>
+        <v>429</v>
+      </c>
+      <c r="AP24" s="11" t="s">
+        <v>432</v>
       </c>
       <c r="AQ24" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR24" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AS24" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AT24" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="AU24" s="11" t="s">
-        <v>479</v>
+        <v>430</v>
+      </c>
+      <c r="AU24" s="12" t="s">
+        <v>438</v>
       </c>
       <c r="AV24" s="11" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AW24" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AX24" s="11" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
     </row>
     <row r="25" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
       <c r="E25" s="11">
-        <v>1998</v>
+        <v>1968</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>318</v>
+        <v>246</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>272</v>
+        <v>359</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="L25" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="L25" s="14" t="s">
         <v>465</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>321</v>
+        <v>362</v>
       </c>
       <c r="N25" s="11" t="s">
         <v>254</v>
@@ -7526,25 +7508,25 @@
         <v>21</v>
       </c>
       <c r="S25" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T25" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U25" s="11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V25" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W25" s="11" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="X25" s="11" t="s">
         <v>69</v>
       </c>
       <c r="Z25" s="11" t="s">
-        <v>417</v>
+        <v>440</v>
       </c>
       <c r="AA25" s="11">
         <v>2</v>
@@ -7555,8 +7537,11 @@
       <c r="AC25" s="11">
         <v>3</v>
       </c>
+      <c r="AD25" s="11" t="s">
+        <v>445</v>
+      </c>
       <c r="AE25" s="11" t="s">
-        <v>418</v>
+        <v>441</v>
       </c>
       <c r="AF25" s="11">
         <v>4.4000000000000004</v>
@@ -7568,13 +7553,13 @@
         <v>117</v>
       </c>
       <c r="AI25" s="11" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="AK25" s="11" t="s">
         <v>150</v>
       </c>
       <c r="AL25" s="11" t="s">
-        <v>393</v>
+        <v>442</v>
       </c>
       <c r="AM25" s="11" t="s">
         <v>232</v>
@@ -7583,72 +7568,72 @@
         <v>160</v>
       </c>
       <c r="AO25" s="11" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="AQ25" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR25" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AS25" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AT25" s="11" t="s">
-        <v>393</v>
+        <v>442</v>
       </c>
       <c r="AU25" s="11" t="s">
-        <v>480</v>
+        <v>444</v>
       </c>
       <c r="AV25" s="11" t="s">
         <v>200</v>
       </c>
       <c r="AW25" s="11" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AX25" s="11" t="s">
-        <v>420</v>
+        <v>446</v>
       </c>
     </row>
     <row r="26" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
-        <v>315</v>
+        <v>242</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>316</v>
+        <v>244</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>317</v>
+        <v>245</v>
       </c>
       <c r="E26" s="11">
-        <v>1998</v>
+        <v>2005</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>318</v>
+        <v>246</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>319</v>
+        <v>247</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="L26" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="L26" s="14" t="s">
         <v>466</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>321</v>
+        <v>253</v>
       </c>
       <c r="N26" s="11" t="s">
         <v>254</v>
@@ -7657,31 +7642,28 @@
         <v>255</v>
       </c>
       <c r="P26" s="11" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q26" s="11" t="s">
         <v>21</v>
       </c>
       <c r="S26" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T26" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U26" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="V26" s="11" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="W26" s="11" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="X26" s="11" t="s">
-        <v>69</v>
+        <v>215</v>
       </c>
       <c r="Z26" s="11" t="s">
-        <v>395</v>
+        <v>449</v>
       </c>
       <c r="AA26" s="11">
         <v>2</v>
@@ -7690,99 +7672,99 @@
         <v>2</v>
       </c>
       <c r="AC26" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD26" s="13" t="s">
-        <v>422</v>
-      </c>
-      <c r="AE26" s="11" t="s">
-        <v>418</v>
+        <v>450</v>
       </c>
       <c r="AF26" s="11">
-        <v>4.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AG26" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AH26" s="11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AI26" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK26" s="11" t="s">
         <v>150</v>
       </c>
       <c r="AL26" s="11" t="s">
-        <v>392</v>
+        <v>484</v>
       </c>
       <c r="AM26" s="11" t="s">
         <v>232</v>
       </c>
       <c r="AN26" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO26" s="11" t="s">
-        <v>415</v>
+        <v>493</v>
+      </c>
+      <c r="AP26" s="11" t="s">
+        <v>494</v>
       </c>
       <c r="AQ26" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="AR26" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="AS26" s="11" t="s">
-        <v>177</v>
-      </c>
       <c r="AT26" s="11" t="s">
-        <v>393</v>
+        <v>447</v>
       </c>
       <c r="AU26" s="11" t="s">
-        <v>481</v>
+        <v>448</v>
       </c>
       <c r="AV26" s="11" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="AW26" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AX26" s="11" t="s">
-        <v>421</v>
+        <v>483</v>
       </c>
     </row>
     <row r="27" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
-        <v>370</v>
+        <v>297</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>372</v>
+        <v>299</v>
       </c>
       <c r="E27" s="11">
-        <v>2019</v>
+        <v>1999</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>373</v>
+        <v>300</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>374</v>
+        <v>301</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>272</v>
+        <v>252</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>303</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>375</v>
+        <v>304</v>
       </c>
       <c r="L27" s="14" t="s">
-        <v>462</v>
+        <v>395</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>376</v>
+        <v>305</v>
       </c>
       <c r="N27" s="11" t="s">
         <v>254</v>
@@ -7791,25 +7773,31 @@
         <v>255</v>
       </c>
       <c r="P27" s="11" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="Q27" s="11" t="s">
         <v>21</v>
       </c>
       <c r="S27" s="11" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="T27" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U27" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="V27" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="W27" s="11" t="s">
         <v>56</v>
       </c>
       <c r="X27" s="11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="Z27" s="11" t="s">
-        <v>424</v>
+        <v>396</v>
       </c>
       <c r="AA27" s="11">
         <v>2</v>
@@ -7818,25 +7806,22 @@
         <v>2</v>
       </c>
       <c r="AC27" s="11">
-        <v>3</v>
-      </c>
-      <c r="AD27" s="11" t="s">
-        <v>433</v>
+        <v>2</v>
       </c>
       <c r="AF27" s="11">
         <v>4.4000000000000004</v>
       </c>
       <c r="AG27" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AH27" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
+      </c>
+      <c r="AI27" s="11" t="s">
+        <v>133</v>
       </c>
       <c r="AK27" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL27" s="11" t="s">
-        <v>425</v>
+        <v>150</v>
       </c>
       <c r="AM27" s="11" t="s">
         <v>232</v>
@@ -7845,7 +7830,7 @@
         <v>160</v>
       </c>
       <c r="AO27" s="11" t="s">
-        <v>482</v>
+        <v>397</v>
       </c>
       <c r="AQ27" s="11" t="s">
         <v>164</v>
@@ -7857,51 +7842,57 @@
         <v>175</v>
       </c>
       <c r="AU27" s="11" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="AV27" s="11" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="AW27" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX27" s="13" t="s">
-        <v>485</v>
+        <v>209</v>
+      </c>
+      <c r="AX27" s="11" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="28" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
-        <v>370</v>
+        <v>297</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>372</v>
+        <v>299</v>
       </c>
       <c r="E28" s="11">
-        <v>2019</v>
+        <v>1999</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>373</v>
+        <v>300</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>374</v>
+        <v>301</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>272</v>
+        <v>252</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>303</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>375</v>
+        <v>304</v>
       </c>
       <c r="L28" s="14" t="s">
-        <v>469</v>
+        <v>395</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>376</v>
+        <v>305</v>
       </c>
       <c r="N28" s="11" t="s">
         <v>254</v>
@@ -7910,25 +7901,31 @@
         <v>255</v>
       </c>
       <c r="P28" s="11" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="Q28" s="11" t="s">
         <v>21</v>
       </c>
       <c r="S28" s="11" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="T28" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U28" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="V28" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="W28" s="11" t="s">
         <v>56</v>
       </c>
       <c r="X28" s="11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="Z28" s="11" t="s">
-        <v>424</v>
+        <v>396</v>
       </c>
       <c r="AA28" s="11">
         <v>2</v>
@@ -7937,25 +7934,25 @@
         <v>2</v>
       </c>
       <c r="AC28" s="11">
-        <v>3</v>
-      </c>
-      <c r="AD28" s="11" t="s">
-        <v>433</v>
+        <v>2</v>
       </c>
       <c r="AF28" s="11">
         <v>4.4000000000000004</v>
       </c>
       <c r="AG28" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AH28" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
+      </c>
+      <c r="AI28" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ28" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="AK28" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL28" s="11" t="s">
-        <v>425</v>
+        <v>150</v>
       </c>
       <c r="AM28" s="11" t="s">
         <v>232</v>
@@ -7964,66 +7961,69 @@
         <v>160</v>
       </c>
       <c r="AO28" s="11" t="s">
-        <v>482</v>
+        <v>397</v>
       </c>
       <c r="AQ28" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR28" s="11" t="s">
-        <v>197</v>
+        <v>239</v>
       </c>
       <c r="AS28" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="AT28" s="11" t="s">
-        <v>426</v>
+        <v>175</v>
       </c>
       <c r="AU28" s="11" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="AV28" s="11" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="AW28" s="11" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AX28" s="11" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
     </row>
     <row r="29" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
-        <v>370</v>
+        <v>331</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>372</v>
+        <v>333</v>
       </c>
       <c r="E29" s="11">
-        <v>2019</v>
+        <v>1996</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>373</v>
+        <v>246</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>374</v>
+        <v>334</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>272</v>
+        <v>262</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>336</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="L29" s="14" t="s">
-        <v>470</v>
+        <v>337</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>398</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>376</v>
+        <v>338</v>
       </c>
       <c r="N29" s="11" t="s">
         <v>254</v>
@@ -8032,25 +8032,31 @@
         <v>255</v>
       </c>
       <c r="P29" s="11" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="Q29" s="11" t="s">
         <v>21</v>
       </c>
       <c r="S29" s="11" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="T29" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U29" s="11" t="s">
-        <v>56</v>
+        <v>59</v>
+      </c>
+      <c r="V29" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="W29" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="X29" s="11" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="Z29" s="11" t="s">
-        <v>424</v>
+        <v>399</v>
       </c>
       <c r="AA29" s="11">
         <v>2</v>
@@ -8061,23 +8067,17 @@
       <c r="AC29" s="11">
         <v>3</v>
       </c>
-      <c r="AD29" s="11" t="s">
-        <v>433</v>
-      </c>
       <c r="AF29" s="11">
         <v>4.4000000000000004</v>
       </c>
       <c r="AG29" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AH29" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK29" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL29" s="11" t="s">
-        <v>425</v>
+        <v>117</v>
+      </c>
+      <c r="AI29" s="11" t="s">
+        <v>144</v>
       </c>
       <c r="AM29" s="11" t="s">
         <v>232</v>
@@ -8086,69 +8086,66 @@
         <v>160</v>
       </c>
       <c r="AO29" s="11" t="s">
-        <v>482</v>
+        <v>485</v>
+      </c>
+      <c r="AP29" s="11" t="s">
+        <v>486</v>
       </c>
       <c r="AQ29" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="AR29" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="AS29" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="AT29" s="11" t="s">
-        <v>426</v>
-      </c>
       <c r="AU29" s="11" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="AV29" s="11" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="AW29" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX29" s="11" t="s">
-        <v>484</v>
+        <v>208</v>
+      </c>
+      <c r="AX29" s="13" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="30" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="E30" s="11">
-        <v>2021</v>
+        <v>1996</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>366</v>
+        <v>246</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>249</v>
+        <v>334</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>262</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>272</v>
+        <v>335</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="L30" s="14" t="s">
-        <v>463</v>
+        <v>337</v>
+      </c>
+      <c r="L30" s="15" t="s">
+        <v>398</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>369</v>
+        <v>338</v>
       </c>
       <c r="N30" s="11" t="s">
         <v>254</v>
@@ -8156,8 +8153,11 @@
       <c r="O30" s="11" t="s">
         <v>255</v>
       </c>
+      <c r="P30" s="11" t="s">
+        <v>256</v>
+      </c>
       <c r="Q30" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S30" s="11" t="s">
         <v>24</v>
@@ -8166,22 +8166,19 @@
         <v>46</v>
       </c>
       <c r="U30" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V30" s="11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="W30" s="11" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="X30" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y30" s="11" t="s">
-        <v>427</v>
+        <v>69</v>
       </c>
       <c r="Z30" s="11" t="s">
-        <v>438</v>
+        <v>399</v>
       </c>
       <c r="AA30" s="11">
         <v>2</v>
@@ -8192,97 +8189,85 @@
       <c r="AC30" s="11">
         <v>3</v>
       </c>
-      <c r="AD30" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="AE30" s="11" t="s">
-        <v>435</v>
-      </c>
       <c r="AF30" s="11">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AG30" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH30" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK30" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="AL30" s="11" t="s">
-        <v>436</v>
+        <v>117</v>
+      </c>
+      <c r="AI30" s="11" t="s">
+        <v>144</v>
       </c>
       <c r="AM30" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN30" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="AO30" s="11" t="s">
-        <v>431</v>
+        <v>485</v>
       </c>
       <c r="AP30" s="11" t="s">
-        <v>434</v>
+        <v>486</v>
       </c>
       <c r="AQ30" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="AR30" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS30" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT30" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="AU30" s="12" t="s">
-        <v>439</v>
+      <c r="AU30" s="11" t="s">
+        <v>490</v>
       </c>
       <c r="AV30" s="11" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="AW30" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="AX30" s="11" t="s">
-        <v>441</v>
+      <c r="AX30" s="13" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="31" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="E31" s="11">
-        <v>2021</v>
+        <v>1996</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>366</v>
+        <v>246</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>249</v>
+        <v>334</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>262</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>272</v>
+        <v>335</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="K31" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="L31" s="14" t="s">
-        <v>471</v>
+        <v>337</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>398</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>369</v>
+        <v>338</v>
       </c>
       <c r="N31" s="11" t="s">
         <v>254</v>
@@ -8290,8 +8275,11 @@
       <c r="O31" s="11" t="s">
         <v>255</v>
       </c>
+      <c r="P31" s="11" t="s">
+        <v>256</v>
+      </c>
       <c r="Q31" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S31" s="11" t="s">
         <v>24</v>
@@ -8300,22 +8288,19 @@
         <v>46</v>
       </c>
       <c r="U31" s="11" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="V31" s="11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="W31" s="11" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="X31" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y31" s="11" t="s">
-        <v>429</v>
+        <v>69</v>
       </c>
       <c r="Z31" s="11" t="s">
-        <v>438</v>
+        <v>399</v>
       </c>
       <c r="AA31" s="11">
         <v>2</v>
@@ -8326,50 +8311,35 @@
       <c r="AC31" s="11">
         <v>3</v>
       </c>
-      <c r="AD31" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="AE31" s="11" t="s">
-        <v>435</v>
-      </c>
       <c r="AF31" s="11">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AG31" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH31" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK31" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="AL31" s="11" t="s">
-        <v>436</v>
+        <v>117</v>
+      </c>
+      <c r="AI31" s="11" t="s">
+        <v>144</v>
       </c>
       <c r="AM31" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN31" s="11" t="s">
+        <v>160</v>
       </c>
       <c r="AO31" s="11" t="s">
-        <v>431</v>
+        <v>485</v>
       </c>
       <c r="AP31" s="11" t="s">
-        <v>434</v>
+        <v>486</v>
       </c>
       <c r="AQ31" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="AR31" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS31" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT31" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="AU31" s="12" t="s">
-        <v>439</v>
+      <c r="AU31" s="11" t="s">
+        <v>490</v>
       </c>
       <c r="AV31" s="11" t="s">
         <v>206</v>
@@ -8377,46 +8347,49 @@
       <c r="AW31" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="AX31" s="11" t="s">
-        <v>441</v>
+      <c r="AX31" s="13" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="32" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="E32" s="11">
-        <v>2021</v>
+        <v>1996</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>366</v>
+        <v>246</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>249</v>
+        <v>334</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>262</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>272</v>
+        <v>335</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="L32" s="14" t="s">
-        <v>472</v>
+        <v>337</v>
+      </c>
+      <c r="L32" s="15" t="s">
+        <v>398</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>369</v>
+        <v>338</v>
       </c>
       <c r="N32" s="11" t="s">
         <v>254</v>
@@ -8424,8 +8397,11 @@
       <c r="O32" s="11" t="s">
         <v>255</v>
       </c>
+      <c r="P32" s="11" t="s">
+        <v>256</v>
+      </c>
       <c r="Q32" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S32" s="11" t="s">
         <v>24</v>
@@ -8434,22 +8410,19 @@
         <v>46</v>
       </c>
       <c r="U32" s="11" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="V32" s="11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="W32" s="11" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="X32" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y32" s="11" t="s">
-        <v>429</v>
+        <v>69</v>
       </c>
       <c r="Z32" s="11" t="s">
-        <v>438</v>
+        <v>399</v>
       </c>
       <c r="AA32" s="11">
         <v>2</v>
@@ -8460,50 +8433,35 @@
       <c r="AC32" s="11">
         <v>3</v>
       </c>
-      <c r="AD32" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="AE32" s="11" t="s">
-        <v>435</v>
-      </c>
       <c r="AF32" s="11">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AG32" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH32" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK32" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="AL32" s="11" t="s">
-        <v>436</v>
+        <v>117</v>
+      </c>
+      <c r="AI32" s="11" t="s">
+        <v>144</v>
       </c>
       <c r="AM32" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN32" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="AO32" s="11" t="s">
-        <v>431</v>
+        <v>485</v>
       </c>
       <c r="AP32" s="11" t="s">
-        <v>434</v>
+        <v>486</v>
       </c>
       <c r="AQ32" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="AR32" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS32" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT32" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="AU32" s="12" t="s">
-        <v>440</v>
+      <c r="AU32" s="11" t="s">
+        <v>490</v>
       </c>
       <c r="AV32" s="11" t="s">
         <v>206</v>
@@ -8511,49 +8469,49 @@
       <c r="AW32" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="AX32" s="11" t="s">
-        <v>437</v>
+      <c r="AX32" s="13" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="33" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="E33" s="11">
-        <v>1968</v>
+        <v>1996</v>
       </c>
       <c r="F33" s="11" t="s">
         <v>246</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="L33" s="14" t="s">
-        <v>467</v>
+        <v>337</v>
+      </c>
+      <c r="L33" s="11" t="s">
+        <v>398</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="N33" s="11" t="s">
         <v>254</v>
@@ -8562,7 +8520,7 @@
         <v>255</v>
       </c>
       <c r="P33" s="11" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q33" s="11" t="s">
         <v>21</v>
@@ -8577,7 +8535,7 @@
         <v>59</v>
       </c>
       <c r="V33" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W33" s="11" t="s">
         <v>55</v>
@@ -8586,7 +8544,7 @@
         <v>69</v>
       </c>
       <c r="Z33" s="11" t="s">
-        <v>442</v>
+        <v>399</v>
       </c>
       <c r="AA33" s="11">
         <v>2</v>
@@ -8597,12 +8555,6 @@
       <c r="AC33" s="11">
         <v>3</v>
       </c>
-      <c r="AD33" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="AE33" s="11" t="s">
-        <v>443</v>
-      </c>
       <c r="AF33" s="11">
         <v>4.4000000000000004</v>
       </c>
@@ -8613,13 +8565,7 @@
         <v>117</v>
       </c>
       <c r="AI33" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK33" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL33" s="11" t="s">
-        <v>444</v>
+        <v>144</v>
       </c>
       <c r="AM33" s="11" t="s">
         <v>232</v>
@@ -8628,72 +8574,66 @@
         <v>160</v>
       </c>
       <c r="AO33" s="11" t="s">
-        <v>445</v>
+        <v>485</v>
+      </c>
+      <c r="AP33" s="11" t="s">
+        <v>486</v>
       </c>
       <c r="AQ33" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="AR33" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS33" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT33" s="11" t="s">
-        <v>444</v>
-      </c>
       <c r="AU33" s="11" t="s">
-        <v>446</v>
+        <v>488</v>
       </c>
       <c r="AV33" s="11" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AW33" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX33" s="11" t="s">
-        <v>448</v>
+        <v>209</v>
+      </c>
+      <c r="AX33" s="13" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="34" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
-        <v>242</v>
+        <v>331</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>244</v>
+        <v>332</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>245</v>
+        <v>333</v>
       </c>
       <c r="E34" s="11">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>246</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>247</v>
+        <v>334</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>249</v>
+        <v>335</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>250</v>
+        <v>336</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="L34" s="14" t="s">
-        <v>468</v>
+        <v>337</v>
+      </c>
+      <c r="L34" s="15" t="s">
+        <v>398</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="N34" s="11" t="s">
         <v>254</v>
@@ -8716,14 +8656,17 @@
       <c r="U34" s="11" t="s">
         <v>59</v>
       </c>
+      <c r="V34" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="W34" s="11" t="s">
         <v>55</v>
       </c>
       <c r="X34" s="11" t="s">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="Z34" s="11" t="s">
-        <v>451</v>
+        <v>399</v>
       </c>
       <c r="AA34" s="11">
         <v>2</v>
@@ -8732,96 +8675,87 @@
         <v>2</v>
       </c>
       <c r="AC34" s="11">
-        <v>1</v>
-      </c>
-      <c r="AD34" s="13" t="s">
-        <v>452</v>
+        <v>3</v>
       </c>
       <c r="AF34" s="11">
         <v>4.4000000000000004</v>
       </c>
       <c r="AG34" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH34" s="11" t="s">
         <v>117</v>
       </c>
       <c r="AI34" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="AK34" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL34" s="11" t="s">
-        <v>489</v>
+        <v>144</v>
       </c>
       <c r="AM34" s="11" t="s">
         <v>232</v>
       </c>
       <c r="AN34" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO34" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="AP34" s="11" t="s">
         <v>486</v>
       </c>
       <c r="AQ34" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="AT34" s="11" t="s">
-        <v>449</v>
-      </c>
       <c r="AU34" s="11" t="s">
-        <v>450</v>
+        <v>488</v>
       </c>
       <c r="AV34" s="11" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AW34" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX34" s="11" t="s">
-        <v>488</v>
+        <v>209</v>
+      </c>
+      <c r="AX34" s="13" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="35" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
-        <v>297</v>
+        <v>347</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>298</v>
+        <v>348</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>299</v>
+        <v>349</v>
       </c>
       <c r="E35" s="11">
-        <v>1999</v>
+        <v>1981</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="H35" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="K35" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="I35" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="J35" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="K35" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="L35" s="14" t="s">
-        <v>396</v>
+      <c r="L35" s="11" t="s">
+        <v>400</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>305</v>
+        <v>354</v>
       </c>
       <c r="N35" s="11" t="s">
         <v>254</v>
@@ -8830,64 +8764,58 @@
         <v>255</v>
       </c>
       <c r="P35" s="11" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Q35" s="11" t="s">
         <v>21</v>
       </c>
       <c r="S35" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T35" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U35" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V35" s="11" t="s">
         <v>46</v>
       </c>
       <c r="W35" s="11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="X35" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="Z35" s="11" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="AA35" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB35" s="11">
         <v>2</v>
       </c>
       <c r="AC35" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF35" s="11">
         <v>4.4000000000000004</v>
       </c>
       <c r="AG35" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AH35" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI35" s="11" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="AK35" s="11" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="AM35" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN35" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AO35" s="11" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="AQ35" s="11" t="s">
         <v>164</v>
@@ -8898,64 +8826,67 @@
       <c r="AS35" s="11" t="s">
         <v>175</v>
       </c>
+      <c r="AT35" s="11" t="s">
+        <v>403</v>
+      </c>
       <c r="AU35" s="11" t="s">
-        <v>496</v>
+        <v>404</v>
       </c>
       <c r="AV35" s="11" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="AW35" s="11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AX35" s="11" t="s">
-        <v>497</v>
+        <v>405</v>
       </c>
     </row>
     <row r="36" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="E36" s="11">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>252</v>
+        <v>291</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="K36" s="11" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="L36" s="14" t="s">
-        <v>396</v>
+        <v>471</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="N36" s="11" t="s">
         <v>254</v>
       </c>
       <c r="O36" s="11" t="s">
-        <v>255</v>
+        <v>296</v>
       </c>
       <c r="P36" s="11" t="s">
         <v>256</v>
@@ -8969,20 +8900,14 @@
       <c r="T36" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="U36" s="11" t="s">
-        <v>59</v>
-      </c>
       <c r="V36" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="W36" s="11" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="X36" s="11" t="s">
-        <v>75</v>
+        <v>216</v>
       </c>
       <c r="Z36" s="11" t="s">
-        <v>397</v>
+        <v>452</v>
       </c>
       <c r="AA36" s="11">
         <v>2</v>
@@ -8991,13 +8916,16 @@
         <v>2</v>
       </c>
       <c r="AC36" s="11">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="AD36" s="13" t="s">
+        <v>474</v>
       </c>
       <c r="AF36" s="11">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="AG36" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AH36" s="11" t="s">
         <v>120</v>
@@ -9012,13 +8940,10 @@
         <v>150</v>
       </c>
       <c r="AM36" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN36" s="11" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO36" s="11" t="s">
-        <v>398</v>
+        <v>482</v>
       </c>
       <c r="AQ36" s="11" t="s">
         <v>164</v>
@@ -9027,66 +8952,69 @@
         <v>239</v>
       </c>
       <c r="AS36" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AT36" s="11" t="s">
+        <v>130</v>
       </c>
       <c r="AU36" s="11" t="s">
-        <v>496</v>
+        <v>454</v>
       </c>
       <c r="AV36" s="11" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AW36" s="11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AX36" s="11" t="s">
-        <v>497</v>
+        <v>453</v>
       </c>
     </row>
     <row r="37" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
-        <v>331</v>
+        <v>287</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>333</v>
+        <v>289</v>
       </c>
       <c r="E37" s="11">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="F37" s="11" t="s">
         <v>246</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>334</v>
+        <v>290</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>336</v>
+        <v>293</v>
       </c>
       <c r="K37" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="L37" s="11" t="s">
-        <v>399</v>
+        <v>294</v>
+      </c>
+      <c r="L37" s="14" t="s">
+        <v>473</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>338</v>
+        <v>295</v>
       </c>
       <c r="N37" s="11" t="s">
         <v>254</v>
       </c>
       <c r="O37" s="11" t="s">
-        <v>255</v>
+        <v>296</v>
       </c>
       <c r="P37" s="11" t="s">
         <v>256</v>
@@ -9100,20 +9028,14 @@
       <c r="T37" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="U37" s="11" t="s">
-        <v>59</v>
-      </c>
       <c r="V37" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="W37" s="11" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="X37" s="11" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="Z37" s="11" t="s">
-        <v>400</v>
+        <v>452</v>
       </c>
       <c r="AA37" s="11">
         <v>2</v>
@@ -9124,85 +9046,97 @@
       <c r="AC37" s="11">
         <v>3</v>
       </c>
+      <c r="AD37" s="11" t="s">
+        <v>451</v>
+      </c>
       <c r="AF37" s="11">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="AG37" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AH37" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AI37" s="11" t="s">
-        <v>144</v>
+        <v>140</v>
+      </c>
+      <c r="AJ37" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK37" s="11" t="s">
+        <v>150</v>
       </c>
       <c r="AM37" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN37" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AO37" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="AP37" s="11" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="AQ37" s="11" t="s">
         <v>164</v>
       </c>
+      <c r="AR37" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS37" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="AT37" s="11" t="s">
+        <v>130</v>
+      </c>
       <c r="AU37" s="11" t="s">
-        <v>495</v>
+        <v>454</v>
       </c>
       <c r="AV37" s="11" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AW37" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX37" s="13" t="s">
-        <v>492</v>
+        <v>207</v>
+      </c>
+      <c r="AX37" s="11" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="38" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
-        <v>331</v>
+        <v>276</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>332</v>
+        <v>277</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="E38" s="11">
-        <v>1996</v>
+        <v>2002</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>334</v>
+        <v>280</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>335</v>
+        <v>282</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>336</v>
+        <v>283</v>
       </c>
       <c r="K38" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="L38" s="15" t="s">
-        <v>399</v>
+        <v>284</v>
+      </c>
+      <c r="L38" s="14" t="s">
+        <v>472</v>
       </c>
       <c r="M38" s="11" t="s">
-        <v>338</v>
+        <v>285</v>
       </c>
       <c r="N38" s="11" t="s">
         <v>254</v>
@@ -9211,242 +9145,106 @@
         <v>255</v>
       </c>
       <c r="P38" s="11" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="Q38" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S38" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="T38" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="U38" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="V38" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="W38" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="X38" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z38" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="AA38" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB38" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC38" s="11">
-        <v>3</v>
-      </c>
-      <c r="AF38" s="11">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG38" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH38" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI38" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM38" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN38" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="AO38" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="AP38" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="AQ38" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AU38" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="AV38" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="AW38" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX38" s="13" t="s">
-        <v>492</v>
+      <c r="R38" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="E39" s="11">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>246</v>
+        <v>325</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="K39" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="L39" s="11" t="s">
-        <v>399</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="L39" s="14"/>
       <c r="M39" s="11" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="N39" s="11" t="s">
-        <v>254</v>
+        <v>330</v>
       </c>
       <c r="O39" s="11" t="s">
         <v>255</v>
       </c>
       <c r="P39" s="11" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Q39" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S39" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="T39" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="U39" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="V39" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="W39" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="X39" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z39" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="AA39" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB39" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC39" s="11">
-        <v>3</v>
-      </c>
-      <c r="AF39" s="11">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG39" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH39" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI39" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM39" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN39" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO39" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="AP39" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="AQ39" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AU39" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="AV39" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="AW39" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX39" s="13" t="s">
-        <v>492</v>
+      <c r="R39" s="11" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="E40" s="11">
-        <v>1996</v>
+        <v>1990</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>246</v>
+        <v>342</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>262</v>
+        <v>343</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="K40" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="L40" s="15" t="s">
-        <v>399</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="L40" s="14"/>
       <c r="M40" s="11" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="N40" s="11" t="s">
         <v>254</v>
@@ -9455,872 +9253,17 @@
         <v>255</v>
       </c>
       <c r="P40" s="11" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Q40" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S40" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="T40" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="U40" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="V40" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="W40" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="X40" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z40" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="AA40" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB40" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC40" s="11">
-        <v>3</v>
-      </c>
-      <c r="AF40" s="11">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG40" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH40" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI40" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM40" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN40" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="AO40" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="AP40" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="AQ40" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AU40" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="AV40" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="AW40" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX40" s="13" t="s">
-        <v>492</v>
+      <c r="R40" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="E41" s="11">
-        <v>1996</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="I41" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="J41" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="K41" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="L41" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="M41" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="N41" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="O41" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="P41" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q41" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="S41" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="T41" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="U41" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="V41" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="W41" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="X41" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z41" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="AA41" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB41" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC41" s="11">
-        <v>3</v>
-      </c>
-      <c r="AF41" s="11">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG41" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH41" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI41" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM41" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN41" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO41" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="AP41" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="AQ41" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AU41" s="11" t="s">
-        <v>493</v>
-      </c>
-      <c r="AV41" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="AW41" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX41" s="13" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="42" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="E42" s="11">
-        <v>1996</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="I42" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="J42" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="K42" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="L42" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="M42" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="N42" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="O42" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="P42" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q42" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="S42" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="T42" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="U42" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="V42" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="W42" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="X42" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z42" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="AA42" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB42" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC42" s="11">
-        <v>3</v>
-      </c>
-      <c r="AF42" s="11">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG42" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH42" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI42" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM42" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN42" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="AO42" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="AP42" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="AQ42" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AU42" s="11" t="s">
-        <v>493</v>
-      </c>
-      <c r="AV42" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="AW42" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX42" s="13" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="43" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="E43" s="11">
-        <v>1981</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="I43" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="J43" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="K43" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="L43" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="M43" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="N43" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="O43" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="P43" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q43" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="S43" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="T43" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="U43" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="V43" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="W43" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="X43" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z43" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="AA43" s="11">
-        <v>1</v>
-      </c>
-      <c r="AB43" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC43" s="11">
-        <v>1</v>
-      </c>
-      <c r="AF43" s="11">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG43" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH43" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="AK43" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="AM43" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO43" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="AQ43" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR43" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS43" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT43" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="AU43" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="AV43" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="AW43" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX43" s="11" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="44" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="E44" s="11">
-        <v>2000</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="J44" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="K44" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="L44" s="14" t="s">
-        <v>473</v>
-      </c>
-      <c r="M44" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="N44" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="O44" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="P44" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q44" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="S44" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="T44" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="V44" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="X44" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z44" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="AA44" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB44" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC44" s="11">
-        <v>3</v>
-      </c>
-      <c r="AD44" s="13" t="s">
-        <v>476</v>
-      </c>
-      <c r="AF44" s="11">
-        <v>4.3</v>
-      </c>
-      <c r="AG44" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH44" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI44" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ44" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK44" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="AM44" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO44" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="AQ44" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR44" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS44" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="AT44" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU44" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="AV44" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="AW44" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX44" s="11" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="45" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="E45" s="11">
-        <v>2000</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="I45" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="J45" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="K45" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="L45" s="14" t="s">
-        <v>475</v>
-      </c>
-      <c r="M45" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="N45" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="O45" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="P45" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q45" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="S45" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="T45" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="V45" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="X45" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z45" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="AA45" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB45" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC45" s="11">
-        <v>3</v>
-      </c>
-      <c r="AD45" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="AF45" s="11">
-        <v>4.3</v>
-      </c>
-      <c r="AG45" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH45" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI45" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ45" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK45" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="AM45" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO45" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="AQ45" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR45" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS45" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="AT45" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU45" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="AV45" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="AW45" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX45" s="11" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="46" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="E46" s="11">
-        <v>2002</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="J46" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="K46" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="L46" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="M46" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="N46" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="O46" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="P46" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q46" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="R46" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="47" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="E47" s="11">
-        <v>1997</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="I47" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="J47" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="K47" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="L47" s="14"/>
-      <c r="M47" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="N47" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="O47" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="P47" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q47" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="R47" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="48" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E48" s="11">
-        <v>1990</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="I48" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="J48" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="K48" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="L48" s="14"/>
-      <c r="M48" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="N48" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="O48" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="P48" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q48" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="R48" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="50" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="AQ1:AT1"/>
@@ -10332,43 +9275,42 @@
     <mergeCell ref="AM1:AP1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="P8:P33 P47:P1048576 Q46 Q3:Q7 P35:P45 Q34" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="P39:P1048576 Q38 Q3:Q7 P27:P37 Q26 P8:P25" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Ecosystem_component</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Fishery_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR3:AS1048576 AI3:AJ1048576 AN3:AN1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN3:AN1048576 AI3:AJ1048576 AR3:AS1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>INDIRECT(AH3)</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="L36" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L28" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="L3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="L4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="L5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="L6:L7" r:id="rId5" display="https://doi.org/10.1007/s002270100688" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="L8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="L9:L23" r:id="rId7" display="https://doi.org/10.1046/j.1439-0426.1999.00125.x" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="L24" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="L27" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="L28:L29" r:id="rId10" display="https://doi.org/10.1371/journal.pone.0210659" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="L30" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="L31:L32" r:id="rId12" display="https://doi.org/10.3354/meps13790" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="L33" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="L34" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="L44" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="L45" r:id="rId16" display="https://doi.org/10.1006/jmsc.2000.0914" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="L46" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="L42" r:id="rId18" xr:uid="{249D99DC-8FDE-4B7C-8210-589AFBDB12B3}"/>
-    <hyperlink ref="L40" r:id="rId19" xr:uid="{D8151F68-4EF7-4EC6-825F-FCF3CF6108BA}"/>
-    <hyperlink ref="L38" r:id="rId20" xr:uid="{65B82A21-4210-4657-A157-C1EECA27124D}"/>
-    <hyperlink ref="L35" r:id="rId21" xr:uid="{0A279379-C0CA-424C-86BC-A4F5C9068401}"/>
+    <hyperlink ref="L8:L15" r:id="rId6" display="https://doi.org/10.1046/j.1439-0426.1999.00125.x" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="L16" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="L19" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="L20:L21" r:id="rId9" display="https://doi.org/10.1371/journal.pone.0210659" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="L22" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="L23:L24" r:id="rId11" display="https://doi.org/10.3354/meps13790" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="L25" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="L26" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="L36" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="L37" r:id="rId15" display="https://doi.org/10.1006/jmsc.2000.0914" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="L38" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="L34" r:id="rId17" xr:uid="{249D99DC-8FDE-4B7C-8210-589AFBDB12B3}"/>
+    <hyperlink ref="L32" r:id="rId18" xr:uid="{D8151F68-4EF7-4EC6-825F-FCF3CF6108BA}"/>
+    <hyperlink ref="L30" r:id="rId19" xr:uid="{65B82A21-4210-4657-A157-C1EECA27124D}"/>
+    <hyperlink ref="L27" r:id="rId20" xr:uid="{0A279379-C0CA-424C-86BC-A4F5C9068401}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId22"/>
-  <legacyDrawing r:id="rId23"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId21"/>
+  <legacyDrawing r:id="rId22"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
@@ -12456,8 +11398,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="125e2131eddd38cce17ebc9527d7a9d7">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="553f2d8843fd2aa64b81f9e8c63a6619">
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -12569,23 +11526,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11B8AE49-0AAA-49EF-B236-298E5C42A727}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67B186BC-E729-4665-8BD9-5109664A2B02}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -12598,27 +11563,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Spedicato.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Spedicato.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7106CD6-6D9F-495A-838E-5EFAD1766B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8692B39-A685-4446-BB64-2DAE9A2A45FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$50</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -2365,7 +2365,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2380" uniqueCount="506">
   <si>
     <t>SearchID</t>
   </si>
@@ -3501,9 +3501,6 @@
     <t>Chamelea gallina</t>
   </si>
   <si>
-    <t>the use of high-pressure water jets and mechanized sorting, significantly increase the physical impact of dredging on clam shells and survival.</t>
-  </si>
-  <si>
     <t>Nematodes</t>
   </si>
   <si>
@@ -3594,12 +3591,6 @@
     <t>Kaplan and Meier _ ANOVA _ Gehan’s Wilcoxon</t>
   </si>
   <si>
-    <t>survival _ physiological biomarkers _ cellular responses _ shell damage</t>
-  </si>
-  <si>
-    <t>the use of low-pressure water jets and no sorting had a lower physical impact of dredging on clam shells and survival.</t>
-  </si>
-  <si>
     <t>Margalef species richness</t>
   </si>
   <si>
@@ -3853,6 +3844,45 @@
   </si>
   <si>
     <t>landings data including size distribution indicating exploitation pattern</t>
+  </si>
+  <si>
+    <t>survival</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The survival in air of the HP stressed clams was significantly lower (P&lt;0.001) only in October, whereas in June the LT50 values were the same (5 d) for both HP and LP clams. </t>
+  </si>
+  <si>
+    <t>season</t>
+  </si>
+  <si>
+    <t>filtration rate</t>
+  </si>
+  <si>
+    <t>In both months, a decrease in the filtering activity of HP dredged clams with respect to LP ones was observed.</t>
+  </si>
+  <si>
+    <t>respiration rate</t>
+  </si>
+  <si>
+    <t>The respiration rate exhibited more constant values. No significant differences were observed between HP and LP samples, although an increase (27%) was detected in June in HP clams.</t>
+  </si>
+  <si>
+    <t>scope for growth</t>
+  </si>
+  <si>
+    <t>In June, the scope for growth (SFG) of LP clams was significantly higher (P&lt;0.05), whereas in October SFG measures became negative, the lower value being observed in HP clams (Figure 1C). Nevertheless, for this month the difierence was not significant.</t>
+  </si>
+  <si>
+    <t>cellular reponses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The haematocrit value and phagocytic index significantly decreased in HP samples, revealing a detrimental effect on mechanisms of immunological defence. Acid phosphatase and b-glucuronidase activity was also affected by increasing mechanical stress, even though an opposite trend was shown in the two investigated enzymes. </t>
+  </si>
+  <si>
+    <t>damage index</t>
+  </si>
+  <si>
+    <t>the damage index was always significantly higher in HP samples (P&lt;0.001)</t>
   </si>
 </sst>
 </file>
@@ -4327,10 +4357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX42"/>
+  <dimension ref="A1:AX52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="AO2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AV13" sqref="AV13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4602,7 +4632,7 @@
         <v>265</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="M3" s="11" t="s">
         <v>266</v>
@@ -4638,7 +4668,7 @@
         <v>216</v>
       </c>
       <c r="Z3" s="11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AA3" s="11">
         <v>2</v>
@@ -4650,7 +4680,7 @@
         <v>3</v>
       </c>
       <c r="AD3" s="13" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="AF3" s="11">
         <v>4.3</v>
@@ -4680,7 +4710,10 @@
         <v>161</v>
       </c>
       <c r="AO3" s="11" t="s">
-        <v>406</v>
+        <v>405</v>
+      </c>
+      <c r="AP3" s="11" t="s">
+        <v>495</v>
       </c>
       <c r="AQ3" s="11" t="s">
         <v>164</v>
@@ -4695,16 +4728,16 @@
         <v>377</v>
       </c>
       <c r="AU3" s="13" t="s">
-        <v>409</v>
+        <v>493</v>
       </c>
       <c r="AV3" s="11" t="s">
         <v>237</v>
       </c>
       <c r="AW3" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AX3" s="11" t="s">
-        <v>378</v>
+        <v>494</v>
       </c>
     </row>
     <row r="4" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -4742,7 +4775,7 @@
         <v>265</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>266</v>
@@ -4778,7 +4811,7 @@
         <v>216</v>
       </c>
       <c r="Z4" s="11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AA4" s="11">
         <v>2</v>
@@ -4790,7 +4823,7 @@
         <v>3</v>
       </c>
       <c r="AD4" s="13" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="AF4" s="11">
         <v>4.3</v>
@@ -4820,7 +4853,10 @@
         <v>161</v>
       </c>
       <c r="AO4" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
+      </c>
+      <c r="AP4" s="11" t="s">
+        <v>495</v>
       </c>
       <c r="AQ4" s="11" t="s">
         <v>164</v>
@@ -4835,57 +4871,57 @@
         <v>377</v>
       </c>
       <c r="AU4" s="13" t="s">
-        <v>409</v>
+        <v>493</v>
       </c>
       <c r="AV4" s="11" t="s">
         <v>237</v>
       </c>
       <c r="AW4" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AX4" s="11" t="s">
-        <v>410</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="E5" s="11">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="N5" s="11" t="s">
         <v>254</v>
@@ -4900,37 +4936,37 @@
         <v>21</v>
       </c>
       <c r="S5" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T5" s="11" t="s">
         <v>44</v>
       </c>
       <c r="U5" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="V5" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="W5" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="X5" s="11" t="s">
         <v>216</v>
       </c>
       <c r="Z5" s="11" t="s">
-        <v>380</v>
+        <v>407</v>
       </c>
       <c r="AA5" s="11">
         <v>2</v>
       </c>
       <c r="AB5" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC5" s="11">
         <v>3</v>
       </c>
-      <c r="AD5" s="11" t="s">
-        <v>382</v>
+      <c r="AD5" s="13" t="s">
+        <v>423</v>
       </c>
       <c r="AF5" s="11">
         <v>4.3</v>
@@ -4942,75 +4978,93 @@
         <v>120</v>
       </c>
       <c r="AI5" s="11" t="s">
-        <v>133</v>
+        <v>140</v>
+      </c>
+      <c r="AJ5" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="AK5" s="11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AL5" s="11" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AM5" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN5" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="AO5" s="11" t="s">
-        <v>412</v>
+        <v>405</v>
+      </c>
+      <c r="AP5" s="11" t="s">
+        <v>495</v>
       </c>
       <c r="AQ5" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="AU5" s="11" t="s">
-        <v>383</v>
+      <c r="AR5" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="AS5" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="AT5" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="AU5" s="13" t="s">
+        <v>496</v>
       </c>
       <c r="AV5" s="11" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="AW5" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AX5" s="11" t="s">
-        <v>413</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="E6" s="11">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="N6" s="11" t="s">
         <v>254</v>
@@ -5025,37 +5079,37 @@
         <v>21</v>
       </c>
       <c r="S6" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T6" s="11" t="s">
         <v>44</v>
       </c>
       <c r="U6" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="V6" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="W6" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="X6" s="11" t="s">
         <v>216</v>
       </c>
       <c r="Z6" s="11" t="s">
-        <v>380</v>
+        <v>407</v>
       </c>
       <c r="AA6" s="11">
         <v>2</v>
       </c>
       <c r="AB6" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC6" s="11">
         <v>3</v>
       </c>
-      <c r="AD6" s="11" t="s">
-        <v>382</v>
+      <c r="AD6" s="13" t="s">
+        <v>423</v>
       </c>
       <c r="AF6" s="11">
         <v>4.3</v>
@@ -5067,75 +5121,93 @@
         <v>120</v>
       </c>
       <c r="AI6" s="11" t="s">
-        <v>133</v>
+        <v>140</v>
+      </c>
+      <c r="AJ6" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="AK6" s="11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AL6" s="11" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AM6" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN6" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="AO6" s="11" t="s">
-        <v>412</v>
+        <v>406</v>
+      </c>
+      <c r="AP6" s="11" t="s">
+        <v>495</v>
       </c>
       <c r="AQ6" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="AU6" s="11" t="s">
-        <v>411</v>
+      <c r="AR6" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="AS6" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="AT6" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="AU6" s="13" t="s">
+        <v>496</v>
       </c>
       <c r="AV6" s="11" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="AW6" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="AX6" s="13" t="s">
-        <v>384</v>
+      <c r="AX6" s="11" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="7" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="E7" s="11">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="N7" s="11" t="s">
         <v>254</v>
@@ -5150,37 +5222,37 @@
         <v>21</v>
       </c>
       <c r="S7" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T7" s="11" t="s">
         <v>44</v>
       </c>
       <c r="U7" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="V7" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="W7" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="X7" s="11" t="s">
         <v>216</v>
       </c>
       <c r="Z7" s="11" t="s">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="AA7" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB7" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC7" s="11">
         <v>3</v>
       </c>
-      <c r="AD7" s="11" t="s">
-        <v>382</v>
+      <c r="AD7" s="13" t="s">
+        <v>423</v>
       </c>
       <c r="AF7" s="11">
         <v>4.3</v>
@@ -5192,75 +5264,93 @@
         <v>120</v>
       </c>
       <c r="AI7" s="11" t="s">
-        <v>133</v>
+        <v>140</v>
+      </c>
+      <c r="AJ7" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="AK7" s="11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AL7" s="11" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AM7" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN7" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="AO7" s="11" t="s">
-        <v>412</v>
+        <v>405</v>
+      </c>
+      <c r="AP7" s="11" t="s">
+        <v>495</v>
       </c>
       <c r="AQ7" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="AU7" s="11" t="s">
-        <v>411</v>
+      <c r="AR7" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="AS7" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="AT7" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="AU7" s="13" t="s">
+        <v>498</v>
       </c>
       <c r="AV7" s="11" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="AW7" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX7" s="11" t="s">
-        <v>385</v>
+        <v>210</v>
+      </c>
+      <c r="AX7" s="13" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="8" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>306</v>
+        <v>257</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>308</v>
+        <v>259</v>
       </c>
       <c r="E8" s="11">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>309</v>
+        <v>260</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>310</v>
+        <v>261</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>311</v>
+        <v>263</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>312</v>
+        <v>264</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="N8" s="11" t="s">
         <v>254</v>
@@ -5275,123 +5365,135 @@
         <v>21</v>
       </c>
       <c r="S8" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U8" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="V8" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W8" s="11" t="s">
         <v>51</v>
       </c>
       <c r="X8" s="11" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="Z8" s="11" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="AA8" s="11">
         <v>2</v>
       </c>
       <c r="AB8" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC8" s="11">
         <v>3</v>
       </c>
+      <c r="AD8" s="13" t="s">
+        <v>423</v>
+      </c>
       <c r="AF8" s="11">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="AG8" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AH8" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AI8" s="11" t="s">
-        <v>144</v>
+        <v>140</v>
+      </c>
+      <c r="AJ8" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="AK8" s="11" t="s">
         <v>150</v>
       </c>
       <c r="AL8" s="11" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="AM8" s="11" t="s">
         <v>232</v>
       </c>
       <c r="AN8" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO8" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="AP8" s="11" t="s">
         <v>495</v>
       </c>
       <c r="AQ8" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR8" s="11" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="AS8" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="AU8" s="11" t="s">
-        <v>390</v>
+        <v>179</v>
+      </c>
+      <c r="AT8" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="AU8" s="13" t="s">
+        <v>498</v>
       </c>
       <c r="AV8" s="11" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="AW8" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX8" s="11" t="s">
-        <v>389</v>
+        <v>210</v>
+      </c>
+      <c r="AX8" s="13" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="9" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
-        <v>306</v>
+        <v>257</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>308</v>
+        <v>259</v>
       </c>
       <c r="E9" s="11">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>309</v>
+        <v>260</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>310</v>
+        <v>261</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>311</v>
+        <v>263</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>312</v>
+        <v>264</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="N9" s="11" t="s">
         <v>254</v>
@@ -5406,123 +5508,135 @@
         <v>21</v>
       </c>
       <c r="S9" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U9" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="V9" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W9" s="11" t="s">
         <v>51</v>
       </c>
       <c r="X9" s="11" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="Z9" s="11" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="AA9" s="11">
         <v>2</v>
       </c>
       <c r="AB9" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC9" s="11">
         <v>3</v>
       </c>
+      <c r="AD9" s="13" t="s">
+        <v>423</v>
+      </c>
       <c r="AF9" s="11">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="AG9" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AH9" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AI9" s="11" t="s">
-        <v>144</v>
+        <v>140</v>
+      </c>
+      <c r="AJ9" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="AK9" s="11" t="s">
         <v>150</v>
       </c>
       <c r="AL9" s="11" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="AM9" s="11" t="s">
         <v>232</v>
       </c>
       <c r="AN9" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO9" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="AP9" s="11" t="s">
         <v>495</v>
       </c>
       <c r="AQ9" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR9" s="11" t="s">
-        <v>240</v>
+        <v>168</v>
       </c>
       <c r="AS9" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="AU9" s="11" t="s">
-        <v>390</v>
+        <v>179</v>
+      </c>
+      <c r="AT9" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="AU9" s="13" t="s">
+        <v>500</v>
       </c>
       <c r="AV9" s="11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AW9" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX9" s="11" t="s">
-        <v>389</v>
+        <v>209</v>
+      </c>
+      <c r="AX9" s="13" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="10" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>306</v>
+        <v>257</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>308</v>
+        <v>259</v>
       </c>
       <c r="E10" s="11">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>309</v>
+        <v>260</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>310</v>
+        <v>261</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>311</v>
+        <v>263</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>312</v>
+        <v>264</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="N10" s="11" t="s">
         <v>254</v>
@@ -5537,126 +5651,135 @@
         <v>21</v>
       </c>
       <c r="S10" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="T10" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U10" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="V10" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W10" s="11" t="s">
         <v>51</v>
       </c>
       <c r="X10" s="11" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="Z10" s="11" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="AA10" s="11">
         <v>2</v>
       </c>
       <c r="AB10" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC10" s="11">
         <v>3</v>
       </c>
+      <c r="AD10" s="13" t="s">
+        <v>423</v>
+      </c>
       <c r="AF10" s="11">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="AG10" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AH10" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AI10" s="11" t="s">
-        <v>144</v>
+        <v>140</v>
+      </c>
+      <c r="AJ10" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="AK10" s="11" t="s">
         <v>150</v>
       </c>
       <c r="AL10" s="11" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="AM10" s="11" t="s">
         <v>232</v>
       </c>
       <c r="AN10" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO10" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="AP10" s="11" t="s">
         <v>495</v>
       </c>
       <c r="AQ10" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR10" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AS10" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="AT10" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="AU10" s="11" t="s">
-        <v>390</v>
+        <v>377</v>
+      </c>
+      <c r="AU10" s="13" t="s">
+        <v>500</v>
       </c>
       <c r="AV10" s="11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AW10" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX10" s="11" t="s">
-        <v>388</v>
+        <v>209</v>
+      </c>
+      <c r="AX10" s="13" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="11" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
-        <v>306</v>
+        <v>257</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>308</v>
+        <v>259</v>
       </c>
       <c r="E11" s="11">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>309</v>
+        <v>260</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>310</v>
+        <v>261</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>311</v>
+        <v>263</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>312</v>
+        <v>264</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="N11" s="11" t="s">
         <v>254</v>
@@ -5671,126 +5794,135 @@
         <v>21</v>
       </c>
       <c r="S11" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U11" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="V11" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W11" s="11" t="s">
         <v>51</v>
       </c>
       <c r="X11" s="11" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="Z11" s="11" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="AA11" s="11">
         <v>2</v>
       </c>
       <c r="AB11" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC11" s="11">
         <v>3</v>
       </c>
+      <c r="AD11" s="13" t="s">
+        <v>423</v>
+      </c>
       <c r="AF11" s="11">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="AG11" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AH11" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AI11" s="11" t="s">
-        <v>144</v>
+        <v>140</v>
+      </c>
+      <c r="AJ11" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="AK11" s="11" t="s">
         <v>150</v>
       </c>
       <c r="AL11" s="11" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="AM11" s="11" t="s">
         <v>232</v>
       </c>
       <c r="AN11" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO11" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="AP11" s="11" t="s">
         <v>495</v>
       </c>
       <c r="AQ11" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR11" s="11" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="AS11" s="11" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="AT11" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="AU11" s="11" t="s">
-        <v>390</v>
+        <v>377</v>
+      </c>
+      <c r="AU11" s="13" t="s">
+        <v>502</v>
       </c>
       <c r="AV11" s="11" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="AW11" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX11" s="11" t="s">
-        <v>388</v>
+        <v>209</v>
+      </c>
+      <c r="AX11" s="13" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="12" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
-        <v>306</v>
+        <v>257</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>308</v>
+        <v>259</v>
       </c>
       <c r="E12" s="11">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>309</v>
+        <v>260</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>310</v>
+        <v>261</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>311</v>
+        <v>263</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>312</v>
+        <v>264</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="N12" s="11" t="s">
         <v>254</v>
@@ -5805,123 +5937,135 @@
         <v>21</v>
       </c>
       <c r="S12" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U12" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="V12" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W12" s="11" t="s">
         <v>51</v>
       </c>
       <c r="X12" s="11" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="Z12" s="11" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="AA12" s="11">
         <v>2</v>
       </c>
       <c r="AB12" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC12" s="11">
         <v>3</v>
       </c>
+      <c r="AD12" s="13" t="s">
+        <v>423</v>
+      </c>
       <c r="AF12" s="11">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="AG12" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AH12" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AI12" s="11" t="s">
-        <v>144</v>
+        <v>140</v>
+      </c>
+      <c r="AJ12" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="AK12" s="11" t="s">
         <v>150</v>
       </c>
       <c r="AL12" s="11" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="AM12" s="11" t="s">
         <v>232</v>
       </c>
       <c r="AN12" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO12" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="AP12" s="11" t="s">
         <v>495</v>
       </c>
       <c r="AQ12" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR12" s="11" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="AS12" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="AU12" s="11" t="s">
-        <v>390</v>
+        <v>179</v>
+      </c>
+      <c r="AT12" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="AU12" s="13" t="s">
+        <v>502</v>
       </c>
       <c r="AV12" s="11" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="AW12" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="AX12" s="11" t="s">
-        <v>389</v>
+      <c r="AX12" s="13" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="13" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
-        <v>306</v>
+        <v>257</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>308</v>
+        <v>259</v>
       </c>
       <c r="E13" s="11">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>309</v>
+        <v>260</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>310</v>
+        <v>261</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>311</v>
+        <v>263</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>312</v>
+        <v>264</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="N13" s="11" t="s">
         <v>254</v>
@@ -5936,123 +6080,135 @@
         <v>21</v>
       </c>
       <c r="S13" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U13" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="V13" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W13" s="11" t="s">
         <v>51</v>
       </c>
       <c r="X13" s="11" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="Z13" s="11" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="AA13" s="11">
         <v>2</v>
       </c>
       <c r="AB13" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC13" s="11">
         <v>3</v>
       </c>
+      <c r="AD13" s="13" t="s">
+        <v>423</v>
+      </c>
       <c r="AF13" s="11">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="AG13" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AH13" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AI13" s="11" t="s">
-        <v>144</v>
+        <v>140</v>
+      </c>
+      <c r="AJ13" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="AK13" s="11" t="s">
         <v>150</v>
       </c>
       <c r="AL13" s="11" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="AM13" s="11" t="s">
         <v>232</v>
       </c>
       <c r="AN13" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO13" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="AP13" s="11" t="s">
         <v>495</v>
       </c>
       <c r="AQ13" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR13" s="11" t="s">
-        <v>240</v>
+        <v>168</v>
       </c>
       <c r="AS13" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="AU13" s="11" t="s">
-        <v>390</v>
+        <v>179</v>
+      </c>
+      <c r="AT13" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="AU13" s="13" t="s">
+        <v>504</v>
       </c>
       <c r="AV13" s="11" t="s">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c r="AW13" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX13" s="11" t="s">
-        <v>389</v>
+        <v>207</v>
+      </c>
+      <c r="AX13" s="13" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="14" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
-        <v>306</v>
+        <v>257</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>308</v>
+        <v>259</v>
       </c>
       <c r="E14" s="11">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>309</v>
+        <v>260</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>310</v>
+        <v>261</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>311</v>
+        <v>263</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>312</v>
+        <v>264</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="N14" s="11" t="s">
         <v>254</v>
@@ -6067,123 +6223,135 @@
         <v>21</v>
       </c>
       <c r="S14" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U14" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="V14" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W14" s="11" t="s">
         <v>51</v>
       </c>
       <c r="X14" s="11" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="Z14" s="11" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="AA14" s="11">
         <v>2</v>
       </c>
       <c r="AB14" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC14" s="11">
         <v>3</v>
       </c>
+      <c r="AD14" s="13" t="s">
+        <v>423</v>
+      </c>
       <c r="AF14" s="11">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="AG14" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AH14" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AI14" s="11" t="s">
-        <v>144</v>
+        <v>140</v>
+      </c>
+      <c r="AJ14" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="AK14" s="11" t="s">
         <v>150</v>
       </c>
       <c r="AL14" s="11" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="AM14" s="11" t="s">
         <v>232</v>
       </c>
       <c r="AN14" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO14" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="AP14" s="11" t="s">
         <v>495</v>
       </c>
       <c r="AQ14" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR14" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AS14" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="AU14" s="11" t="s">
-        <v>390</v>
+        <v>179</v>
+      </c>
+      <c r="AT14" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="AU14" s="13" t="s">
+        <v>504</v>
       </c>
       <c r="AV14" s="11" t="s">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c r="AW14" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="AX14" s="11" t="s">
-        <v>388</v>
+      <c r="AX14" s="13" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="15" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
       <c r="E15" s="11">
-        <v>1999</v>
+        <v>2002</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="H15" s="11" t="s">
         <v>272</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>311</v>
+        <v>261</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="N15" s="11" t="s">
         <v>254</v>
@@ -6198,25 +6366,25 @@
         <v>21</v>
       </c>
       <c r="S15" s="11" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U15" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V15" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="W15" s="11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="X15" s="11" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="Z15" s="11" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="AA15" s="11">
         <v>2</v>
@@ -6227,94 +6395,88 @@
       <c r="AC15" s="11">
         <v>3</v>
       </c>
+      <c r="AD15" s="11" t="s">
+        <v>381</v>
+      </c>
       <c r="AF15" s="11">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="AG15" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AH15" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AI15" s="11" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="AK15" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AL15" s="11" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="AM15" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN15" s="11" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO15" s="11" t="s">
-        <v>495</v>
+        <v>409</v>
       </c>
       <c r="AQ15" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="AR15" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS15" s="11" t="s">
-        <v>189</v>
-      </c>
       <c r="AU15" s="11" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="AV15" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AW15" s="11" t="s">
         <v>210</v>
       </c>
       <c r="AX15" s="11" t="s">
-        <v>388</v>
+        <v>410</v>
       </c>
     </row>
     <row r="16" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>316</v>
+        <v>268</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>317</v>
+        <v>269</v>
       </c>
       <c r="E16" s="11">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>318</v>
+        <v>270</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>319</v>
+        <v>271</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>272</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>320</v>
+        <v>273</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="L16" s="14" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>321</v>
+        <v>275</v>
       </c>
       <c r="N16" s="11" t="s">
         <v>254</v>
@@ -6329,25 +6491,25 @@
         <v>21</v>
       </c>
       <c r="S16" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T16" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U16" s="11" t="s">
         <v>56</v>
       </c>
       <c r="V16" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W16" s="11" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="X16" s="11" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="Z16" s="11" t="s">
-        <v>421</v>
+        <v>379</v>
       </c>
       <c r="AA16" s="11">
         <v>2</v>
@@ -6358,100 +6520,88 @@
       <c r="AC16" s="11">
         <v>3</v>
       </c>
-      <c r="AE16" s="11" t="s">
-        <v>416</v>
+      <c r="AD16" s="11" t="s">
+        <v>381</v>
       </c>
       <c r="AF16" s="11">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="AG16" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AH16" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AI16" s="11" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="AK16" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AL16" s="11" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="AM16" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN16" s="11" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO16" s="11" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="AQ16" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="AR16" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="AS16" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="AT16" s="11" t="s">
-        <v>392</v>
-      </c>
       <c r="AU16" s="11" t="s">
-        <v>475</v>
+        <v>408</v>
       </c>
       <c r="AV16" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AW16" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="AX16" s="11" t="s">
-        <v>417</v>
+      <c r="AX16" s="13" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>316</v>
+        <v>268</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>317</v>
+        <v>269</v>
       </c>
       <c r="E17" s="11">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>318</v>
+        <v>270</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>319</v>
+        <v>271</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>272</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>320</v>
+        <v>273</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="L17" s="11" t="s">
-        <v>463</v>
+        <v>274</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>456</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>321</v>
+        <v>275</v>
       </c>
       <c r="N17" s="11" t="s">
         <v>254</v>
@@ -6466,28 +6616,28 @@
         <v>21</v>
       </c>
       <c r="S17" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U17" s="11" t="s">
         <v>56</v>
       </c>
       <c r="V17" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W17" s="11" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="X17" s="11" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="Z17" s="11" t="s">
-        <v>415</v>
+        <v>380</v>
       </c>
       <c r="AA17" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB17" s="11">
         <v>2</v>
@@ -6495,100 +6645,88 @@
       <c r="AC17" s="11">
         <v>3</v>
       </c>
-      <c r="AE17" s="11" t="s">
-        <v>416</v>
+      <c r="AD17" s="11" t="s">
+        <v>381</v>
       </c>
       <c r="AF17" s="11">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="AG17" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AH17" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AI17" s="11" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="AK17" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AL17" s="11" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="AM17" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN17" s="11" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO17" s="11" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="AQ17" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="AR17" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="AS17" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="AT17" s="11" t="s">
-        <v>392</v>
-      </c>
       <c r="AU17" s="11" t="s">
-        <v>476</v>
+        <v>408</v>
       </c>
       <c r="AV17" s="11" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="AW17" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AX17" s="11" t="s">
-        <v>418</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="E18" s="11">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>272</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="L18" s="11" t="s">
-        <v>464</v>
+        <v>313</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>454</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="N18" s="11" t="s">
         <v>254</v>
@@ -6603,25 +6741,25 @@
         <v>21</v>
       </c>
       <c r="S18" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="T18" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U18" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V18" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="W18" s="11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="X18" s="11" t="s">
         <v>69</v>
       </c>
       <c r="Z18" s="11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AA18" s="11">
         <v>2</v>
@@ -6632,97 +6770,94 @@
       <c r="AC18" s="11">
         <v>3</v>
       </c>
-      <c r="AD18" s="13" t="s">
-        <v>420</v>
-      </c>
-      <c r="AE18" s="11" t="s">
-        <v>416</v>
-      </c>
       <c r="AF18" s="11">
-        <v>4.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AG18" s="11" t="s">
         <v>109</v>
       </c>
       <c r="AH18" s="11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AI18" s="11" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="AK18" s="11" t="s">
         <v>150</v>
       </c>
       <c r="AL18" s="11" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="AM18" s="11" t="s">
         <v>232</v>
       </c>
       <c r="AN18" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO18" s="11" t="s">
-        <v>414</v>
+        <v>492</v>
       </c>
       <c r="AQ18" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR18" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AS18" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="AT18" s="11" t="s">
-        <v>392</v>
+        <v>175</v>
       </c>
       <c r="AU18" s="11" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="AV18" s="11" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="AW18" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AX18" s="11" t="s">
-        <v>419</v>
+        <v>388</v>
       </c>
     </row>
     <row r="19" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
-        <v>370</v>
+        <v>306</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>371</v>
+        <v>307</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>372</v>
+        <v>308</v>
       </c>
       <c r="E19" s="11">
-        <v>2019</v>
+        <v>1999</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>373</v>
+        <v>309</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>374</v>
+        <v>310</v>
       </c>
       <c r="H19" s="11" t="s">
         <v>272</v>
       </c>
+      <c r="I19" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>312</v>
+      </c>
       <c r="K19" s="11" t="s">
-        <v>375</v>
+        <v>313</v>
       </c>
       <c r="L19" s="14" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>376</v>
+        <v>314</v>
       </c>
       <c r="N19" s="11" t="s">
         <v>254</v>
@@ -6731,7 +6866,7 @@
         <v>255</v>
       </c>
       <c r="P19" s="11" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="Q19" s="11" t="s">
         <v>21</v>
@@ -6743,13 +6878,19 @@
         <v>46</v>
       </c>
       <c r="U19" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="V19" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="W19" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="X19" s="11" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="Z19" s="11" t="s">
-        <v>422</v>
+        <v>392</v>
       </c>
       <c r="AA19" s="11">
         <v>2</v>
@@ -6760,23 +6901,23 @@
       <c r="AC19" s="11">
         <v>3</v>
       </c>
-      <c r="AD19" s="11" t="s">
-        <v>431</v>
-      </c>
       <c r="AF19" s="11">
         <v>4.4000000000000004</v>
       </c>
       <c r="AG19" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AH19" s="11" t="s">
-        <v>124</v>
+        <v>117</v>
+      </c>
+      <c r="AI19" s="11" t="s">
+        <v>144</v>
       </c>
       <c r="AK19" s="11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AL19" s="11" t="s">
-        <v>423</v>
+        <v>385</v>
       </c>
       <c r="AM19" s="11" t="s">
         <v>232</v>
@@ -6785,63 +6926,69 @@
         <v>160</v>
       </c>
       <c r="AO19" s="11" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="AQ19" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR19" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AS19" s="11" t="s">
         <v>175</v>
       </c>
       <c r="AU19" s="11" t="s">
-        <v>479</v>
+        <v>389</v>
       </c>
       <c r="AV19" s="11" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="AW19" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX19" s="13" t="s">
-        <v>481</v>
+        <v>208</v>
+      </c>
+      <c r="AX19" s="11" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="20" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
-        <v>370</v>
+        <v>306</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>371</v>
+        <v>307</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>372</v>
+        <v>308</v>
       </c>
       <c r="E20" s="11">
-        <v>2019</v>
+        <v>1999</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>373</v>
+        <v>309</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>374</v>
+        <v>310</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>272</v>
       </c>
+      <c r="I20" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>312</v>
+      </c>
       <c r="K20" s="11" t="s">
-        <v>375</v>
+        <v>313</v>
       </c>
       <c r="L20" s="14" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>376</v>
+        <v>314</v>
       </c>
       <c r="N20" s="11" t="s">
         <v>254</v>
@@ -6850,7 +6997,7 @@
         <v>255</v>
       </c>
       <c r="P20" s="11" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="Q20" s="11" t="s">
         <v>21</v>
@@ -6862,13 +7009,19 @@
         <v>46</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="V20" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="W20" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="X20" s="11" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="Z20" s="11" t="s">
-        <v>422</v>
+        <v>392</v>
       </c>
       <c r="AA20" s="11">
         <v>2</v>
@@ -6879,23 +7032,23 @@
       <c r="AC20" s="11">
         <v>3</v>
       </c>
-      <c r="AD20" s="11" t="s">
-        <v>431</v>
-      </c>
       <c r="AF20" s="11">
         <v>4.4000000000000004</v>
       </c>
       <c r="AG20" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AH20" s="11" t="s">
-        <v>124</v>
+        <v>117</v>
+      </c>
+      <c r="AI20" s="11" t="s">
+        <v>144</v>
       </c>
       <c r="AK20" s="11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AL20" s="11" t="s">
-        <v>423</v>
+        <v>385</v>
       </c>
       <c r="AM20" s="11" t="s">
         <v>232</v>
@@ -6904,66 +7057,72 @@
         <v>160</v>
       </c>
       <c r="AO20" s="11" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="AQ20" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR20" s="11" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="AS20" s="11" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AT20" s="11" t="s">
-        <v>424</v>
+        <v>385</v>
       </c>
       <c r="AU20" s="11" t="s">
-        <v>479</v>
+        <v>389</v>
       </c>
       <c r="AV20" s="11" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="AW20" s="11" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AX20" s="11" t="s">
-        <v>480</v>
+        <v>387</v>
       </c>
     </row>
     <row r="21" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
-        <v>370</v>
+        <v>306</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>371</v>
+        <v>307</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>372</v>
+        <v>308</v>
       </c>
       <c r="E21" s="11">
-        <v>2019</v>
+        <v>1999</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>373</v>
+        <v>309</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>374</v>
+        <v>310</v>
       </c>
       <c r="H21" s="11" t="s">
         <v>272</v>
       </c>
+      <c r="I21" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>312</v>
+      </c>
       <c r="K21" s="11" t="s">
-        <v>375</v>
+        <v>313</v>
       </c>
       <c r="L21" s="14" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>376</v>
+        <v>314</v>
       </c>
       <c r="N21" s="11" t="s">
         <v>254</v>
@@ -6972,7 +7131,7 @@
         <v>255</v>
       </c>
       <c r="P21" s="11" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="Q21" s="11" t="s">
         <v>21</v>
@@ -6984,13 +7143,19 @@
         <v>46</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="V21" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="W21" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="X21" s="11" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="Z21" s="11" t="s">
-        <v>422</v>
+        <v>392</v>
       </c>
       <c r="AA21" s="11">
         <v>2</v>
@@ -7001,23 +7166,23 @@
       <c r="AC21" s="11">
         <v>3</v>
       </c>
-      <c r="AD21" s="11" t="s">
-        <v>431</v>
-      </c>
       <c r="AF21" s="11">
         <v>4.4000000000000004</v>
       </c>
       <c r="AG21" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AH21" s="11" t="s">
-        <v>124</v>
+        <v>117</v>
+      </c>
+      <c r="AI21" s="11" t="s">
+        <v>144</v>
       </c>
       <c r="AK21" s="11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AL21" s="11" t="s">
-        <v>423</v>
+        <v>385</v>
       </c>
       <c r="AM21" s="11" t="s">
         <v>232</v>
@@ -7026,69 +7191,72 @@
         <v>160</v>
       </c>
       <c r="AO21" s="11" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="AQ21" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR21" s="11" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AS21" s="11" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="AT21" s="11" t="s">
-        <v>424</v>
+        <v>385</v>
       </c>
       <c r="AU21" s="11" t="s">
-        <v>479</v>
+        <v>389</v>
       </c>
       <c r="AV21" s="11" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="AW21" s="11" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AX21" s="11" t="s">
-        <v>480</v>
+        <v>387</v>
       </c>
     </row>
     <row r="22" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
-        <v>363</v>
+        <v>306</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>364</v>
+        <v>307</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>365</v>
+        <v>308</v>
       </c>
       <c r="E22" s="11">
-        <v>2021</v>
+        <v>1999</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>366</v>
+        <v>309</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>249</v>
+        <v>310</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>272</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>367</v>
+        <v>312</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>368</v>
+        <v>313</v>
       </c>
       <c r="L22" s="14" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>369</v>
+        <v>314</v>
       </c>
       <c r="N22" s="11" t="s">
         <v>254</v>
@@ -7096,32 +7264,32 @@
       <c r="O22" s="11" t="s">
         <v>255</v>
       </c>
+      <c r="P22" s="11" t="s">
+        <v>252</v>
+      </c>
       <c r="Q22" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S22" s="11" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T22" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U22" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V22" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="W22" s="11" t="s">
         <v>51</v>
       </c>
       <c r="X22" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y22" s="11" t="s">
-        <v>425</v>
+        <v>69</v>
       </c>
       <c r="Z22" s="11" t="s">
-        <v>436</v>
+        <v>392</v>
       </c>
       <c r="AA22" s="11">
         <v>2</v>
@@ -7132,35 +7300,32 @@
       <c r="AC22" s="11">
         <v>3</v>
       </c>
-      <c r="AD22" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="AE22" s="11" t="s">
-        <v>433</v>
-      </c>
       <c r="AF22" s="11">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AG22" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH22" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
+      </c>
+      <c r="AI22" s="11" t="s">
+        <v>144</v>
       </c>
       <c r="AK22" s="11" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="AL22" s="11" t="s">
-        <v>434</v>
+        <v>386</v>
       </c>
       <c r="AM22" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN22" s="11" t="s">
+        <v>160</v>
       </c>
       <c r="AO22" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="AP22" s="11" t="s">
-        <v>432</v>
+        <v>492</v>
       </c>
       <c r="AQ22" s="11" t="s">
         <v>164</v>
@@ -7171,58 +7336,58 @@
       <c r="AS22" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="AT22" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="AU22" s="12" t="s">
-        <v>437</v>
+      <c r="AU22" s="11" t="s">
+        <v>389</v>
       </c>
       <c r="AV22" s="11" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="AW22" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AX22" s="11" t="s">
-        <v>439</v>
+        <v>388</v>
       </c>
     </row>
     <row r="23" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
-        <v>363</v>
+        <v>306</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>364</v>
+        <v>307</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>365</v>
+        <v>308</v>
       </c>
       <c r="E23" s="11">
-        <v>2021</v>
+        <v>1999</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>366</v>
+        <v>309</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>249</v>
+        <v>310</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>272</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>367</v>
+        <v>312</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>368</v>
+        <v>313</v>
       </c>
       <c r="L23" s="14" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>369</v>
+        <v>314</v>
       </c>
       <c r="N23" s="11" t="s">
         <v>254</v>
@@ -7230,32 +7395,32 @@
       <c r="O23" s="11" t="s">
         <v>255</v>
       </c>
+      <c r="P23" s="11" t="s">
+        <v>252</v>
+      </c>
       <c r="Q23" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S23" s="11" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T23" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U23" s="11" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="V23" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="W23" s="11" t="s">
         <v>51</v>
       </c>
       <c r="X23" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y23" s="11" t="s">
-        <v>427</v>
+        <v>69</v>
       </c>
       <c r="Z23" s="11" t="s">
-        <v>436</v>
+        <v>392</v>
       </c>
       <c r="AA23" s="11">
         <v>2</v>
@@ -7266,97 +7431,94 @@
       <c r="AC23" s="11">
         <v>3</v>
       </c>
-      <c r="AD23" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="AE23" s="11" t="s">
-        <v>433</v>
-      </c>
       <c r="AF23" s="11">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AG23" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH23" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
+      </c>
+      <c r="AI23" s="11" t="s">
+        <v>144</v>
       </c>
       <c r="AK23" s="11" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="AL23" s="11" t="s">
-        <v>434</v>
+        <v>386</v>
       </c>
       <c r="AM23" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN23" s="11" t="s">
+        <v>160</v>
       </c>
       <c r="AO23" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="AP23" s="11" t="s">
-        <v>432</v>
+        <v>492</v>
       </c>
       <c r="AQ23" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR23" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AS23" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="AT23" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="AU23" s="12" t="s">
-        <v>437</v>
+      <c r="AU23" s="11" t="s">
+        <v>389</v>
       </c>
       <c r="AV23" s="11" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="AW23" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AX23" s="11" t="s">
-        <v>439</v>
+        <v>388</v>
       </c>
     </row>
     <row r="24" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
-        <v>363</v>
+        <v>306</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>364</v>
+        <v>307</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>365</v>
+        <v>308</v>
       </c>
       <c r="E24" s="11">
-        <v>2021</v>
+        <v>1999</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>366</v>
+        <v>309</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>249</v>
+        <v>310</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>272</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>367</v>
+        <v>312</v>
       </c>
       <c r="K24" s="11" t="s">
-        <v>368</v>
+        <v>313</v>
       </c>
       <c r="L24" s="14" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>369</v>
+        <v>314</v>
       </c>
       <c r="N24" s="11" t="s">
         <v>254</v>
@@ -7364,32 +7526,32 @@
       <c r="O24" s="11" t="s">
         <v>255</v>
       </c>
+      <c r="P24" s="11" t="s">
+        <v>252</v>
+      </c>
       <c r="Q24" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S24" s="11" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T24" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U24" s="11" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="V24" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="W24" s="11" t="s">
         <v>51</v>
       </c>
       <c r="X24" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y24" s="11" t="s">
-        <v>427</v>
+        <v>69</v>
       </c>
       <c r="Z24" s="11" t="s">
-        <v>436</v>
+        <v>392</v>
       </c>
       <c r="AA24" s="11">
         <v>2</v>
@@ -7400,100 +7562,94 @@
       <c r="AC24" s="11">
         <v>3</v>
       </c>
-      <c r="AD24" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="AE24" s="11" t="s">
-        <v>433</v>
-      </c>
       <c r="AF24" s="11">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AG24" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH24" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
+      </c>
+      <c r="AI24" s="11" t="s">
+        <v>144</v>
       </c>
       <c r="AK24" s="11" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="AL24" s="11" t="s">
-        <v>434</v>
+        <v>386</v>
       </c>
       <c r="AM24" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN24" s="11" t="s">
+        <v>160</v>
       </c>
       <c r="AO24" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="AP24" s="11" t="s">
-        <v>432</v>
+        <v>492</v>
       </c>
       <c r="AQ24" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR24" s="11" t="s">
-        <v>239</v>
+        <v>170</v>
       </c>
       <c r="AS24" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT24" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="AU24" s="12" t="s">
-        <v>438</v>
+        <v>188</v>
+      </c>
+      <c r="AU24" s="11" t="s">
+        <v>389</v>
       </c>
       <c r="AV24" s="11" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="AW24" s="11" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AX24" s="11" t="s">
-        <v>435</v>
+        <v>387</v>
       </c>
     </row>
     <row r="25" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
-        <v>355</v>
+        <v>306</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>356</v>
+        <v>307</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>357</v>
+        <v>308</v>
       </c>
       <c r="E25" s="11">
-        <v>1968</v>
+        <v>1999</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>246</v>
+        <v>309</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>358</v>
+        <v>310</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>359</v>
+        <v>311</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>360</v>
+        <v>312</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>361</v>
+        <v>313</v>
       </c>
       <c r="L25" s="14" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>362</v>
+        <v>314</v>
       </c>
       <c r="N25" s="11" t="s">
         <v>254</v>
@@ -7508,25 +7664,25 @@
         <v>21</v>
       </c>
       <c r="S25" s="11" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T25" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U25" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="V25" s="11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W25" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X25" s="11" t="s">
         <v>69</v>
       </c>
       <c r="Z25" s="11" t="s">
-        <v>440</v>
+        <v>392</v>
       </c>
       <c r="AA25" s="11">
         <v>2</v>
@@ -7537,12 +7693,6 @@
       <c r="AC25" s="11">
         <v>3</v>
       </c>
-      <c r="AD25" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="AE25" s="11" t="s">
-        <v>441</v>
-      </c>
       <c r="AF25" s="11">
         <v>4.4000000000000004</v>
       </c>
@@ -7553,13 +7703,13 @@
         <v>117</v>
       </c>
       <c r="AI25" s="11" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="AK25" s="11" t="s">
         <v>150</v>
       </c>
       <c r="AL25" s="11" t="s">
-        <v>442</v>
+        <v>386</v>
       </c>
       <c r="AM25" s="11" t="s">
         <v>232</v>
@@ -7568,72 +7718,69 @@
         <v>160</v>
       </c>
       <c r="AO25" s="11" t="s">
-        <v>443</v>
+        <v>492</v>
       </c>
       <c r="AQ25" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR25" s="11" t="s">
-        <v>239</v>
+        <v>170</v>
       </c>
       <c r="AS25" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT25" s="11" t="s">
-        <v>442</v>
+        <v>189</v>
       </c>
       <c r="AU25" s="11" t="s">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="AV25" s="11" t="s">
         <v>200</v>
       </c>
       <c r="AW25" s="11" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AX25" s="11" t="s">
-        <v>446</v>
+        <v>387</v>
       </c>
     </row>
     <row r="26" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
-        <v>242</v>
+        <v>315</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>244</v>
+        <v>316</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>245</v>
+        <v>317</v>
       </c>
       <c r="E26" s="11">
-        <v>2005</v>
+        <v>1998</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>246</v>
+        <v>318</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>247</v>
+        <v>319</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L26" s="14" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>253</v>
+        <v>321</v>
       </c>
       <c r="N26" s="11" t="s">
         <v>254</v>
@@ -7642,28 +7789,31 @@
         <v>255</v>
       </c>
       <c r="P26" s="11" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Q26" s="11" t="s">
         <v>21</v>
       </c>
       <c r="S26" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T26" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U26" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
+      </c>
+      <c r="V26" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="W26" s="11" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="X26" s="11" t="s">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="Z26" s="11" t="s">
-        <v>449</v>
+        <v>418</v>
       </c>
       <c r="AA26" s="11">
         <v>2</v>
@@ -7672,28 +7822,28 @@
         <v>2</v>
       </c>
       <c r="AC26" s="11">
-        <v>1</v>
-      </c>
-      <c r="AD26" s="13" t="s">
-        <v>450</v>
+        <v>3</v>
+      </c>
+      <c r="AE26" s="11" t="s">
+        <v>413</v>
       </c>
       <c r="AF26" s="11">
         <v>4.4000000000000004</v>
       </c>
       <c r="AG26" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH26" s="11" t="s">
         <v>117</v>
       </c>
       <c r="AI26" s="11" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="AK26" s="11" t="s">
         <v>150</v>
       </c>
       <c r="AL26" s="11" t="s">
-        <v>484</v>
+        <v>391</v>
       </c>
       <c r="AM26" s="11" t="s">
         <v>232</v>
@@ -7702,69 +7852,72 @@
         <v>160</v>
       </c>
       <c r="AO26" s="11" t="s">
-        <v>493</v>
-      </c>
-      <c r="AP26" s="11" t="s">
-        <v>494</v>
+        <v>411</v>
       </c>
       <c r="AQ26" s="11" t="s">
         <v>164</v>
       </c>
+      <c r="AR26" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="AS26" s="11" t="s">
+        <v>177</v>
+      </c>
       <c r="AT26" s="11" t="s">
-        <v>447</v>
+        <v>391</v>
       </c>
       <c r="AU26" s="11" t="s">
-        <v>448</v>
+        <v>472</v>
       </c>
       <c r="AV26" s="11" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="AW26" s="11" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AX26" s="11" t="s">
-        <v>483</v>
+        <v>414</v>
       </c>
     </row>
     <row r="27" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="E27" s="11">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="H27" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="K27" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="I27" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="K27" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="L27" s="14" t="s">
-        <v>395</v>
+      <c r="L27" s="11" t="s">
+        <v>460</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="N27" s="11" t="s">
         <v>254</v>
@@ -7773,31 +7926,31 @@
         <v>255</v>
       </c>
       <c r="P27" s="11" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Q27" s="11" t="s">
         <v>21</v>
       </c>
       <c r="S27" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T27" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U27" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="V27" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="W27" s="11" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="X27" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="Z27" s="11" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="AA27" s="11">
         <v>2</v>
@@ -7806,7 +7959,10 @@
         <v>2</v>
       </c>
       <c r="AC27" s="11">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="AE27" s="11" t="s">
+        <v>413</v>
       </c>
       <c r="AF27" s="11">
         <v>4.4000000000000004</v>
@@ -7815,14 +7971,17 @@
         <v>109</v>
       </c>
       <c r="AH27" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AI27" s="11" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="AK27" s="11" t="s">
         <v>150</v>
       </c>
+      <c r="AL27" s="11" t="s">
+        <v>391</v>
+      </c>
       <c r="AM27" s="11" t="s">
         <v>232</v>
       </c>
@@ -7830,69 +7989,72 @@
         <v>160</v>
       </c>
       <c r="AO27" s="11" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="AQ27" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR27" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AS27" s="11" t="s">
-        <v>175</v>
+        <v>177</v>
+      </c>
+      <c r="AT27" s="11" t="s">
+        <v>391</v>
       </c>
       <c r="AU27" s="11" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="AV27" s="11" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="AW27" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AX27" s="11" t="s">
-        <v>492</v>
+        <v>415</v>
       </c>
     </row>
     <row r="28" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="E28" s="11">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="H28" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="K28" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="I28" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="K28" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="L28" s="14" t="s">
-        <v>395</v>
+      <c r="L28" s="11" t="s">
+        <v>461</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="N28" s="11" t="s">
         <v>254</v>
@@ -7901,31 +8063,31 @@
         <v>255</v>
       </c>
       <c r="P28" s="11" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Q28" s="11" t="s">
         <v>21</v>
       </c>
       <c r="S28" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T28" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U28" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="V28" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="W28" s="11" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="X28" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="Z28" s="11" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AA28" s="11">
         <v>2</v>
@@ -7934,96 +8096,99 @@
         <v>2</v>
       </c>
       <c r="AC28" s="11">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="AD28" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="AE28" s="11" t="s">
+        <v>413</v>
       </c>
       <c r="AF28" s="11">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="AG28" s="11" t="s">
         <v>109</v>
       </c>
       <c r="AH28" s="11" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="AI28" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ28" s="11" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="AK28" s="11" t="s">
         <v>150</v>
       </c>
+      <c r="AL28" s="11" t="s">
+        <v>390</v>
+      </c>
       <c r="AM28" s="11" t="s">
         <v>232</v>
       </c>
       <c r="AN28" s="11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AO28" s="11" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="AQ28" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR28" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AS28" s="11" t="s">
-        <v>175</v>
+        <v>177</v>
+      </c>
+      <c r="AT28" s="11" t="s">
+        <v>391</v>
       </c>
       <c r="AU28" s="11" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="AV28" s="11" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="AW28" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AX28" s="11" t="s">
-        <v>492</v>
+        <v>416</v>
       </c>
     </row>
     <row r="29" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
-        <v>331</v>
+        <v>370</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="E29" s="11">
-        <v>1996</v>
+        <v>2019</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>246</v>
+        <v>373</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>336</v>
+        <v>272</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="L29" s="11" t="s">
-        <v>398</v>
+        <v>375</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>457</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
       <c r="N29" s="11" t="s">
         <v>254</v>
@@ -8032,31 +8197,25 @@
         <v>255</v>
       </c>
       <c r="P29" s="11" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="Q29" s="11" t="s">
         <v>21</v>
       </c>
       <c r="S29" s="11" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T29" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U29" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="V29" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="W29" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X29" s="11" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="Z29" s="11" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="AA29" s="11">
         <v>2</v>
@@ -8067,17 +8226,23 @@
       <c r="AC29" s="11">
         <v>3</v>
       </c>
+      <c r="AD29" s="11" t="s">
+        <v>428</v>
+      </c>
       <c r="AF29" s="11">
         <v>4.4000000000000004</v>
       </c>
       <c r="AG29" s="11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AH29" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI29" s="11" t="s">
-        <v>144</v>
+        <v>124</v>
+      </c>
+      <c r="AK29" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL29" s="11" t="s">
+        <v>420</v>
       </c>
       <c r="AM29" s="11" t="s">
         <v>232</v>
@@ -8086,66 +8251,63 @@
         <v>160</v>
       </c>
       <c r="AO29" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="AP29" s="11" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="AQ29" s="11" t="s">
         <v>164</v>
       </c>
+      <c r="AR29" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS29" s="11" t="s">
+        <v>175</v>
+      </c>
       <c r="AU29" s="11" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="AV29" s="11" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="AW29" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX29" s="13" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
     </row>
     <row r="30" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
-        <v>331</v>
+        <v>370</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="E30" s="11">
-        <v>1996</v>
+        <v>2019</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>246</v>
+        <v>373</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>336</v>
+        <v>272</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="L30" s="15" t="s">
-        <v>398</v>
+        <v>375</v>
+      </c>
+      <c r="L30" s="14" t="s">
+        <v>464</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
       <c r="N30" s="11" t="s">
         <v>254</v>
@@ -8154,31 +8316,25 @@
         <v>255</v>
       </c>
       <c r="P30" s="11" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="Q30" s="11" t="s">
         <v>21</v>
       </c>
       <c r="S30" s="11" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T30" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U30" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="V30" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="W30" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X30" s="11" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="Z30" s="11" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="AA30" s="11">
         <v>2</v>
@@ -8189,85 +8345,91 @@
       <c r="AC30" s="11">
         <v>3</v>
       </c>
+      <c r="AD30" s="11" t="s">
+        <v>428</v>
+      </c>
       <c r="AF30" s="11">
         <v>4.4000000000000004</v>
       </c>
       <c r="AG30" s="11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AH30" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI30" s="11" t="s">
-        <v>144</v>
+        <v>124</v>
+      </c>
+      <c r="AK30" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL30" s="11" t="s">
+        <v>420</v>
       </c>
       <c r="AM30" s="11" t="s">
         <v>232</v>
       </c>
       <c r="AN30" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AO30" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="AP30" s="11" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="AQ30" s="11" t="s">
         <v>164</v>
       </c>
+      <c r="AR30" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS30" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="AT30" s="11" t="s">
+        <v>421</v>
+      </c>
       <c r="AU30" s="11" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="AV30" s="11" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="AW30" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX30" s="13" t="s">
-        <v>487</v>
+        <v>207</v>
+      </c>
+      <c r="AX30" s="11" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="31" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
-        <v>331</v>
+        <v>370</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="E31" s="11">
-        <v>1996</v>
+        <v>2019</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>246</v>
+        <v>373</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="J31" s="11" t="s">
-        <v>336</v>
+        <v>272</v>
       </c>
       <c r="K31" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="L31" s="11" t="s">
-        <v>398</v>
+        <v>375</v>
+      </c>
+      <c r="L31" s="14" t="s">
+        <v>465</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
       <c r="N31" s="11" t="s">
         <v>254</v>
@@ -8276,31 +8438,25 @@
         <v>255</v>
       </c>
       <c r="P31" s="11" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="Q31" s="11" t="s">
         <v>21</v>
       </c>
       <c r="S31" s="11" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T31" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U31" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="V31" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="W31" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X31" s="11" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="Z31" s="11" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="AA31" s="11">
         <v>2</v>
@@ -8311,17 +8467,23 @@
       <c r="AC31" s="11">
         <v>3</v>
       </c>
+      <c r="AD31" s="11" t="s">
+        <v>428</v>
+      </c>
       <c r="AF31" s="11">
         <v>4.4000000000000004</v>
       </c>
       <c r="AG31" s="11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AH31" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI31" s="11" t="s">
-        <v>144</v>
+        <v>124</v>
+      </c>
+      <c r="AK31" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL31" s="11" t="s">
+        <v>420</v>
       </c>
       <c r="AM31" s="11" t="s">
         <v>232</v>
@@ -8330,66 +8492,69 @@
         <v>160</v>
       </c>
       <c r="AO31" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="AP31" s="11" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="AQ31" s="11" t="s">
         <v>164</v>
       </c>
+      <c r="AR31" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="AS31" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="AT31" s="11" t="s">
+        <v>421</v>
+      </c>
       <c r="AU31" s="11" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="AV31" s="11" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="AW31" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX31" s="13" t="s">
-        <v>487</v>
+        <v>207</v>
+      </c>
+      <c r="AX31" s="11" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="32" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
-        <v>331</v>
+        <v>363</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>332</v>
+        <v>364</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>333</v>
+        <v>365</v>
       </c>
       <c r="E32" s="11">
-        <v>1996</v>
+        <v>2021</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>246</v>
+        <v>366</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>335</v>
+        <v>272</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>336</v>
+        <v>367</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="L32" s="15" t="s">
-        <v>398</v>
+        <v>368</v>
+      </c>
+      <c r="L32" s="14" t="s">
+        <v>458</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>338</v>
+        <v>369</v>
       </c>
       <c r="N32" s="11" t="s">
         <v>254</v>
@@ -8397,11 +8562,8 @@
       <c r="O32" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="P32" s="11" t="s">
-        <v>256</v>
-      </c>
       <c r="Q32" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S32" s="11" t="s">
         <v>24</v>
@@ -8410,19 +8572,22 @@
         <v>46</v>
       </c>
       <c r="U32" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V32" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="W32" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X32" s="11" t="s">
-        <v>69</v>
+        <v>216</v>
+      </c>
+      <c r="Y32" s="11" t="s">
+        <v>422</v>
       </c>
       <c r="Z32" s="11" t="s">
-        <v>399</v>
+        <v>433</v>
       </c>
       <c r="AA32" s="11">
         <v>2</v>
@@ -8433,35 +8598,50 @@
       <c r="AC32" s="11">
         <v>3</v>
       </c>
+      <c r="AD32" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="AE32" s="11" t="s">
+        <v>430</v>
+      </c>
       <c r="AF32" s="11">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="AG32" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AH32" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI32" s="11" t="s">
-        <v>144</v>
+        <v>120</v>
+      </c>
+      <c r="AK32" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL32" s="11" t="s">
+        <v>431</v>
       </c>
       <c r="AM32" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN32" s="11" t="s">
-        <v>161</v>
+        <v>233</v>
       </c>
       <c r="AO32" s="11" t="s">
-        <v>485</v>
+        <v>426</v>
       </c>
       <c r="AP32" s="11" t="s">
-        <v>486</v>
+        <v>429</v>
       </c>
       <c r="AQ32" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="AU32" s="11" t="s">
-        <v>490</v>
+      <c r="AR32" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS32" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT32" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="AU32" s="12" t="s">
+        <v>434</v>
       </c>
       <c r="AV32" s="11" t="s">
         <v>206</v>
@@ -8469,49 +8649,46 @@
       <c r="AW32" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="AX32" s="13" t="s">
-        <v>487</v>
+      <c r="AX32" s="11" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="33" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
-        <v>331</v>
+        <v>363</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>332</v>
+        <v>364</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>333</v>
+        <v>365</v>
       </c>
       <c r="E33" s="11">
-        <v>1996</v>
+        <v>2021</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>246</v>
+        <v>366</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>335</v>
+        <v>272</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>336</v>
+        <v>367</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="L33" s="11" t="s">
-        <v>398</v>
+        <v>368</v>
+      </c>
+      <c r="L33" s="14" t="s">
+        <v>466</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>338</v>
+        <v>369</v>
       </c>
       <c r="N33" s="11" t="s">
         <v>254</v>
@@ -8519,11 +8696,8 @@
       <c r="O33" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="P33" s="11" t="s">
-        <v>256</v>
-      </c>
       <c r="Q33" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S33" s="11" t="s">
         <v>24</v>
@@ -8532,19 +8706,22 @@
         <v>46</v>
       </c>
       <c r="U33" s="11" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="V33" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="W33" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X33" s="11" t="s">
-        <v>69</v>
+        <v>113</v>
+      </c>
+      <c r="Y33" s="11" t="s">
+        <v>424</v>
       </c>
       <c r="Z33" s="11" t="s">
-        <v>399</v>
+        <v>433</v>
       </c>
       <c r="AA33" s="11">
         <v>2</v>
@@ -8555,85 +8732,97 @@
       <c r="AC33" s="11">
         <v>3</v>
       </c>
+      <c r="AD33" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="AE33" s="11" t="s">
+        <v>430</v>
+      </c>
       <c r="AF33" s="11">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="AG33" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AH33" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI33" s="11" t="s">
-        <v>144</v>
+        <v>120</v>
+      </c>
+      <c r="AK33" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL33" s="11" t="s">
+        <v>431</v>
       </c>
       <c r="AM33" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN33" s="11" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO33" s="11" t="s">
-        <v>485</v>
+        <v>426</v>
       </c>
       <c r="AP33" s="11" t="s">
-        <v>486</v>
+        <v>429</v>
       </c>
       <c r="AQ33" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="AU33" s="11" t="s">
-        <v>488</v>
+      <c r="AR33" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS33" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT33" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="AU33" s="12" t="s">
+        <v>434</v>
       </c>
       <c r="AV33" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AW33" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX33" s="13" t="s">
-        <v>489</v>
+        <v>208</v>
+      </c>
+      <c r="AX33" s="11" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="34" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
-        <v>331</v>
+        <v>363</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>332</v>
+        <v>364</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>333</v>
+        <v>365</v>
       </c>
       <c r="E34" s="11">
-        <v>1996</v>
+        <v>2021</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>246</v>
+        <v>366</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>335</v>
+        <v>272</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>336</v>
+        <v>367</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="L34" s="15" t="s">
-        <v>398</v>
+        <v>368</v>
+      </c>
+      <c r="L34" s="14" t="s">
+        <v>467</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>338</v>
+        <v>369</v>
       </c>
       <c r="N34" s="11" t="s">
         <v>254</v>
@@ -8641,11 +8830,8 @@
       <c r="O34" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="P34" s="11" t="s">
-        <v>256</v>
-      </c>
       <c r="Q34" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S34" s="11" t="s">
         <v>24</v>
@@ -8654,19 +8840,22 @@
         <v>46</v>
       </c>
       <c r="U34" s="11" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="V34" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="W34" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X34" s="11" t="s">
-        <v>69</v>
+        <v>113</v>
+      </c>
+      <c r="Y34" s="11" t="s">
+        <v>424</v>
       </c>
       <c r="Z34" s="11" t="s">
-        <v>399</v>
+        <v>433</v>
       </c>
       <c r="AA34" s="11">
         <v>2</v>
@@ -8677,85 +8866,100 @@
       <c r="AC34" s="11">
         <v>3</v>
       </c>
+      <c r="AD34" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="AE34" s="11" t="s">
+        <v>430</v>
+      </c>
       <c r="AF34" s="11">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="AG34" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AH34" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI34" s="11" t="s">
-        <v>144</v>
+        <v>120</v>
+      </c>
+      <c r="AK34" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL34" s="11" t="s">
+        <v>431</v>
       </c>
       <c r="AM34" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN34" s="11" t="s">
-        <v>161</v>
+        <v>233</v>
       </c>
       <c r="AO34" s="11" t="s">
-        <v>485</v>
+        <v>426</v>
       </c>
       <c r="AP34" s="11" t="s">
-        <v>486</v>
+        <v>429</v>
       </c>
       <c r="AQ34" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="AU34" s="11" t="s">
-        <v>488</v>
+      <c r="AR34" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS34" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT34" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="AU34" s="12" t="s">
+        <v>435</v>
       </c>
       <c r="AV34" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AW34" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX34" s="13" t="s">
-        <v>489</v>
+        <v>208</v>
+      </c>
+      <c r="AX34" s="11" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="35" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="E35" s="11">
-        <v>1981</v>
+        <v>1968</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>350</v>
+        <v>246</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>343</v>
+        <v>281</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="K35" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="L35" s="11" t="s">
-        <v>400</v>
+        <v>361</v>
+      </c>
+      <c r="L35" s="14" t="s">
+        <v>462</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="N35" s="11" t="s">
         <v>254</v>
@@ -8770,52 +8974,67 @@
         <v>21</v>
       </c>
       <c r="S35" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T35" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U35" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V35" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W35" s="11" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="X35" s="11" t="s">
         <v>69</v>
       </c>
       <c r="Z35" s="11" t="s">
-        <v>401</v>
+        <v>437</v>
       </c>
       <c r="AA35" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB35" s="11">
         <v>2</v>
       </c>
       <c r="AC35" s="11">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="AD35" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="AE35" s="11" t="s">
+        <v>438</v>
       </c>
       <c r="AF35" s="11">
         <v>4.4000000000000004</v>
       </c>
       <c r="AG35" s="11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AH35" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="AI35" s="11" t="s">
+        <v>130</v>
       </c>
       <c r="AK35" s="11" t="s">
-        <v>134</v>
+        <v>150</v>
+      </c>
+      <c r="AL35" s="11" t="s">
+        <v>439</v>
       </c>
       <c r="AM35" s="11" t="s">
-        <v>159</v>
+        <v>232</v>
+      </c>
+      <c r="AN35" s="11" t="s">
+        <v>160</v>
       </c>
       <c r="AO35" s="11" t="s">
-        <v>402</v>
+        <v>440</v>
       </c>
       <c r="AQ35" s="11" t="s">
         <v>164</v>
@@ -8827,66 +9046,66 @@
         <v>175</v>
       </c>
       <c r="AT35" s="11" t="s">
-        <v>403</v>
+        <v>439</v>
       </c>
       <c r="AU35" s="11" t="s">
-        <v>404</v>
+        <v>441</v>
       </c>
       <c r="AV35" s="11" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="AW35" s="11" t="s">
         <v>207</v>
       </c>
       <c r="AX35" s="11" t="s">
-        <v>405</v>
+        <v>443</v>
       </c>
     </row>
     <row r="36" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
-        <v>287</v>
+        <v>242</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>288</v>
+        <v>244</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>289</v>
+        <v>245</v>
       </c>
       <c r="E36" s="11">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>246</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>290</v>
+        <v>247</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>291</v>
+        <v>248</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>292</v>
+        <v>249</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>293</v>
+        <v>250</v>
       </c>
       <c r="K36" s="11" t="s">
-        <v>294</v>
+        <v>251</v>
       </c>
       <c r="L36" s="14" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="N36" s="11" t="s">
         <v>254</v>
       </c>
       <c r="O36" s="11" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="P36" s="11" t="s">
         <v>256</v>
@@ -8900,14 +9119,17 @@
       <c r="T36" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="V36" s="11" t="s">
-        <v>44</v>
+      <c r="U36" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="W36" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="X36" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z36" s="11" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="AA36" s="11">
         <v>2</v>
@@ -8916,105 +9138,105 @@
         <v>2</v>
       </c>
       <c r="AC36" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD36" s="13" t="s">
-        <v>474</v>
+        <v>447</v>
       </c>
       <c r="AF36" s="11">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AG36" s="11" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AH36" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AI36" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ36" s="11" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="AK36" s="11" t="s">
         <v>150</v>
       </c>
+      <c r="AL36" s="11" t="s">
+        <v>481</v>
+      </c>
       <c r="AM36" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN36" s="11" t="s">
+        <v>160</v>
       </c>
       <c r="AO36" s="11" t="s">
-        <v>482</v>
+        <v>490</v>
+      </c>
+      <c r="AP36" s="11" t="s">
+        <v>491</v>
       </c>
       <c r="AQ36" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="AR36" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS36" s="11" t="s">
-        <v>176</v>
-      </c>
       <c r="AT36" s="11" t="s">
-        <v>130</v>
+        <v>444</v>
       </c>
       <c r="AU36" s="11" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="AV36" s="11" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="AW36" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AX36" s="11" t="s">
-        <v>453</v>
+        <v>480</v>
       </c>
     </row>
     <row r="37" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="E37" s="11">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>246</v>
+        <v>300</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="K37" s="11" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="L37" s="14" t="s">
-        <v>473</v>
+        <v>394</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="N37" s="11" t="s">
         <v>254</v>
       </c>
       <c r="O37" s="11" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="P37" s="11" t="s">
         <v>256</v>
@@ -9028,14 +9250,20 @@
       <c r="T37" s="11" t="s">
         <v>46</v>
       </c>
+      <c r="U37" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="V37" s="11" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="W37" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="X37" s="11" t="s">
-        <v>216</v>
+        <v>75</v>
       </c>
       <c r="Z37" s="11" t="s">
-        <v>452</v>
+        <v>395</v>
       </c>
       <c r="AA37" s="11">
         <v>2</v>
@@ -9044,34 +9272,31 @@
         <v>2</v>
       </c>
       <c r="AC37" s="11">
-        <v>3</v>
-      </c>
-      <c r="AD37" s="11" t="s">
-        <v>451</v>
+        <v>2</v>
       </c>
       <c r="AF37" s="11">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AG37" s="11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AH37" s="11" t="s">
         <v>120</v>
       </c>
       <c r="AI37" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ37" s="11" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="AK37" s="11" t="s">
         <v>150</v>
       </c>
       <c r="AM37" s="11" t="s">
-        <v>159</v>
+        <v>232</v>
+      </c>
+      <c r="AN37" s="11" t="s">
+        <v>160</v>
       </c>
       <c r="AO37" s="11" t="s">
-        <v>482</v>
+        <v>396</v>
       </c>
       <c r="AQ37" s="11" t="s">
         <v>164</v>
@@ -9080,63 +9305,60 @@
         <v>239</v>
       </c>
       <c r="AS37" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="AT37" s="11" t="s">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="AU37" s="11" t="s">
-        <v>454</v>
+        <v>488</v>
       </c>
       <c r="AV37" s="11" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AW37" s="11" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AX37" s="11" t="s">
-        <v>453</v>
+        <v>489</v>
       </c>
     </row>
     <row r="38" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="E38" s="11">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="K38" s="11" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="L38" s="14" t="s">
-        <v>472</v>
+        <v>394</v>
       </c>
       <c r="M38" s="11" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="N38" s="11" t="s">
         <v>254</v>
@@ -9145,106 +9367,251 @@
         <v>255</v>
       </c>
       <c r="P38" s="11" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="Q38" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="R38" s="11" t="s">
-        <v>84</v>
+      <c r="S38" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="T38" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="U38" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="V38" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="W38" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="X38" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z38" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="AA38" s="11">
+        <v>2</v>
+      </c>
+      <c r="AB38" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC38" s="11">
+        <v>2</v>
+      </c>
+      <c r="AF38" s="11">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG38" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH38" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI38" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ38" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK38" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM38" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN38" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO38" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="AQ38" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR38" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS38" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU38" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="AV38" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="AW38" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX38" s="11" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="39" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="E39" s="11">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>325</v>
+        <v>246</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="K39" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="L39" s="14"/>
+        <v>337</v>
+      </c>
+      <c r="L39" s="11" t="s">
+        <v>397</v>
+      </c>
       <c r="M39" s="11" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="N39" s="11" t="s">
-        <v>330</v>
+        <v>254</v>
       </c>
       <c r="O39" s="11" t="s">
         <v>255</v>
       </c>
       <c r="P39" s="11" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q39" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="R39" s="11" t="s">
-        <v>87</v>
+      <c r="S39" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="T39" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="U39" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="V39" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="W39" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="X39" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z39" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="AA39" s="11">
+        <v>2</v>
+      </c>
+      <c r="AB39" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC39" s="11">
+        <v>3</v>
+      </c>
+      <c r="AF39" s="11">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG39" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH39" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI39" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM39" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN39" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO39" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="AP39" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="AQ39" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU39" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="AV39" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW39" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX39" s="13" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="40" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E40" s="11">
-        <v>1990</v>
+        <v>1996</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>342</v>
+        <v>246</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>343</v>
+        <v>262</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="K40" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="L40" s="14"/>
+        <v>337</v>
+      </c>
+      <c r="L40" s="15" t="s">
+        <v>397</v>
+      </c>
       <c r="M40" s="11" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="N40" s="11" t="s">
         <v>254</v>
@@ -9253,17 +9620,1116 @@
         <v>255</v>
       </c>
       <c r="P40" s="11" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q40" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="R40" s="11" t="s">
+      <c r="S40" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="T40" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="U40" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="V40" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="W40" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="X40" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z40" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="AA40" s="11">
+        <v>2</v>
+      </c>
+      <c r="AB40" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC40" s="11">
+        <v>3</v>
+      </c>
+      <c r="AF40" s="11">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG40" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH40" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI40" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM40" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN40" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO40" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="AP40" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="AQ40" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU40" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="AV40" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW40" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX40" s="13" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="41" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="E41" s="11">
+        <v>1996</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="L41" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="M41" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="N41" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="O41" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="P41" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q41" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="S41" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="T41" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="U41" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="V41" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="W41" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="X41" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z41" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="AA41" s="11">
+        <v>2</v>
+      </c>
+      <c r="AB41" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC41" s="11">
+        <v>3</v>
+      </c>
+      <c r="AF41" s="11">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG41" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH41" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI41" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM41" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN41" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO41" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="AP41" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="AQ41" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU41" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="AV41" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="AW41" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX41" s="13" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="42" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="E42" s="11">
+        <v>1996</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="K42" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="L42" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="M42" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="N42" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="O42" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="P42" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q42" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="S42" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="T42" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="U42" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="V42" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="W42" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="X42" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z42" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="AA42" s="11">
+        <v>2</v>
+      </c>
+      <c r="AB42" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC42" s="11">
+        <v>3</v>
+      </c>
+      <c r="AF42" s="11">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG42" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH42" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI42" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM42" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN42" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO42" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="AP42" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="AQ42" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU42" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="AV42" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="AW42" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX42" s="13" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="43" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="E43" s="11">
+        <v>1996</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="L43" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="M43" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="N43" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="O43" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="P43" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q43" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="S43" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="T43" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="U43" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="V43" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="W43" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="X43" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z43" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="AA43" s="11">
+        <v>2</v>
+      </c>
+      <c r="AB43" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC43" s="11">
+        <v>3</v>
+      </c>
+      <c r="AF43" s="11">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG43" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH43" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI43" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM43" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN43" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO43" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="AP43" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="AQ43" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU43" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="AV43" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="AW43" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX43" s="13" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="44" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="E44" s="11">
+        <v>1996</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="L44" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="M44" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="N44" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="O44" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="P44" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q44" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="S44" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="T44" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="U44" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="V44" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="W44" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="X44" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z44" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="AA44" s="11">
+        <v>2</v>
+      </c>
+      <c r="AB44" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC44" s="11">
+        <v>3</v>
+      </c>
+      <c r="AF44" s="11">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG44" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH44" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI44" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM44" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN44" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO44" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="AP44" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="AQ44" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU44" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="AV44" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="AW44" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX44" s="13" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="45" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="E45" s="11">
+        <v>1981</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="L45" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="M45" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="N45" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="O45" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="P45" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q45" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="S45" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="T45" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="U45" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="V45" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="W45" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="X45" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z45" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="AA45" s="11">
+        <v>1</v>
+      </c>
+      <c r="AB45" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC45" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF45" s="11">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG45" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH45" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK45" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM45" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="AO45" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="AQ45" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR45" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS45" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT45" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="AU45" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="AV45" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="AW45" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX45" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="46" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="E46" s="11">
+        <v>2000</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="L46" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="M46" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="N46" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="O46" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="P46" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q46" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="S46" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="T46" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="V46" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="X46" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z46" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="AA46" s="11">
+        <v>2</v>
+      </c>
+      <c r="AB46" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC46" s="11">
+        <v>3</v>
+      </c>
+      <c r="AD46" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="AF46" s="11">
+        <v>4.3</v>
+      </c>
+      <c r="AG46" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH46" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI46" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ46" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK46" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM46" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO46" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="AQ46" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR46" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS46" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="AT46" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU46" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="AV46" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="AW46" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX46" s="11" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="47" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="E47" s="11">
+        <v>2000</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="L47" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="M47" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="N47" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="O47" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="P47" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q47" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="S47" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="T47" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="V47" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="X47" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z47" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="AA47" s="11">
+        <v>2</v>
+      </c>
+      <c r="AB47" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC47" s="11">
+        <v>3</v>
+      </c>
+      <c r="AD47" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="AF47" s="11">
+        <v>4.3</v>
+      </c>
+      <c r="AG47" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH47" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI47" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ47" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK47" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM47" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="AO47" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="AQ47" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR47" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS47" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="AT47" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU47" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="AV47" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="AW47" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX47" s="11" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="48" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="E48" s="11">
+        <v>2002</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="L48" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="M48" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="N48" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="O48" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="P48" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q48" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="R48" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="49" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="E49" s="11">
+        <v>1997</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="L49" s="14"/>
+      <c r="M49" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="N49" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="O49" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="P49" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q49" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="R49" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="E50" s="11">
+        <v>1990</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="L50" s="14"/>
+      <c r="M50" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="N50" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="O50" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="P50" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q50" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="R50" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="52" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="AQ1:AT1"/>
@@ -9275,45 +10741,61 @@
     <mergeCell ref="AM1:AP1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="P39:P1048576 Q38 Q3:Q7 P27:P37 Q26 P8:P25" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="P49:P1048576 Q48 P18:P35 P37:P47 Q36 Q3:Q17" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Ecosystem_component</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Fishery_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN3:AN1048576 AI3:AJ1048576 AR3:AS1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI3:AJ1048576 AR3:AS1048576 AN3:AN1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>INDIRECT(AH3)</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="L28" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="L3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="L4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="L5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="L6:L7" r:id="rId5" display="https://doi.org/10.1007/s002270100688" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="L8:L15" r:id="rId6" display="https://doi.org/10.1046/j.1439-0426.1999.00125.x" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="L16" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="L19" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="L20:L21" r:id="rId9" display="https://doi.org/10.1371/journal.pone.0210659" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="L22" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="L23:L24" r:id="rId11" display="https://doi.org/10.3354/meps13790" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="L25" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="L26" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="L36" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="L37" r:id="rId15" display="https://doi.org/10.1006/jmsc.2000.0914" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="L38" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="L34" r:id="rId17" xr:uid="{249D99DC-8FDE-4B7C-8210-589AFBDB12B3}"/>
-    <hyperlink ref="L32" r:id="rId18" xr:uid="{D8151F68-4EF7-4EC6-825F-FCF3CF6108BA}"/>
-    <hyperlink ref="L30" r:id="rId19" xr:uid="{65B82A21-4210-4657-A157-C1EECA27124D}"/>
-    <hyperlink ref="L27" r:id="rId20" xr:uid="{0A279379-C0CA-424C-86BC-A4F5C9068401}"/>
+    <hyperlink ref="L38" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L13" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="L14" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="L15" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="L16:L17" r:id="rId5" display="https://doi.org/10.1007/s002270100688" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="L18:L25" r:id="rId6" display="https://doi.org/10.1046/j.1439-0426.1999.00125.x" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="L26" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="L29" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="L30:L31" r:id="rId9" display="https://doi.org/10.1371/journal.pone.0210659" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="L32" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="L33:L34" r:id="rId11" display="https://doi.org/10.3354/meps13790" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="L35" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="L36" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="L46" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="L47" r:id="rId15" display="https://doi.org/10.1006/jmsc.2000.0914" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="L48" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="L44" r:id="rId17" xr:uid="{249D99DC-8FDE-4B7C-8210-589AFBDB12B3}"/>
+    <hyperlink ref="L42" r:id="rId18" xr:uid="{D8151F68-4EF7-4EC6-825F-FCF3CF6108BA}"/>
+    <hyperlink ref="L40" r:id="rId19" xr:uid="{65B82A21-4210-4657-A157-C1EECA27124D}"/>
+    <hyperlink ref="L37" r:id="rId20" xr:uid="{0A279379-C0CA-424C-86BC-A4F5C9068401}"/>
+    <hyperlink ref="L3" r:id="rId21" xr:uid="{CB5114DA-2C2A-4C5A-B156-FFB79F5108F0}"/>
+    <hyperlink ref="L4" r:id="rId22" xr:uid="{9E28D7BA-B537-4F55-B3D6-466CC1D8475B}"/>
+    <hyperlink ref="L5" r:id="rId23" xr:uid="{BE32DC22-8600-4810-8333-C6EBB72DD301}"/>
+    <hyperlink ref="L6" r:id="rId24" xr:uid="{0F151F4D-2ABD-46F4-9754-3D3FF2E9AFA1}"/>
+    <hyperlink ref="L7" r:id="rId25" xr:uid="{B71411A9-EC18-4822-90AC-B38F8A7A207E}"/>
+    <hyperlink ref="L8" r:id="rId26" xr:uid="{3972BB52-695E-4C47-9CB0-13FB22252696}"/>
+    <hyperlink ref="L9" r:id="rId27" xr:uid="{4F6747A4-D72B-452F-97D8-948032803392}"/>
+    <hyperlink ref="L10" r:id="rId28" xr:uid="{3E27822B-8FFE-48FB-B943-AA6532AB27D2}"/>
+    <hyperlink ref="L11" r:id="rId29" xr:uid="{64743E72-EDD6-44B0-B718-AB0AE80CA3C5}"/>
+    <hyperlink ref="L12" r:id="rId30" xr:uid="{4DDD7AD4-923D-4770-A009-568E12EA632D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId21"/>
-  <legacyDrawing r:id="rId22"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId31"/>
+  <legacyDrawing r:id="rId32"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
+          <x14:formula1>
+            <xm:f>Validation!$AW$3:$AW$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>AW55:AW1048576 AW3:AW52</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
             <xm:f>Validation!$R$3:$R$9</xm:f>
@@ -9325,12 +10807,6 @@
             <xm:f>Validation!$S$3:$S$16</xm:f>
           </x14:formula1>
           <xm:sqref>S3:S1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
-          <x14:formula1>
-            <xm:f>Validation!$AW$3:$AW$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>AW3:AW1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000007000000}">
           <x14:formula1>
@@ -11407,12 +12883,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="125e2131eddd38cce17ebc9527d7a9d7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="553f2d8843fd2aa64b81f9e8c63a6619">
     <xsd:element name="properties">
@@ -11526,6 +12996,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
@@ -11535,21 +13011,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67B186BC-E729-4665-8BD9-5109664A2B02}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11563,4 +13024,19 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Spedicato.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Spedicato.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15CF2C4-83F1-41DB-9B1B-16690C266753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90AD506-FC9C-46CA-8D6B-7E2BD11818DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3786,9 +3786,6 @@
     <t>presence/absence _ individual measurements</t>
   </si>
   <si>
-    <t>exploitation rate</t>
-  </si>
-  <si>
     <t>exploitation rate (F/Z) _ cumulative exploitation of the fleets</t>
   </si>
   <si>
@@ -3880,6 +3877,9 @@
   </si>
   <si>
     <t>high pressure water jet and sorting vs. low pressure water jet and no sorting</t>
+  </si>
+  <si>
+    <t>landings</t>
   </si>
 </sst>
 </file>
@@ -4352,8 +4352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AP7" sqref="AP7"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AX46" sqref="AX46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4703,10 +4703,10 @@
         <v>161</v>
       </c>
       <c r="AO3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AP3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AQ3" t="s">
         <v>164</v>
@@ -4721,7 +4721,7 @@
         <v>377</v>
       </c>
       <c r="AU3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AV3" t="s">
         <v>237</v>
@@ -4730,7 +4730,7 @@
         <v>209</v>
       </c>
       <c r="AX3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.35">
@@ -4846,10 +4846,10 @@
         <v>161</v>
       </c>
       <c r="AO4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AP4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AQ4" t="s">
         <v>164</v>
@@ -4864,7 +4864,7 @@
         <v>377</v>
       </c>
       <c r="AU4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AV4" t="s">
         <v>213</v>
@@ -4873,7 +4873,7 @@
         <v>208</v>
       </c>
       <c r="AX4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.35">
@@ -4989,10 +4989,10 @@
         <v>161</v>
       </c>
       <c r="AO5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AP5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AQ5" t="s">
         <v>164</v>
@@ -5007,7 +5007,7 @@
         <v>377</v>
       </c>
       <c r="AU5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AV5" t="s">
         <v>213</v>
@@ -5016,7 +5016,7 @@
         <v>210</v>
       </c>
       <c r="AX5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.35">
@@ -5132,10 +5132,10 @@
         <v>161</v>
       </c>
       <c r="AO6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AP6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AQ6" t="s">
         <v>164</v>
@@ -5150,7 +5150,7 @@
         <v>377</v>
       </c>
       <c r="AU6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AV6" t="s">
         <v>202</v>
@@ -5159,7 +5159,7 @@
         <v>209</v>
       </c>
       <c r="AX6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.35">
@@ -5275,10 +5275,10 @@
         <v>161</v>
       </c>
       <c r="AO7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AP7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AQ7" t="s">
         <v>164</v>
@@ -5293,7 +5293,7 @@
         <v>377</v>
       </c>
       <c r="AU7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AV7" t="s">
         <v>213</v>
@@ -5302,7 +5302,7 @@
         <v>209</v>
       </c>
       <c r="AX7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.35">
@@ -5418,10 +5418,10 @@
         <v>161</v>
       </c>
       <c r="AO8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AP8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AQ8" t="s">
         <v>164</v>
@@ -5436,7 +5436,7 @@
         <v>377</v>
       </c>
       <c r="AU8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AV8" t="s">
         <v>113</v>
@@ -5445,7 +5445,7 @@
         <v>207</v>
       </c>
       <c r="AX8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.35">
@@ -5930,7 +5930,7 @@
         <v>160</v>
       </c>
       <c r="AO12" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AQ12" t="s">
         <v>164</v>
@@ -6061,7 +6061,7 @@
         <v>160</v>
       </c>
       <c r="AO13" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AQ13" t="s">
         <v>164</v>
@@ -6192,7 +6192,7 @@
         <v>160</v>
       </c>
       <c r="AO14" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AQ14" t="s">
         <v>164</v>
@@ -6326,7 +6326,7 @@
         <v>160</v>
       </c>
       <c r="AO15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AQ15" t="s">
         <v>164</v>
@@ -6460,7 +6460,7 @@
         <v>160</v>
       </c>
       <c r="AO16" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AQ16" t="s">
         <v>164</v>
@@ -6591,7 +6591,7 @@
         <v>160</v>
       </c>
       <c r="AO17" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AQ17" t="s">
         <v>164</v>
@@ -6722,7 +6722,7 @@
         <v>160</v>
       </c>
       <c r="AO18" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AQ18" t="s">
         <v>164</v>
@@ -6853,7 +6853,7 @@
         <v>160</v>
       </c>
       <c r="AO19" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AQ19" t="s">
         <v>164</v>
@@ -7386,7 +7386,7 @@
         <v>160</v>
       </c>
       <c r="AO23" t="s">
-        <v>473</v>
+        <v>504</v>
       </c>
       <c r="AQ23" t="s">
         <v>164</v>
@@ -7398,7 +7398,7 @@
         <v>175</v>
       </c>
       <c r="AU23" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AV23" t="s">
         <v>238</v>
@@ -7407,7 +7407,7 @@
         <v>207</v>
       </c>
       <c r="AX23" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.35">
@@ -7505,7 +7505,7 @@
         <v>160</v>
       </c>
       <c r="AO24" t="s">
-        <v>473</v>
+        <v>504</v>
       </c>
       <c r="AQ24" t="s">
         <v>164</v>
@@ -7520,7 +7520,7 @@
         <v>419</v>
       </c>
       <c r="AU24" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AV24" t="s">
         <v>238</v>
@@ -7529,7 +7529,7 @@
         <v>207</v>
       </c>
       <c r="AX24" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.35">
@@ -7627,7 +7627,7 @@
         <v>160</v>
       </c>
       <c r="AO25" t="s">
-        <v>473</v>
+        <v>504</v>
       </c>
       <c r="AQ25" t="s">
         <v>164</v>
@@ -7642,7 +7642,7 @@
         <v>419</v>
       </c>
       <c r="AU25" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AV25" t="s">
         <v>238</v>
@@ -7651,7 +7651,7 @@
         <v>207</v>
       </c>
       <c r="AX25" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.35">
@@ -8294,7 +8294,7 @@
         <v>150</v>
       </c>
       <c r="AL30" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AM30" t="s">
         <v>232</v>
@@ -8303,10 +8303,10 @@
         <v>160</v>
       </c>
       <c r="AO30" t="s">
+        <v>487</v>
+      </c>
+      <c r="AP30" t="s">
         <v>488</v>
-      </c>
-      <c r="AP30" t="s">
-        <v>489</v>
       </c>
       <c r="AQ30" t="s">
         <v>164</v>
@@ -8324,7 +8324,7 @@
         <v>208</v>
       </c>
       <c r="AX30" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.35">
@@ -8443,7 +8443,7 @@
         <v>175</v>
       </c>
       <c r="AU31" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AV31" t="s">
         <v>206</v>
@@ -8452,7 +8452,7 @@
         <v>209</v>
       </c>
       <c r="AX31" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.35">
@@ -8574,7 +8574,7 @@
         <v>175</v>
       </c>
       <c r="AU32" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AV32" t="s">
         <v>206</v>
@@ -8583,7 +8583,7 @@
         <v>209</v>
       </c>
       <c r="AX32" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.35">
@@ -8687,16 +8687,16 @@
         <v>160</v>
       </c>
       <c r="AO33" t="s">
+        <v>479</v>
+      </c>
+      <c r="AP33" t="s">
         <v>480</v>
-      </c>
-      <c r="AP33" t="s">
-        <v>481</v>
       </c>
       <c r="AQ33" t="s">
         <v>164</v>
       </c>
       <c r="AU33" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AV33" t="s">
         <v>200</v>
@@ -8705,7 +8705,7 @@
         <v>208</v>
       </c>
       <c r="AX33" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.35">
@@ -8809,16 +8809,16 @@
         <v>161</v>
       </c>
       <c r="AO34" t="s">
+        <v>479</v>
+      </c>
+      <c r="AP34" t="s">
         <v>480</v>
-      </c>
-      <c r="AP34" t="s">
-        <v>481</v>
       </c>
       <c r="AQ34" t="s">
         <v>164</v>
       </c>
       <c r="AU34" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AV34" t="s">
         <v>200</v>
@@ -8827,7 +8827,7 @@
         <v>208</v>
       </c>
       <c r="AX34" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.35">
@@ -8931,16 +8931,16 @@
         <v>160</v>
       </c>
       <c r="AO35" t="s">
+        <v>479</v>
+      </c>
+      <c r="AP35" t="s">
         <v>480</v>
-      </c>
-      <c r="AP35" t="s">
-        <v>481</v>
       </c>
       <c r="AQ35" t="s">
         <v>164</v>
       </c>
       <c r="AU35" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AV35" t="s">
         <v>206</v>
@@ -8949,7 +8949,7 @@
         <v>208</v>
       </c>
       <c r="AX35" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.35">
@@ -9053,16 +9053,16 @@
         <v>161</v>
       </c>
       <c r="AO36" t="s">
+        <v>479</v>
+      </c>
+      <c r="AP36" t="s">
         <v>480</v>
-      </c>
-      <c r="AP36" t="s">
-        <v>481</v>
       </c>
       <c r="AQ36" t="s">
         <v>164</v>
       </c>
       <c r="AU36" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AV36" t="s">
         <v>206</v>
@@ -9071,7 +9071,7 @@
         <v>208</v>
       </c>
       <c r="AX36" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.35">
@@ -9175,16 +9175,16 @@
         <v>160</v>
       </c>
       <c r="AO37" t="s">
+        <v>479</v>
+      </c>
+      <c r="AP37" t="s">
         <v>480</v>
-      </c>
-      <c r="AP37" t="s">
-        <v>481</v>
       </c>
       <c r="AQ37" t="s">
         <v>164</v>
       </c>
       <c r="AU37" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AV37" t="s">
         <v>205</v>
@@ -9193,7 +9193,7 @@
         <v>209</v>
       </c>
       <c r="AX37" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.35">
@@ -9297,16 +9297,16 @@
         <v>161</v>
       </c>
       <c r="AO38" t="s">
+        <v>479</v>
+      </c>
+      <c r="AP38" t="s">
         <v>480</v>
-      </c>
-      <c r="AP38" t="s">
-        <v>481</v>
       </c>
       <c r="AQ38" t="s">
         <v>164</v>
       </c>
       <c r="AU38" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AV38" t="s">
         <v>205</v>
@@ -9315,7 +9315,7 @@
         <v>209</v>
       </c>
       <c r="AX38" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.35">
@@ -9544,7 +9544,7 @@
         <v>233</v>
       </c>
       <c r="AO40" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AQ40" t="s">
         <v>164</v>
@@ -9672,7 +9672,7 @@
         <v>159</v>
       </c>
       <c r="AO41" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AQ41" t="s">
         <v>164</v>
@@ -12009,12 +12009,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="125e2131eddd38cce17ebc9527d7a9d7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="553f2d8843fd2aa64b81f9e8c63a6619">
     <xsd:element name="properties">
@@ -12128,6 +12122,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
@@ -12137,21 +12137,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67B186BC-E729-4665-8BD9-5109664A2B02}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12165,4 +12150,19 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>